--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="308">
   <si>
     <t>Id
 序号</t>
@@ -548,11 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id=a,resourceId=b
-text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>common1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,12 +1077,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id=a,resourceId=b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Similarity
 相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=a,text=b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1438,7 +1433,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1470,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1757,7 +1752,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1794,13 +1789,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>136</v>
@@ -1814,13 +1809,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>137</v>
@@ -1834,13 +1829,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>138</v>
@@ -1854,13 +1849,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>138</v>
@@ -1874,13 +1869,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>138</v>
@@ -1894,13 +1889,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>138</v>
@@ -1914,13 +1909,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>138</v>
@@ -1934,13 +1929,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>138</v>
@@ -1954,13 +1949,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>138</v>
@@ -1974,13 +1969,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>138</v>
@@ -2004,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2045,10 +2040,10 @@
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
@@ -2062,31 +2057,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="I2" s="1">
         <v>99</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2097,31 +2092,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2132,31 +2127,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2167,31 +2162,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2202,31 +2197,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2237,31 +2232,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2272,31 +2267,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2307,31 +2302,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2342,31 +2337,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2377,31 +2372,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2456,16 +2451,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2473,16 +2468,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2490,16 +2485,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2507,16 +2502,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2524,16 +2519,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2541,16 +2536,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2558,16 +2553,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2575,16 +2570,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2592,16 +2587,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2609,16 +2604,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2653,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2666,16 +2661,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2683,16 +2678,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2700,16 +2695,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2717,16 +2712,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2734,16 +2729,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2751,16 +2746,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2768,16 +2763,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2785,16 +2780,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2802,16 +2797,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2819,16 +2814,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2837,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2887,25 +2882,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2913,25 +2908,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2939,25 +2934,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2965,25 +2960,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2991,25 +2986,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3017,25 +3012,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3043,25 +3038,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3069,25 +3064,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3095,25 +3090,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3121,25 +3116,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3611,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -4234,8 +4229,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4257,7 +4426,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4265,13 +4434,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4279,13 +4448,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4293,13 +4462,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4307,13 +4476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4321,13 +4490,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4335,13 +4504,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4349,13 +4518,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4363,13 +4532,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4377,13 +4546,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4391,194 +4560,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4617,13 +4611,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4631,13 +4625,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4645,13 +4639,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4659,13 +4653,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4673,13 +4667,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4687,13 +4681,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4701,13 +4695,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4715,13 +4709,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4729,13 +4723,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4743,13 +4737,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4790,13 +4784,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>23</v>
@@ -4807,16 +4801,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -4825,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4839,10 +4833,10 @@
         <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -4851,7 +4845,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4865,10 +4859,10 @@
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -4877,7 +4871,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4891,10 +4885,10 @@
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -4903,7 +4897,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4917,10 +4911,10 @@
         <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -4929,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4943,10 +4937,10 @@
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -4955,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4969,10 +4963,10 @@
         <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -4981,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4995,10 +4989,10 @@
         <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5007,7 +5001,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5021,10 +5015,10 @@
         <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5033,7 +5027,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5047,10 +5041,10 @@
         <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5059,7 +5053,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="信息对比(InformationCompare)" sheetId="12" r:id="rId12"/>
     <sheet name="信息保存(Information)" sheetId="13" r:id="rId13"/>
     <sheet name="测试用例(TestCase)" sheetId="14" r:id="rId14"/>
+    <sheet name="配置(Configure)" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="334">
   <si>
     <t>Id
 序号</t>
@@ -455,46 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a=0x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b=0x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i=7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa=9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb=19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc=12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,77 +545,6 @@
   </si>
   <si>
     <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x153</t>
-  </si>
-  <si>
-    <t>0x154</t>
-  </si>
-  <si>
-    <t>0x155</t>
-  </si>
-  <si>
-    <t>0x156</t>
-  </si>
-  <si>
-    <t>0x157</t>
-  </si>
-  <si>
-    <t>0x158</t>
-  </si>
-  <si>
-    <t>0x159</t>
-  </si>
-  <si>
-    <t>0x160</t>
-  </si>
-  <si>
-    <t>0x161</t>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1083,6 +973,236 @@
   </si>
   <si>
     <t>resourceId=a,text=b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ACCSet=0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_FRMMsgErr=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LKASet=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_EQ5Set=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_IntConctVolStepSet=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_CallVolStepSet=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ChrgMod=0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LocTiY=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_SeatTltgAdjMotTarPosn=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACU_RePassBkl_Sts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_RRMDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_RRSnsrDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLSnsrDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDU_OBCACVlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSM_SeatTltgtAdjStsFb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC_TakeoverReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAS_SysFltFlg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAS_SteerAgVld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content
+内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SocPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SocBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McuPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McuBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenShotTempPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbcFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的显示屏的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN的DBC文件绝对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name
+名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1137,18 +1257,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,7 +1579,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1465,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1789,16 +1935,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1809,16 +1955,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -1829,16 +1975,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1849,16 +1995,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -1869,16 +2015,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -1889,16 +2035,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -1909,16 +2055,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -1929,16 +2075,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -1949,16 +2095,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1969,16 +2115,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2000,7 +2146,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2040,10 +2186,10 @@
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
@@ -2057,31 +2203,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="I2" s="1">
-        <v>99</v>
+        <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2092,31 +2238,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2127,31 +2273,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2162,31 +2308,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2197,31 +2343,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2232,31 +2378,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2267,31 +2413,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2302,31 +2448,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2337,31 +2483,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2372,31 +2518,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2451,16 +2597,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2468,16 +2614,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2485,16 +2631,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2502,16 +2648,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2519,16 +2665,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2536,16 +2682,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2553,16 +2699,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2570,16 +2716,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2587,16 +2733,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2604,16 +2750,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2661,16 +2807,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2678,16 +2824,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2695,16 +2841,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2712,16 +2858,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2729,16 +2875,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2746,16 +2892,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2763,16 +2909,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2780,16 +2926,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2797,16 +2943,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2814,16 +2960,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2983,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2859,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>309</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -2882,25 +3028,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2908,25 +3054,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2934,25 +3080,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2960,25 +3106,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2986,25 +3132,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3012,25 +3158,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3038,25 +3184,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3064,25 +3210,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3090,25 +3236,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3116,25 +3262,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3145,6 +3291,275 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="6">
+        <v>115200</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="6">
+        <v>115200</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1920</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="4">
+        <v>720</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3199,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3219,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3239,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3259,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3279,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3299,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3319,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3339,7 +3754,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -3611,7 +4026,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -4229,7 +4644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4241,7 +4658,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4258,13 +4675,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4278,7 +4695,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4292,7 +4709,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4306,10 +4723,10 @@
         <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4320,10 +4737,10 @@
         <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4334,7 +4751,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4348,7 +4765,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4362,10 +4779,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4376,7 +4793,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4387,15 +4804,16 @@
         <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4403,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4434,13 +4852,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4448,13 +4866,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4462,13 +4880,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4476,13 +4894,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4490,13 +4908,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4504,13 +4922,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4518,13 +4936,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4532,13 +4950,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4546,13 +4964,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4560,13 +4978,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4611,13 +5029,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4625,13 +5043,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4639,13 +5057,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4653,13 +5071,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4667,13 +5085,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4681,13 +5099,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4695,13 +5113,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4709,13 +5127,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4723,13 +5141,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4737,13 +5155,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4757,7 +5175,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4784,33 +5202,33 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
+      </c>
+      <c r="D2" s="1">
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -4819,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4832,11 +5250,11 @@
       <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>162</v>
+      <c r="D3" s="1">
+        <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -4845,7 +5263,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4858,11 +5276,11 @@
       <c r="C4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>163</v>
+      <c r="D4" s="1">
+        <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -4871,10 +5289,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4884,11 +5302,11 @@
       <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>164</v>
+      <c r="D5" s="1">
+        <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -4897,10 +5315,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4910,11 +5328,11 @@
       <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>165</v>
+      <c r="D6" s="1">
+        <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -4923,10 +5341,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4936,11 +5354,11 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>166</v>
+      <c r="D7" s="1">
+        <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -4949,10 +5367,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4962,11 +5380,11 @@
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>167</v>
+      <c r="D8" s="1">
+        <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -4975,10 +5393,10 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4988,11 +5406,11 @@
       <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>168</v>
+      <c r="D9" s="1">
+        <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5001,7 +5419,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5014,11 +5432,11 @@
       <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>169</v>
+      <c r="D10" s="1">
+        <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5027,10 +5445,10 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5040,11 +5458,11 @@
       <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>170</v>
+      <c r="D11" s="1">
+        <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5053,7 +5471,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -3299,7 +3299,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="335">
   <si>
     <t>Id
 序号</t>
@@ -174,1035 +174,1041 @@
 模块名</t>
   </si>
   <si>
+    <t>StepsDescription
+操作步骤描述</t>
+  </si>
+  <si>
+    <t>ExpectDescription
+期望结果描述</t>
+  </si>
+  <si>
+    <t>BatteryType
+电源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT6831</t>
+  </si>
+  <si>
+    <t>设置电压</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KONSTANTER</t>
+  </si>
+  <si>
+    <t>设置电流</t>
+  </si>
+  <si>
+    <t>调节电压</t>
+  </si>
+  <si>
+    <t>电压曲线</t>
+  </si>
+  <si>
+    <t>d:\a.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>滑动</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>长按</t>
+  </si>
+  <si>
+    <t>双击</t>
+  </si>
+  <si>
+    <t>上滑</t>
+  </si>
+  <si>
+    <t>下滑</t>
+  </si>
+  <si>
+    <t>左滑</t>
+  </si>
+  <si>
+    <t>右滑</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>全开</t>
+  </si>
+  <si>
+    <t>全关</t>
+  </si>
+  <si>
+    <t>teset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teset2</t>
+  </si>
+  <si>
+    <t>teset3</t>
+  </si>
+  <si>
+    <t>teset4</t>
+  </si>
+  <si>
+    <t>teset5</t>
+  </si>
+  <si>
+    <t>teset6</t>
+  </si>
+  <si>
+    <t>teset7</t>
+  </si>
+  <si>
+    <t>teset8</t>
+  </si>
+  <si>
+    <t>teset9</t>
+  </si>
+  <si>
+    <t>teset10</t>
+  </si>
+  <si>
+    <t>tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tttt2</t>
+  </si>
+  <si>
+    <t>tttt3</t>
+  </si>
+  <si>
+    <t>tttt4</t>
+  </si>
+  <si>
+    <t>tttt5</t>
+  </si>
+  <si>
+    <t>tttt6</t>
+  </si>
+  <si>
+    <t>tttt7</t>
+  </si>
+  <si>
+    <t>tttt8</t>
+  </si>
+  <si>
+    <t>tttt9</t>
+  </si>
+  <si>
+    <t>tttt10</t>
+  </si>
+  <si>
+    <t>QNX</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>上滑到顶</t>
+  </si>
+  <si>
+    <t>下滑到底</t>
+  </si>
+  <si>
+    <t>左滑到头</t>
+  </si>
+  <si>
+    <t>右滑到头</t>
+  </si>
+  <si>
+    <t>teset11</t>
+  </si>
+  <si>
+    <t>teset12</t>
+  </si>
+  <si>
+    <t>tttt11</t>
+  </si>
+  <si>
+    <t>tttt12</t>
+  </si>
+  <si>
+    <t>12-15
+12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oooo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oooo2</t>
+  </si>
+  <si>
+    <t>oooo3</t>
+  </si>
+  <si>
+    <t>oooo4</t>
+  </si>
+  <si>
+    <t>oooo5</t>
+  </si>
+  <si>
+    <t>oooo6</t>
+  </si>
+  <si>
+    <t>oooo7</t>
+  </si>
+  <si>
+    <t>oooo8</t>
+  </si>
+  <si>
+    <t>oooo9</t>
+  </si>
+  <si>
+    <t>oooo10</t>
+  </si>
+  <si>
+    <t>test01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test02</t>
+  </si>
+  <si>
+    <t>test03</t>
+  </si>
+  <si>
+    <t>test04</t>
+  </si>
+  <si>
+    <t>test05</t>
+  </si>
+  <si>
+    <t>test06</t>
+  </si>
+  <si>
+    <t>test07</t>
+  </si>
+  <si>
+    <t>test08</t>
+  </si>
+  <si>
+    <t>test09</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk2</t>
+  </si>
+  <si>
+    <t>kkk3</t>
+  </si>
+  <si>
+    <t>kkk4</t>
+  </si>
+  <si>
+    <t>kkk5</t>
+  </si>
+  <si>
+    <t>kkk6</t>
+  </si>
+  <si>
+    <t>kkk7</t>
+  </si>
+  <si>
+    <t>kkk8</t>
+  </si>
+  <si>
+    <t>kkk9</t>
+  </si>
+  <si>
+    <t>kkk10</t>
+  </si>
+  <si>
+    <t>kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk11</t>
+  </si>
+  <si>
+    <t>text=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common2</t>
+  </si>
+  <si>
+    <t>common3</t>
+  </si>
+  <si>
+    <t>common4</t>
+  </si>
+  <si>
+    <t>common5</t>
+  </si>
+  <si>
+    <t>common6</t>
+  </si>
+  <si>
+    <t>common7</t>
+  </si>
+  <si>
+    <t>common8</t>
+  </si>
+  <si>
+    <t>common9</t>
+  </si>
+  <si>
+    <t>common10</t>
+  </si>
+  <si>
+    <t>a,b,c,d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppearCount
+出现次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre2</t>
+  </si>
+  <si>
+    <t>comapre3</t>
+  </si>
+  <si>
+    <t>comapre4</t>
+  </si>
+  <si>
+    <t>comapre5</t>
+  </si>
+  <si>
+    <t>comapre6</t>
+  </si>
+  <si>
+    <t>comapre7</t>
+  </si>
+  <si>
+    <t>comapre8</t>
+  </si>
+  <si>
+    <t>comapre9</t>
+  </si>
+  <si>
+    <t>comapre10</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>不存在</t>
+  </si>
+  <si>
+    <t>template_light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮图</t>
+  </si>
+  <si>
+    <t>暗图</t>
+  </si>
+  <si>
+    <t>闪烁图</t>
+  </si>
+  <si>
+    <t>compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareaaaa2</t>
+  </si>
+  <si>
+    <t>compareaaaa3</t>
+  </si>
+  <si>
+    <t>compareaaaa4</t>
+  </si>
+  <si>
+    <t>compareaaaa5</t>
+  </si>
+  <si>
+    <t>compareaaaa6</t>
+  </si>
+  <si>
+    <t>compareaaaa7</t>
+  </si>
+  <si>
+    <t>compareaaaa8</t>
+  </si>
+  <si>
+    <t>compareaaaa9</t>
+  </si>
+  <si>
+    <t>compareaaaa10</t>
+  </si>
+  <si>
+    <t>info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info2</t>
+  </si>
+  <si>
+    <t>info3</t>
+  </si>
+  <si>
+    <t>info4</t>
+  </si>
+  <si>
+    <t>info5</t>
+  </si>
+  <si>
+    <t>info6</t>
+  </si>
+  <si>
+    <t>info7</t>
+  </si>
+  <si>
+    <t>info8</t>
+  </si>
+  <si>
+    <t>info9</t>
+  </si>
+  <si>
+    <t>info10</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
+  </si>
+  <si>
+    <t>infomation3</t>
+  </si>
+  <si>
+    <t>infomation4</t>
+  </si>
+  <si>
+    <t>infomation5</t>
+  </si>
+  <si>
+    <t>infomation6</t>
+  </si>
+  <si>
+    <t>infomation7</t>
+  </si>
+  <si>
+    <t>infomation8</t>
+  </si>
+  <si>
+    <t>infomation9</t>
+  </si>
+  <si>
+    <t>infomation10</t>
+  </si>
+  <si>
+    <t>kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAttributes
+元素属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase2</t>
+  </si>
+  <si>
+    <t>testcase3</t>
+  </si>
+  <si>
+    <t>testcase4</t>
+  </si>
+  <si>
+    <t>testcase5</t>
+  </si>
+  <si>
+    <t>testcase6</t>
+  </si>
+  <si>
+    <t>testcase7</t>
+  </si>
+  <si>
+    <t>testcase8</t>
+  </si>
+  <si>
+    <t>testcase9</t>
+  </si>
+  <si>
+    <t>testcase10</t>
+  </si>
+  <si>
+    <t>仪表</t>
+  </si>
+  <si>
+    <t>中控</t>
+  </si>
+  <si>
+    <t>空调屏</t>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+  </si>
+  <si>
+    <t>module3</t>
+  </si>
+  <si>
+    <t>module4</t>
+  </si>
+  <si>
+    <t>module5</t>
+  </si>
+  <si>
+    <t>module6</t>
+  </si>
+  <si>
+    <t>module7</t>
+  </si>
+  <si>
+    <t>module8</t>
+  </si>
+  <si>
+    <t>module9</t>
+  </si>
+  <si>
+    <t>module10</t>
+  </si>
+  <si>
+    <t>condition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition2</t>
+  </si>
+  <si>
+    <t>condition3</t>
+  </si>
+  <si>
+    <t>condition4</t>
+  </si>
+  <si>
+    <t>condition5</t>
+  </si>
+  <si>
+    <t>condition6</t>
+  </si>
+  <si>
+    <t>condition7</t>
+  </si>
+  <si>
+    <t>condition8</t>
+  </si>
+  <si>
+    <t>condition9</t>
+  </si>
+  <si>
+    <t>condition10</t>
+  </si>
+  <si>
+    <t>steps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps2</t>
+  </si>
+  <si>
+    <t>steps3</t>
+  </si>
+  <si>
+    <t>steps4</t>
+  </si>
+  <si>
+    <t>steps5</t>
+  </si>
+  <si>
+    <t>steps6</t>
+  </si>
+  <si>
+    <t>steps7</t>
+  </si>
+  <si>
+    <t>steps8</t>
+  </si>
+  <si>
+    <t>steps9</t>
+  </si>
+  <si>
+    <t>steps10</t>
+  </si>
+  <si>
+    <t>expect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect2</t>
+  </si>
+  <si>
+    <t>expect3</t>
+  </si>
+  <si>
+    <t>expect4</t>
+  </si>
+  <si>
+    <t>expect5</t>
+  </si>
+  <si>
+    <t>expect6</t>
+  </si>
+  <si>
+    <t>expect7</t>
+  </si>
+  <si>
+    <t>expect8</t>
+  </si>
+  <si>
+    <t>expect9</t>
+  </si>
+  <si>
+    <t>expect10</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLLABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAYED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-45-67
+34-24-54-78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values
+电源操作值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKED
+CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG_CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points
+坐标点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positions
+比较区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignalName
+信号名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similarity
+相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=a,text=b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ACCSet=0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_FRMMsgErr=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LKASet=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_EQ5Set=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_IntConctVolStepSet=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_CallVolStepSet=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ChrgMod=0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LocTiY=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_SeatTltgAdjMotTarPosn=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACU_RePassBkl_Sts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_RRMDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_RRSnsrDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLSnsrDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDU_OBCACVlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSM_SeatTltgtAdjStsFb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC_TakeoverReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAS_SysFltFlg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAS_SteerAgVld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content
+内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SocPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SocBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McuPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McuBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenShotTempPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbcFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的显示屏的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN的DBC文件绝对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name
+名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PreConditionDescription
 前置条件描述</t>
-  </si>
-  <si>
-    <t>StepsDescription
-操作步骤描述</t>
-  </si>
-  <si>
-    <t>ExpectDescription
-期望结果描述</t>
-  </si>
-  <si>
-    <t>BatteryType
-电源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT6831</t>
-  </si>
-  <si>
-    <t>设置电压</t>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KONSTANTER</t>
-  </si>
-  <si>
-    <t>设置电流</t>
-  </si>
-  <si>
-    <t>调节电压</t>
-  </si>
-  <si>
-    <t>电压曲线</t>
-  </si>
-  <si>
-    <t>d:\a.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
-    <t>滑动</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>长按</t>
-  </si>
-  <si>
-    <t>双击</t>
-  </si>
-  <si>
-    <t>上滑</t>
-  </si>
-  <si>
-    <t>下滑</t>
-  </si>
-  <si>
-    <t>左滑</t>
-  </si>
-  <si>
-    <t>右滑</t>
-  </si>
-  <si>
-    <t>开启</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>全开</t>
-  </si>
-  <si>
-    <t>全关</t>
-  </si>
-  <si>
-    <t>teset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teset2</t>
-  </si>
-  <si>
-    <t>teset3</t>
-  </si>
-  <si>
-    <t>teset4</t>
-  </si>
-  <si>
-    <t>teset5</t>
-  </si>
-  <si>
-    <t>teset6</t>
-  </si>
-  <si>
-    <t>teset7</t>
-  </si>
-  <si>
-    <t>teset8</t>
-  </si>
-  <si>
-    <t>teset9</t>
-  </si>
-  <si>
-    <t>teset10</t>
-  </si>
-  <si>
-    <t>tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tttt2</t>
-  </si>
-  <si>
-    <t>tttt3</t>
-  </si>
-  <si>
-    <t>tttt4</t>
-  </si>
-  <si>
-    <t>tttt5</t>
-  </si>
-  <si>
-    <t>tttt6</t>
-  </si>
-  <si>
-    <t>tttt7</t>
-  </si>
-  <si>
-    <t>tttt8</t>
-  </si>
-  <si>
-    <t>tttt9</t>
-  </si>
-  <si>
-    <t>tttt10</t>
-  </si>
-  <si>
-    <t>QNX</t>
-  </si>
-  <si>
-    <t>ANDROID</t>
-  </si>
-  <si>
-    <t>上滑到顶</t>
-  </si>
-  <si>
-    <t>下滑到底</t>
-  </si>
-  <si>
-    <t>左滑到头</t>
-  </si>
-  <si>
-    <t>右滑到头</t>
-  </si>
-  <si>
-    <t>teset11</t>
-  </si>
-  <si>
-    <t>teset12</t>
-  </si>
-  <si>
-    <t>tttt11</t>
-  </si>
-  <si>
-    <t>tttt12</t>
-  </si>
-  <si>
-    <t>12-15
-12-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oooo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oooo2</t>
-  </si>
-  <si>
-    <t>oooo3</t>
-  </si>
-  <si>
-    <t>oooo4</t>
-  </si>
-  <si>
-    <t>oooo5</t>
-  </si>
-  <si>
-    <t>oooo6</t>
-  </si>
-  <si>
-    <t>oooo7</t>
-  </si>
-  <si>
-    <t>oooo8</t>
-  </si>
-  <si>
-    <t>oooo9</t>
-  </si>
-  <si>
-    <t>oooo10</t>
-  </si>
-  <si>
-    <t>test01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test02</t>
-  </si>
-  <si>
-    <t>test03</t>
-  </si>
-  <si>
-    <t>test04</t>
-  </si>
-  <si>
-    <t>test05</t>
-  </si>
-  <si>
-    <t>test06</t>
-  </si>
-  <si>
-    <t>test07</t>
-  </si>
-  <si>
-    <t>test08</t>
-  </si>
-  <si>
-    <t>test09</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk2</t>
-  </si>
-  <si>
-    <t>kkk3</t>
-  </si>
-  <si>
-    <t>kkk4</t>
-  </si>
-  <si>
-    <t>kkk5</t>
-  </si>
-  <si>
-    <t>kkk6</t>
-  </si>
-  <si>
-    <t>kkk7</t>
-  </si>
-  <si>
-    <t>kkk8</t>
-  </si>
-  <si>
-    <t>kkk9</t>
-  </si>
-  <si>
-    <t>kkk10</t>
-  </si>
-  <si>
-    <t>kkk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk11</t>
-  </si>
-  <si>
-    <t>text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common2</t>
-  </si>
-  <si>
-    <t>common3</t>
-  </si>
-  <si>
-    <t>common4</t>
-  </si>
-  <si>
-    <t>common5</t>
-  </si>
-  <si>
-    <t>common6</t>
-  </si>
-  <si>
-    <t>common7</t>
-  </si>
-  <si>
-    <t>common8</t>
-  </si>
-  <si>
-    <t>common9</t>
-  </si>
-  <si>
-    <t>common10</t>
-  </si>
-  <si>
-    <t>a,b,c,d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppearCount
-出现次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre2</t>
-  </si>
-  <si>
-    <t>comapre3</t>
-  </si>
-  <si>
-    <t>comapre4</t>
-  </si>
-  <si>
-    <t>comapre5</t>
-  </si>
-  <si>
-    <t>comapre6</t>
-  </si>
-  <si>
-    <t>comapre7</t>
-  </si>
-  <si>
-    <t>comapre8</t>
-  </si>
-  <si>
-    <t>comapre9</t>
-  </si>
-  <si>
-    <t>comapre10</t>
-  </si>
-  <si>
-    <t>存在</t>
-  </si>
-  <si>
-    <t>不存在</t>
-  </si>
-  <si>
-    <t>template_light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮图</t>
-  </si>
-  <si>
-    <t>暗图</t>
-  </si>
-  <si>
-    <t>闪烁图</t>
-  </si>
-  <si>
-    <t>compareaaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compareaaaa2</t>
-  </si>
-  <si>
-    <t>compareaaaa3</t>
-  </si>
-  <si>
-    <t>compareaaaa4</t>
-  </si>
-  <si>
-    <t>compareaaaa5</t>
-  </si>
-  <si>
-    <t>compareaaaa6</t>
-  </si>
-  <si>
-    <t>compareaaaa7</t>
-  </si>
-  <si>
-    <t>compareaaaa8</t>
-  </si>
-  <si>
-    <t>compareaaaa9</t>
-  </si>
-  <si>
-    <t>compareaaaa10</t>
-  </si>
-  <si>
-    <t>info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info2</t>
-  </si>
-  <si>
-    <t>info3</t>
-  </si>
-  <si>
-    <t>info4</t>
-  </si>
-  <si>
-    <t>info5</t>
-  </si>
-  <si>
-    <t>info6</t>
-  </si>
-  <si>
-    <t>info7</t>
-  </si>
-  <si>
-    <t>info8</t>
-  </si>
-  <si>
-    <t>info9</t>
-  </si>
-  <si>
-    <t>info10</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation2</t>
-  </si>
-  <si>
-    <t>infomation3</t>
-  </si>
-  <si>
-    <t>infomation4</t>
-  </si>
-  <si>
-    <t>infomation5</t>
-  </si>
-  <si>
-    <t>infomation6</t>
-  </si>
-  <si>
-    <t>infomation7</t>
-  </si>
-  <si>
-    <t>infomation8</t>
-  </si>
-  <si>
-    <t>infomation9</t>
-  </si>
-  <si>
-    <t>infomation10</t>
-  </si>
-  <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementAttributes
-元素属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase2</t>
-  </si>
-  <si>
-    <t>testcase3</t>
-  </si>
-  <si>
-    <t>testcase4</t>
-  </si>
-  <si>
-    <t>testcase5</t>
-  </si>
-  <si>
-    <t>testcase6</t>
-  </si>
-  <si>
-    <t>testcase7</t>
-  </si>
-  <si>
-    <t>testcase8</t>
-  </si>
-  <si>
-    <t>testcase9</t>
-  </si>
-  <si>
-    <t>testcase10</t>
-  </si>
-  <si>
-    <t>仪表</t>
-  </si>
-  <si>
-    <t>中控</t>
-  </si>
-  <si>
-    <t>空调屏</t>
-  </si>
-  <si>
-    <t>module1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module2</t>
-  </si>
-  <si>
-    <t>module3</t>
-  </si>
-  <si>
-    <t>module4</t>
-  </si>
-  <si>
-    <t>module5</t>
-  </si>
-  <si>
-    <t>module6</t>
-  </si>
-  <si>
-    <t>module7</t>
-  </si>
-  <si>
-    <t>module8</t>
-  </si>
-  <si>
-    <t>module9</t>
-  </si>
-  <si>
-    <t>module10</t>
-  </si>
-  <si>
-    <t>condition1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition2</t>
-  </si>
-  <si>
-    <t>condition3</t>
-  </si>
-  <si>
-    <t>condition4</t>
-  </si>
-  <si>
-    <t>condition5</t>
-  </si>
-  <si>
-    <t>condition6</t>
-  </si>
-  <si>
-    <t>condition7</t>
-  </si>
-  <si>
-    <t>condition8</t>
-  </si>
-  <si>
-    <t>condition9</t>
-  </si>
-  <si>
-    <t>condition10</t>
-  </si>
-  <si>
-    <t>steps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>steps2</t>
-  </si>
-  <si>
-    <t>steps3</t>
-  </si>
-  <si>
-    <t>steps4</t>
-  </si>
-  <si>
-    <t>steps5</t>
-  </si>
-  <si>
-    <t>steps6</t>
-  </si>
-  <si>
-    <t>steps7</t>
-  </si>
-  <si>
-    <t>steps8</t>
-  </si>
-  <si>
-    <t>steps9</t>
-  </si>
-  <si>
-    <t>steps10</t>
-  </si>
-  <si>
-    <t>expect1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect2</t>
-  </si>
-  <si>
-    <t>expect3</t>
-  </si>
-  <si>
-    <t>expect4</t>
-  </si>
-  <si>
-    <t>expect5</t>
-  </si>
-  <si>
-    <t>expect6</t>
-  </si>
-  <si>
-    <t>expect7</t>
-  </si>
-  <si>
-    <t>expect8</t>
-  </si>
-  <si>
-    <t>expect9</t>
-  </si>
-  <si>
-    <t>expect10</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENABLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCROLLABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAYED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3-45-67
-34-24-54-78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values
-电源操作值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKED
-CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONG_CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Points
-坐标点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positions
-比较区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignalName
-信号名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Similarity
-相似度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId=a,text=b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id
-序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_ACCSet=0x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_FRMMsgErr=0x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_LKASet=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_EQ5Set=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_IntConctVolStepSet=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_CallVolStepSet=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_ChrgMod=0x0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_LocTiY=9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_SeatTltgAdjMotTarPosn=19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLMDst=12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACU_RePassBkl_Sts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_RRMDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLMDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_RRSnsrDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLSnsrDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDU_OBCACVlt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSM_SeatTltgtAdjStsFb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPC_TakeoverReq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAS_SysFltFlg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAS_SteerAgVld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content
-内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment
-描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment
-描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SocPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SocBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McuPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McuBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenShotTempPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templateImagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbcFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的显示屏的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxWidth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAN的DBC文件绝对路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id
-序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name
-名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreCondition
+前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1579,7 +1585,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1605,13 +1611,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1625,16 +1631,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -1651,16 +1657,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F3" s="1">
         <v>13</v>
@@ -1677,16 +1683,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1">
         <v>14</v>
@@ -1703,23 +1709,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1727,16 +1733,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1">
         <v>14</v>
@@ -1753,16 +1759,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1">
         <v>14</v>
@@ -1779,16 +1785,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1">
         <v>14</v>
@@ -1805,16 +1811,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1">
         <v>14</v>
@@ -1831,16 +1837,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1">
         <v>14</v>
@@ -1857,16 +1863,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1">
         <v>14</v>
@@ -1935,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1955,16 +1961,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -1975,16 +1981,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1995,16 +2001,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2015,16 +2021,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2035,16 +2041,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2055,16 +2061,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2075,16 +2081,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2095,16 +2101,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2115,16 +2121,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2186,10 +2192,10 @@
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
@@ -2203,31 +2209,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2238,31 +2244,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2273,31 +2279,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2308,31 +2314,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2343,31 +2349,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2378,31 +2384,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2413,31 +2419,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2448,31 +2454,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2483,31 +2489,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2518,31 +2524,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2597,16 +2603,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2614,16 +2620,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2631,16 +2637,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2648,16 +2654,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2665,16 +2671,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2682,16 +2688,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2699,16 +2705,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2716,16 +2722,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2733,16 +2739,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2750,16 +2756,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2805,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2807,16 +2813,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2824,16 +2830,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2841,16 +2847,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2858,16 +2864,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2875,16 +2881,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2892,16 +2898,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2909,16 +2915,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2926,16 +2932,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2943,16 +2949,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2960,16 +2966,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2980,10 +2986,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2993,11 +2999,11 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
-    <col min="7" max="8" width="21.625" customWidth="1"/>
+    <col min="6" max="7" width="27.625" customWidth="1"/>
+    <col min="8" max="9" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -3014,273 +3020,286 @@
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>240</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>243</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>246</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>249</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3318,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3311,16 +3330,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3328,10 +3347,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3343,10 +3362,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -3358,10 +3377,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
@@ -3373,13 +3392,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3388,10 +3407,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3403,13 +3422,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3418,10 +3437,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3433,10 +3452,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3448,10 +3467,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3463,13 +3482,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3478,13 +3497,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3493,13 +3512,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3605,16 +3624,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3625,16 +3644,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3645,16 +3664,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3665,16 +3684,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3685,16 +3704,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3705,16 +3724,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3725,16 +3744,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3745,16 +3764,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -3810,13 +3829,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3827,13 +3846,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -3844,13 +3863,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -3861,13 +3880,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -3878,13 +3897,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -3895,13 +3914,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -3912,13 +3931,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -3929,13 +3948,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -3946,13 +3965,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -3963,13 +3982,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -4026,7 +4045,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -4037,22 +4056,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4063,22 +4082,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -4089,22 +4108,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4115,22 +4134,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="1">
         <v>0.5</v>
@@ -4141,22 +4160,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1">
         <v>0.5</v>
@@ -4167,22 +4186,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="1">
         <v>0.5</v>
@@ -4193,22 +4212,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="1">
         <v>0.5</v>
@@ -4219,22 +4238,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="1">
         <v>0.5</v>
@@ -4245,22 +4264,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" s="1">
         <v>0.5</v>
@@ -4271,22 +4290,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="1">
         <v>0.5</v>
@@ -4297,22 +4316,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="1">
         <v>0.5</v>
@@ -4323,22 +4342,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -4404,22 +4423,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4427,22 +4446,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4450,22 +4469,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4473,22 +4492,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4496,22 +4515,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4519,22 +4538,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4542,22 +4561,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4565,22 +4584,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4588,22 +4607,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4611,22 +4630,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4658,7 +4677,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4675,13 +4694,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4689,13 +4708,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,13 +4722,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,13 +4736,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4731,13 +4750,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4745,13 +4764,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4759,13 +4778,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4773,13 +4792,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4787,13 +4806,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4801,13 +4820,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4852,13 +4871,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4866,13 +4885,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4880,13 +4899,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4894,13 +4913,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4908,13 +4927,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4922,13 +4941,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4936,13 +4955,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4950,13 +4969,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4964,13 +4983,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4978,13 +4997,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5029,13 +5048,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5043,13 +5062,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5057,13 +5076,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5071,13 +5090,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5085,13 +5104,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5099,13 +5118,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5113,13 +5132,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5127,13 +5146,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5141,13 +5160,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5155,13 +5174,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5202,13 +5221,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>23</v>
@@ -5219,16 +5238,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5237,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5245,16 +5264,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1">
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5263,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5271,16 +5290,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1">
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5289,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5297,16 +5316,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1">
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5315,7 +5334,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5323,16 +5342,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5341,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5349,16 +5368,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1">
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5367,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5375,16 +5394,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1">
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5393,7 +5412,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5401,16 +5420,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1">
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5419,7 +5438,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5427,16 +5446,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1">
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5445,7 +5464,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5453,16 +5472,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5471,7 +5490,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="329">
   <si>
     <t>Id
 序号</t>
@@ -416,34 +416,6 @@
     <t>oooo10</t>
   </si>
   <si>
-    <t>test01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test02</t>
-  </si>
-  <si>
-    <t>test03</t>
-  </si>
-  <si>
-    <t>test04</t>
-  </si>
-  <si>
-    <t>test05</t>
-  </si>
-  <si>
-    <t>test06</t>
-  </si>
-  <si>
-    <t>test07</t>
-  </si>
-  <si>
-    <t>test08</t>
-  </si>
-  <si>
-    <t>test09</t>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,14 +566,6 @@
     <t>不存在</t>
   </si>
   <si>
-    <t>template_light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-2-3-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,10 +1021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>template_dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>screen_shot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1209,6 +1169,30 @@
   </si>
   <si>
     <t>D:\Workspace\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_light.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_dark.bmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的继电器通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxRelayChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-12-0.5-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1584,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1617,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1657,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>40</v>
@@ -1683,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>40</v>
@@ -1694,8 +1678,8 @@
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1">
-        <v>14</v>
+      <c r="F4" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -1709,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -1733,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
@@ -1744,8 +1728,8 @@
       <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1">
-        <v>14</v>
+      <c r="F6" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -1759,7 +1743,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -1770,8 +1754,8 @@
       <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="1">
-        <v>14</v>
+      <c r="F7" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1785,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -1796,8 +1780,8 @@
       <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1">
-        <v>14</v>
+      <c r="F8" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1811,7 +1795,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>40</v>
@@ -1822,8 +1806,8 @@
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1">
-        <v>14</v>
+      <c r="F9" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1837,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
@@ -1848,8 +1832,8 @@
       <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1">
-        <v>14</v>
+      <c r="F10" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -1863,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
@@ -1874,8 +1858,8 @@
       <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="1">
-        <v>14</v>
+      <c r="F11" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -1941,16 +1925,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1961,16 +1945,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -1981,16 +1965,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2001,16 +1985,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2021,16 +2005,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2041,16 +2025,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2061,16 +2045,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2081,16 +2065,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2101,16 +2085,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2121,16 +2105,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2152,7 +2136,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2163,7 +2147,8 @@
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="8" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="21.625" customWidth="1"/>
     <col min="11" max="11" width="25.25" customWidth="1"/>
@@ -2192,10 +2177,10 @@
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
@@ -2209,31 +2194,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2244,31 +2229,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2279,31 +2264,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2314,31 +2299,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2349,31 +2334,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2384,31 +2369,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2419,31 +2404,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2454,31 +2439,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2489,31 +2474,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2524,31 +2509,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2562,6 +2547,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2603,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2620,16 +2606,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2637,16 +2623,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2654,16 +2640,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2671,16 +2657,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2688,16 +2674,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2705,16 +2691,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2722,16 +2708,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2739,16 +2725,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2756,16 +2742,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2813,16 +2799,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2830,16 +2816,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2847,16 +2833,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2864,16 +2850,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2881,16 +2867,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2898,16 +2884,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2915,16 +2901,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2932,16 +2918,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2949,16 +2935,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2966,16 +2952,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -3020,10 +3006,10 @@
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>35</v>
@@ -3037,26 +3023,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3064,26 +3050,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3091,26 +3077,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3118,26 +3104,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3145,26 +3131,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3172,26 +3158,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3199,26 +3185,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3226,26 +3212,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3253,26 +3239,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3280,26 +3266,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3317,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3330,16 +3316,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3347,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3362,13 +3348,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -3377,13 +3363,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D4" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -3392,13 +3378,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3407,10 +3393,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3422,13 +3408,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3437,10 +3423,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3452,10 +3438,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3467,10 +3453,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3482,13 +3468,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3497,13 +3483,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3512,21 +3498,29 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3633,7 +3627,7 @@
         <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3653,7 +3647,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3673,7 +3667,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3693,7 +3687,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3713,7 +3707,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3733,7 +3727,7 @@
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3753,7 +3747,7 @@
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3773,7 +3767,7 @@
         <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -4045,7 +4039,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -4382,7 +4376,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F3" sqref="F3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4435,10 +4429,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4458,10 +4452,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4481,10 +4475,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4504,10 +4498,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>325</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4527,10 +4521,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>325</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4550,10 +4544,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>116</v>
+        <v>325</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4573,10 +4567,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4596,10 +4590,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
+        <v>325</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4619,10 +4613,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4642,10 +4636,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4677,7 +4671,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4694,13 +4688,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4714,7 +4708,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4728,7 +4722,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4742,7 +4736,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4756,7 +4750,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4770,7 +4764,7 @@
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4784,7 +4778,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4798,7 +4792,7 @@
         <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4812,7 +4806,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4823,10 +4817,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4871,13 +4865,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4885,13 +4879,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4899,13 +4893,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4913,13 +4907,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4927,13 +4921,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4941,13 +4935,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4955,13 +4949,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4969,13 +4963,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,13 +4977,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4997,13 +4991,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5048,13 +5042,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5062,13 +5056,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5076,13 +5070,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5090,13 +5084,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5104,13 +5098,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5118,13 +5112,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5132,13 +5126,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5146,13 +5140,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5160,13 +5154,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5174,13 +5168,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5221,13 +5215,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>23</v>
@@ -5238,16 +5232,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5256,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5273,7 +5267,7 @@
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5282,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5299,7 +5293,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5308,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5325,7 +5319,7 @@
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5334,7 +5328,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5351,7 +5345,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5360,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5377,7 +5371,7 @@
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5386,7 +5380,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5403,7 +5397,7 @@
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5412,7 +5406,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5429,7 +5423,7 @@
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5438,7 +5432,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5455,7 +5449,7 @@
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5464,7 +5458,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5481,7 +5475,7 @@
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5490,7 +5484,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="继电器操作(RelayAction)" sheetId="3" r:id="rId3"/>
     <sheet name="屏幕操作(ScreenOperationAction)" sheetId="4" r:id="rId4"/>
     <sheet name="截图操作(ScreenShotAction)" sheetId="5" r:id="rId5"/>
-    <sheet name="Can信号(Can)" sheetId="6" r:id="rId6"/>
+    <sheet name="Can信号(CanAction)" sheetId="6" r:id="rId6"/>
     <sheet name="安卓元素(Element)" sheetId="7" r:id="rId7"/>
     <sheet name="公共函数(Common)" sheetId="8" r:id="rId8"/>
     <sheet name="CAN信号对比(CanCompare)" sheetId="9" r:id="rId9"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="331">
   <si>
     <t>Id
 序号</t>
@@ -174,1025 +174,1036 @@
 模块名</t>
   </si>
   <si>
+    <t>ExpectDescription
+期望结果描述</t>
+  </si>
+  <si>
+    <t>BatteryType
+电源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT6831</t>
+  </si>
+  <si>
+    <t>设置电压</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KONSTANTER</t>
+  </si>
+  <si>
+    <t>设置电流</t>
+  </si>
+  <si>
+    <t>调节电压</t>
+  </si>
+  <si>
+    <t>电压曲线</t>
+  </si>
+  <si>
+    <t>d:\a.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>滑动</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>长按</t>
+  </si>
+  <si>
+    <t>双击</t>
+  </si>
+  <si>
+    <t>上滑</t>
+  </si>
+  <si>
+    <t>下滑</t>
+  </si>
+  <si>
+    <t>左滑</t>
+  </si>
+  <si>
+    <t>右滑</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>全开</t>
+  </si>
+  <si>
+    <t>全关</t>
+  </si>
+  <si>
+    <t>teset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teset2</t>
+  </si>
+  <si>
+    <t>teset3</t>
+  </si>
+  <si>
+    <t>teset4</t>
+  </si>
+  <si>
+    <t>teset5</t>
+  </si>
+  <si>
+    <t>teset6</t>
+  </si>
+  <si>
+    <t>teset7</t>
+  </si>
+  <si>
+    <t>teset8</t>
+  </si>
+  <si>
+    <t>teset9</t>
+  </si>
+  <si>
+    <t>teset10</t>
+  </si>
+  <si>
+    <t>tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tttt2</t>
+  </si>
+  <si>
+    <t>tttt3</t>
+  </si>
+  <si>
+    <t>tttt4</t>
+  </si>
+  <si>
+    <t>tttt5</t>
+  </si>
+  <si>
+    <t>tttt6</t>
+  </si>
+  <si>
+    <t>tttt7</t>
+  </si>
+  <si>
+    <t>tttt8</t>
+  </si>
+  <si>
+    <t>tttt9</t>
+  </si>
+  <si>
+    <t>tttt10</t>
+  </si>
+  <si>
+    <t>QNX</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>上滑到顶</t>
+  </si>
+  <si>
+    <t>下滑到底</t>
+  </si>
+  <si>
+    <t>左滑到头</t>
+  </si>
+  <si>
+    <t>右滑到头</t>
+  </si>
+  <si>
+    <t>teset11</t>
+  </si>
+  <si>
+    <t>teset12</t>
+  </si>
+  <si>
+    <t>tttt11</t>
+  </si>
+  <si>
+    <t>tttt12</t>
+  </si>
+  <si>
+    <t>12-15
+12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oooo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oooo2</t>
+  </si>
+  <si>
+    <t>oooo3</t>
+  </si>
+  <si>
+    <t>oooo4</t>
+  </si>
+  <si>
+    <t>oooo5</t>
+  </si>
+  <si>
+    <t>oooo6</t>
+  </si>
+  <si>
+    <t>oooo7</t>
+  </si>
+  <si>
+    <t>oooo8</t>
+  </si>
+  <si>
+    <t>oooo9</t>
+  </si>
+  <si>
+    <t>oooo10</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk2</t>
+  </si>
+  <si>
+    <t>kkk3</t>
+  </si>
+  <si>
+    <t>kkk4</t>
+  </si>
+  <si>
+    <t>kkk5</t>
+  </si>
+  <si>
+    <t>kkk6</t>
+  </si>
+  <si>
+    <t>kkk7</t>
+  </si>
+  <si>
+    <t>kkk8</t>
+  </si>
+  <si>
+    <t>kkk9</t>
+  </si>
+  <si>
+    <t>kkk10</t>
+  </si>
+  <si>
+    <t>kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk11</t>
+  </si>
+  <si>
+    <t>text=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common2</t>
+  </si>
+  <si>
+    <t>common3</t>
+  </si>
+  <si>
+    <t>common4</t>
+  </si>
+  <si>
+    <t>common5</t>
+  </si>
+  <si>
+    <t>common6</t>
+  </si>
+  <si>
+    <t>common7</t>
+  </si>
+  <si>
+    <t>common8</t>
+  </si>
+  <si>
+    <t>common9</t>
+  </si>
+  <si>
+    <t>common10</t>
+  </si>
+  <si>
+    <t>a,b,c,d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppearCount
+出现次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre2</t>
+  </si>
+  <si>
+    <t>comapre3</t>
+  </si>
+  <si>
+    <t>comapre4</t>
+  </si>
+  <si>
+    <t>comapre5</t>
+  </si>
+  <si>
+    <t>comapre6</t>
+  </si>
+  <si>
+    <t>comapre7</t>
+  </si>
+  <si>
+    <t>comapre8</t>
+  </si>
+  <si>
+    <t>comapre9</t>
+  </si>
+  <si>
+    <t>comapre10</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>不存在</t>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮图</t>
+  </si>
+  <si>
+    <t>暗图</t>
+  </si>
+  <si>
+    <t>闪烁图</t>
+  </si>
+  <si>
+    <t>compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareaaaa2</t>
+  </si>
+  <si>
+    <t>compareaaaa3</t>
+  </si>
+  <si>
+    <t>compareaaaa4</t>
+  </si>
+  <si>
+    <t>compareaaaa5</t>
+  </si>
+  <si>
+    <t>compareaaaa6</t>
+  </si>
+  <si>
+    <t>compareaaaa7</t>
+  </si>
+  <si>
+    <t>compareaaaa8</t>
+  </si>
+  <si>
+    <t>compareaaaa9</t>
+  </si>
+  <si>
+    <t>compareaaaa10</t>
+  </si>
+  <si>
+    <t>info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info2</t>
+  </si>
+  <si>
+    <t>info3</t>
+  </si>
+  <si>
+    <t>info4</t>
+  </si>
+  <si>
+    <t>info5</t>
+  </si>
+  <si>
+    <t>info6</t>
+  </si>
+  <si>
+    <t>info7</t>
+  </si>
+  <si>
+    <t>info8</t>
+  </si>
+  <si>
+    <t>info9</t>
+  </si>
+  <si>
+    <t>info10</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
+  </si>
+  <si>
+    <t>infomation3</t>
+  </si>
+  <si>
+    <t>infomation4</t>
+  </si>
+  <si>
+    <t>infomation5</t>
+  </si>
+  <si>
+    <t>infomation6</t>
+  </si>
+  <si>
+    <t>infomation7</t>
+  </si>
+  <si>
+    <t>infomation8</t>
+  </si>
+  <si>
+    <t>infomation9</t>
+  </si>
+  <si>
+    <t>infomation10</t>
+  </si>
+  <si>
+    <t>kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAttributes
+元素属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase2</t>
+  </si>
+  <si>
+    <t>testcase3</t>
+  </si>
+  <si>
+    <t>testcase4</t>
+  </si>
+  <si>
+    <t>testcase5</t>
+  </si>
+  <si>
+    <t>testcase6</t>
+  </si>
+  <si>
+    <t>testcase7</t>
+  </si>
+  <si>
+    <t>testcase8</t>
+  </si>
+  <si>
+    <t>testcase9</t>
+  </si>
+  <si>
+    <t>testcase10</t>
+  </si>
+  <si>
+    <t>仪表</t>
+  </si>
+  <si>
+    <t>中控</t>
+  </si>
+  <si>
+    <t>空调屏</t>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+  </si>
+  <si>
+    <t>module3</t>
+  </si>
+  <si>
+    <t>module4</t>
+  </si>
+  <si>
+    <t>module5</t>
+  </si>
+  <si>
+    <t>module6</t>
+  </si>
+  <si>
+    <t>module7</t>
+  </si>
+  <si>
+    <t>module8</t>
+  </si>
+  <si>
+    <t>module9</t>
+  </si>
+  <si>
+    <t>module10</t>
+  </si>
+  <si>
+    <t>condition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition2</t>
+  </si>
+  <si>
+    <t>condition3</t>
+  </si>
+  <si>
+    <t>condition4</t>
+  </si>
+  <si>
+    <t>condition5</t>
+  </si>
+  <si>
+    <t>condition6</t>
+  </si>
+  <si>
+    <t>condition7</t>
+  </si>
+  <si>
+    <t>condition8</t>
+  </si>
+  <si>
+    <t>condition9</t>
+  </si>
+  <si>
+    <t>condition10</t>
+  </si>
+  <si>
+    <t>steps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps2</t>
+  </si>
+  <si>
+    <t>steps3</t>
+  </si>
+  <si>
+    <t>steps4</t>
+  </si>
+  <si>
+    <t>steps5</t>
+  </si>
+  <si>
+    <t>steps6</t>
+  </si>
+  <si>
+    <t>steps7</t>
+  </si>
+  <si>
+    <t>steps8</t>
+  </si>
+  <si>
+    <t>steps9</t>
+  </si>
+  <si>
+    <t>steps10</t>
+  </si>
+  <si>
+    <t>expect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect2</t>
+  </si>
+  <si>
+    <t>expect3</t>
+  </si>
+  <si>
+    <t>expect4</t>
+  </si>
+  <si>
+    <t>expect5</t>
+  </si>
+  <si>
+    <t>expect6</t>
+  </si>
+  <si>
+    <t>expect7</t>
+  </si>
+  <si>
+    <t>expect8</t>
+  </si>
+  <si>
+    <t>expect9</t>
+  </si>
+  <si>
+    <t>expect10</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLLABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAYED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-45-67
+34-24-54-78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values
+电源操作值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKED
+CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG_CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points
+坐标点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positions
+比较区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignalName
+信号名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similarity
+相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=a,text=b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ACCSet=0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_FRMMsgErr=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LKASet=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_EQ5Set=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_IntConctVolStepSet=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_CallVolStepSet=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ChrgMod=0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LocTiY=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_SeatTltgAdjMotTarPosn=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACU_RePassBkl_Sts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_RRMDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_RRSnsrDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLSnsrDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDU_OBCACVlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSM_SeatTltgtAdjStsFb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC_TakeoverReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAS_SysFltFlg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAS_SteerAgVld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content
+内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SocPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SocBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McuPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>McuBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenShotTempPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbcFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的显示屏的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN的DBC文件绝对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name
+名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreConditionDescription
+前置条件描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreCondition
+前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_light.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_dark.bmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的继电器通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxRelayChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-12-0.5-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>StepsDescription
 操作步骤描述</t>
-  </si>
-  <si>
-    <t>ExpectDescription
-期望结果描述</t>
-  </si>
-  <si>
-    <t>BatteryType
-电源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT6831</t>
-  </si>
-  <si>
-    <t>设置电压</t>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KONSTANTER</t>
-  </si>
-  <si>
-    <t>设置电流</t>
-  </si>
-  <si>
-    <t>调节电压</t>
-  </si>
-  <si>
-    <t>电压曲线</t>
-  </si>
-  <si>
-    <t>d:\a.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
-    <t>滑动</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>长按</t>
-  </si>
-  <si>
-    <t>双击</t>
-  </si>
-  <si>
-    <t>上滑</t>
-  </si>
-  <si>
-    <t>下滑</t>
-  </si>
-  <si>
-    <t>左滑</t>
-  </si>
-  <si>
-    <t>右滑</t>
-  </si>
-  <si>
-    <t>开启</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>全开</t>
-  </si>
-  <si>
-    <t>全关</t>
-  </si>
-  <si>
-    <t>teset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teset2</t>
-  </si>
-  <si>
-    <t>teset3</t>
-  </si>
-  <si>
-    <t>teset4</t>
-  </si>
-  <si>
-    <t>teset5</t>
-  </si>
-  <si>
-    <t>teset6</t>
-  </si>
-  <si>
-    <t>teset7</t>
-  </si>
-  <si>
-    <t>teset8</t>
-  </si>
-  <si>
-    <t>teset9</t>
-  </si>
-  <si>
-    <t>teset10</t>
-  </si>
-  <si>
-    <t>tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tttt2</t>
-  </si>
-  <si>
-    <t>tttt3</t>
-  </si>
-  <si>
-    <t>tttt4</t>
-  </si>
-  <si>
-    <t>tttt5</t>
-  </si>
-  <si>
-    <t>tttt6</t>
-  </si>
-  <si>
-    <t>tttt7</t>
-  </si>
-  <si>
-    <t>tttt8</t>
-  </si>
-  <si>
-    <t>tttt9</t>
-  </si>
-  <si>
-    <t>tttt10</t>
-  </si>
-  <si>
-    <t>QNX</t>
-  </si>
-  <si>
-    <t>ANDROID</t>
-  </si>
-  <si>
-    <t>上滑到顶</t>
-  </si>
-  <si>
-    <t>下滑到底</t>
-  </si>
-  <si>
-    <t>左滑到头</t>
-  </si>
-  <si>
-    <t>右滑到头</t>
-  </si>
-  <si>
-    <t>teset11</t>
-  </si>
-  <si>
-    <t>teset12</t>
-  </si>
-  <si>
-    <t>tttt11</t>
-  </si>
-  <si>
-    <t>tttt12</t>
-  </si>
-  <si>
-    <t>12-15
-12-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oooo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oooo2</t>
-  </si>
-  <si>
-    <t>oooo3</t>
-  </si>
-  <si>
-    <t>oooo4</t>
-  </si>
-  <si>
-    <t>oooo5</t>
-  </si>
-  <si>
-    <t>oooo6</t>
-  </si>
-  <si>
-    <t>oooo7</t>
-  </si>
-  <si>
-    <t>oooo8</t>
-  </si>
-  <si>
-    <t>oooo9</t>
-  </si>
-  <si>
-    <t>oooo10</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk2</t>
-  </si>
-  <si>
-    <t>kkk3</t>
-  </si>
-  <si>
-    <t>kkk4</t>
-  </si>
-  <si>
-    <t>kkk5</t>
-  </si>
-  <si>
-    <t>kkk6</t>
-  </si>
-  <si>
-    <t>kkk7</t>
-  </si>
-  <si>
-    <t>kkk8</t>
-  </si>
-  <si>
-    <t>kkk9</t>
-  </si>
-  <si>
-    <t>kkk10</t>
-  </si>
-  <si>
-    <t>kkk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk11</t>
-  </si>
-  <si>
-    <t>text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common2</t>
-  </si>
-  <si>
-    <t>common3</t>
-  </si>
-  <si>
-    <t>common4</t>
-  </si>
-  <si>
-    <t>common5</t>
-  </si>
-  <si>
-    <t>common6</t>
-  </si>
-  <si>
-    <t>common7</t>
-  </si>
-  <si>
-    <t>common8</t>
-  </si>
-  <si>
-    <t>common9</t>
-  </si>
-  <si>
-    <t>common10</t>
-  </si>
-  <si>
-    <t>a,b,c,d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppearCount
-出现次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre2</t>
-  </si>
-  <si>
-    <t>comapre3</t>
-  </si>
-  <si>
-    <t>comapre4</t>
-  </si>
-  <si>
-    <t>comapre5</t>
-  </si>
-  <si>
-    <t>comapre6</t>
-  </si>
-  <si>
-    <t>comapre7</t>
-  </si>
-  <si>
-    <t>comapre8</t>
-  </si>
-  <si>
-    <t>comapre9</t>
-  </si>
-  <si>
-    <t>comapre10</t>
-  </si>
-  <si>
-    <t>存在</t>
-  </si>
-  <si>
-    <t>不存在</t>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮图</t>
-  </si>
-  <si>
-    <t>暗图</t>
-  </si>
-  <si>
-    <t>闪烁图</t>
-  </si>
-  <si>
-    <t>compareaaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compareaaaa2</t>
-  </si>
-  <si>
-    <t>compareaaaa3</t>
-  </si>
-  <si>
-    <t>compareaaaa4</t>
-  </si>
-  <si>
-    <t>compareaaaa5</t>
-  </si>
-  <si>
-    <t>compareaaaa6</t>
-  </si>
-  <si>
-    <t>compareaaaa7</t>
-  </si>
-  <si>
-    <t>compareaaaa8</t>
-  </si>
-  <si>
-    <t>compareaaaa9</t>
-  </si>
-  <si>
-    <t>compareaaaa10</t>
-  </si>
-  <si>
-    <t>info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info2</t>
-  </si>
-  <si>
-    <t>info3</t>
-  </si>
-  <si>
-    <t>info4</t>
-  </si>
-  <si>
-    <t>info5</t>
-  </si>
-  <si>
-    <t>info6</t>
-  </si>
-  <si>
-    <t>info7</t>
-  </si>
-  <si>
-    <t>info8</t>
-  </si>
-  <si>
-    <t>info9</t>
-  </si>
-  <si>
-    <t>info10</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation2</t>
-  </si>
-  <si>
-    <t>infomation3</t>
-  </si>
-  <si>
-    <t>infomation4</t>
-  </si>
-  <si>
-    <t>infomation5</t>
-  </si>
-  <si>
-    <t>infomation6</t>
-  </si>
-  <si>
-    <t>infomation7</t>
-  </si>
-  <si>
-    <t>infomation8</t>
-  </si>
-  <si>
-    <t>infomation9</t>
-  </si>
-  <si>
-    <t>infomation10</t>
-  </si>
-  <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementAttributes
-元素属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase2</t>
-  </si>
-  <si>
-    <t>testcase3</t>
-  </si>
-  <si>
-    <t>testcase4</t>
-  </si>
-  <si>
-    <t>testcase5</t>
-  </si>
-  <si>
-    <t>testcase6</t>
-  </si>
-  <si>
-    <t>testcase7</t>
-  </si>
-  <si>
-    <t>testcase8</t>
-  </si>
-  <si>
-    <t>testcase9</t>
-  </si>
-  <si>
-    <t>testcase10</t>
-  </si>
-  <si>
-    <t>仪表</t>
-  </si>
-  <si>
-    <t>中控</t>
-  </si>
-  <si>
-    <t>空调屏</t>
-  </si>
-  <si>
-    <t>module1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module2</t>
-  </si>
-  <si>
-    <t>module3</t>
-  </si>
-  <si>
-    <t>module4</t>
-  </si>
-  <si>
-    <t>module5</t>
-  </si>
-  <si>
-    <t>module6</t>
-  </si>
-  <si>
-    <t>module7</t>
-  </si>
-  <si>
-    <t>module8</t>
-  </si>
-  <si>
-    <t>module9</t>
-  </si>
-  <si>
-    <t>module10</t>
-  </si>
-  <si>
-    <t>condition1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition2</t>
-  </si>
-  <si>
-    <t>condition3</t>
-  </si>
-  <si>
-    <t>condition4</t>
-  </si>
-  <si>
-    <t>condition5</t>
-  </si>
-  <si>
-    <t>condition6</t>
-  </si>
-  <si>
-    <t>condition7</t>
-  </si>
-  <si>
-    <t>condition8</t>
-  </si>
-  <si>
-    <t>condition9</t>
-  </si>
-  <si>
-    <t>condition10</t>
-  </si>
-  <si>
-    <t>steps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>steps2</t>
-  </si>
-  <si>
-    <t>steps3</t>
-  </si>
-  <si>
-    <t>steps4</t>
-  </si>
-  <si>
-    <t>steps5</t>
-  </si>
-  <si>
-    <t>steps6</t>
-  </si>
-  <si>
-    <t>steps7</t>
-  </si>
-  <si>
-    <t>steps8</t>
-  </si>
-  <si>
-    <t>steps9</t>
-  </si>
-  <si>
-    <t>steps10</t>
-  </si>
-  <si>
-    <t>expect1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect2</t>
-  </si>
-  <si>
-    <t>expect3</t>
-  </si>
-  <si>
-    <t>expect4</t>
-  </si>
-  <si>
-    <t>expect5</t>
-  </si>
-  <si>
-    <t>expect6</t>
-  </si>
-  <si>
-    <t>expect7</t>
-  </si>
-  <si>
-    <t>expect8</t>
-  </si>
-  <si>
-    <t>expect9</t>
-  </si>
-  <si>
-    <t>expect10</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENABLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCROLLABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAYED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3-45-67
-34-24-54-78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values
-电源操作值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKED
-CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONG_CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Points
-坐标点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positions
-比较区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignalName
-信号名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Similarity
-相似度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId=a,text=b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id
-序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_ACCSet=0x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_FRMMsgErr=0x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_LKASet=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_EQ5Set=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_IntConctVolStepSet=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_CallVolStepSet=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_ChrgMod=0x0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_LocTiY=9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_SeatTltgAdjMotTarPosn=19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLMDst=12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACU_RePassBkl_Sts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_RRMDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLMDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_RRSnsrDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLSnsrDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDU_OBCACVlt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSM_SeatTltgtAdjStsFb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPC_TakeoverReq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAS_SysFltFlg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAS_SteerAgVld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content
-内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment
-描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment
-描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SocPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SocBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McuPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McuBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenShotTempPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templateImagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbcFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的显示屏的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxWidth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAN的DBC文件绝对路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id
-序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name
-名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreConditionDescription
-前置条件描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreCondition
-前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_light.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_dark.bmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的继电器通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxRelayChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-12-0.5-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps
+操作步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+期望结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1568,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1595,13 +1606,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1615,16 +1626,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -1641,16 +1652,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F3" s="1">
         <v>13</v>
@@ -1667,19 +1678,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -1693,23 +1704,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1717,19 +1728,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -1743,19 +1754,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1769,19 +1780,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1795,19 +1806,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1821,19 +1832,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -1847,19 +1858,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -1925,16 +1936,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1945,16 +1956,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -1965,16 +1976,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1985,16 +1996,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2005,16 +2016,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2025,16 +2036,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2045,16 +2056,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2065,16 +2076,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2085,16 +2096,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2105,16 +2116,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2177,10 +2188,10 @@
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
@@ -2194,31 +2205,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2229,31 +2240,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2264,31 +2275,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2299,31 +2310,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2334,31 +2345,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2369,31 +2380,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2404,31 +2415,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2439,31 +2450,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2474,31 +2485,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2509,31 +2520,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2589,16 +2600,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2606,16 +2617,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2623,16 +2634,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2640,16 +2651,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2657,16 +2668,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2674,16 +2685,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2691,16 +2702,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2708,16 +2719,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2725,16 +2736,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2742,16 +2753,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2791,7 +2802,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2799,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2816,16 +2827,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2833,16 +2844,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2850,16 +2861,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2867,16 +2878,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2884,16 +2895,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2901,16 +2912,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2918,16 +2929,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2935,16 +2946,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2952,16 +2963,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2972,9 +2983,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2986,10 +2997,11 @@
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="7" width="27.625" customWidth="1"/>
-    <col min="8" max="9" width="21.625" customWidth="1"/>
+    <col min="8" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="11" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -3006,287 +3018,313 @@
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3316,16 +3354,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3333,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3348,10 +3386,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3363,10 +3401,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3378,13 +3416,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3393,10 +3431,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3408,13 +3446,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3423,10 +3461,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3438,10 +3476,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3453,10 +3491,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3468,13 +3506,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3483,13 +3521,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3498,13 +3536,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3513,10 +3551,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3618,16 +3656,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3638,16 +3676,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3658,16 +3696,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3678,16 +3716,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3698,16 +3736,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3718,16 +3756,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3738,16 +3776,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3758,16 +3796,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -3823,13 +3861,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3840,13 +3878,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -3857,13 +3895,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -3874,13 +3912,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -3891,13 +3929,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -3908,13 +3946,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -3925,13 +3963,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -3942,13 +3980,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -3959,13 +3997,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -3976,13 +4014,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -4039,7 +4077,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -4050,22 +4088,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4076,22 +4114,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -4102,22 +4140,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4128,22 +4166,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="1">
         <v>0.5</v>
@@ -4154,22 +4192,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1">
         <v>0.5</v>
@@ -4180,22 +4218,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="1">
         <v>0.5</v>
@@ -4206,22 +4244,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="1">
         <v>0.5</v>
@@ -4232,22 +4270,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="1">
         <v>0.5</v>
@@ -4258,22 +4296,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="1">
         <v>0.5</v>
@@ -4284,22 +4322,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="1">
         <v>0.5</v>
@@ -4310,22 +4348,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="1">
         <v>0.5</v>
@@ -4336,22 +4374,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -4417,22 +4455,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4440,22 +4478,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4463,22 +4501,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4486,22 +4524,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4509,22 +4547,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4532,22 +4570,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4555,22 +4593,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4578,22 +4616,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4601,22 +4639,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4624,22 +4662,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4658,7 +4696,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4671,7 +4709,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4688,13 +4726,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4702,13 +4740,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4716,13 +4754,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4730,13 +4768,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4744,13 +4782,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4758,13 +4796,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4772,13 +4810,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4786,13 +4824,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4800,13 +4838,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4814,13 +4852,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4865,13 +4903,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4879,13 +4917,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4893,13 +4931,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4907,13 +4945,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4921,13 +4959,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4935,13 +4973,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4949,13 +4987,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4963,13 +5001,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4977,13 +5015,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4991,13 +5029,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5042,13 +5080,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5056,13 +5094,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5070,13 +5108,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5084,13 +5122,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5098,13 +5136,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5112,13 +5150,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5126,13 +5164,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5140,13 +5178,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5154,13 +5192,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5168,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5215,13 +5253,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>23</v>
@@ -5232,16 +5270,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5250,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5258,16 +5296,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1">
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5276,7 +5314,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5284,16 +5322,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1">
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5302,7 +5340,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5310,16 +5348,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1">
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5328,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5336,16 +5374,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1">
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5354,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5362,16 +5400,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5380,7 +5418,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5388,16 +5426,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1">
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5406,7 +5444,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5414,16 +5452,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1">
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5432,7 +5470,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5440,16 +5478,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5458,7 +5496,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5466,16 +5504,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1">
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5484,7 +5522,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="298">
   <si>
     <t>Id
 序号</t>
@@ -377,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>oooo1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,27 +695,6 @@
     <t>testcase3</t>
   </si>
   <si>
-    <t>testcase4</t>
-  </si>
-  <si>
-    <t>testcase5</t>
-  </si>
-  <si>
-    <t>testcase6</t>
-  </si>
-  <si>
-    <t>testcase7</t>
-  </si>
-  <si>
-    <t>testcase8</t>
-  </si>
-  <si>
-    <t>testcase9</t>
-  </si>
-  <si>
-    <t>testcase10</t>
-  </si>
-  <si>
     <t>仪表</t>
   </si>
   <si>
@@ -739,27 +714,6 @@
     <t>module3</t>
   </si>
   <si>
-    <t>module4</t>
-  </si>
-  <si>
-    <t>module5</t>
-  </si>
-  <si>
-    <t>module6</t>
-  </si>
-  <si>
-    <t>module7</t>
-  </si>
-  <si>
-    <t>module8</t>
-  </si>
-  <si>
-    <t>module9</t>
-  </si>
-  <si>
-    <t>module10</t>
-  </si>
-  <si>
     <t>condition1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,27 +724,6 @@
     <t>condition3</t>
   </si>
   <si>
-    <t>condition4</t>
-  </si>
-  <si>
-    <t>condition5</t>
-  </si>
-  <si>
-    <t>condition6</t>
-  </si>
-  <si>
-    <t>condition7</t>
-  </si>
-  <si>
-    <t>condition8</t>
-  </si>
-  <si>
-    <t>condition9</t>
-  </si>
-  <si>
-    <t>condition10</t>
-  </si>
-  <si>
     <t>steps1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,27 +734,6 @@
     <t>steps3</t>
   </si>
   <si>
-    <t>steps4</t>
-  </si>
-  <si>
-    <t>steps5</t>
-  </si>
-  <si>
-    <t>steps6</t>
-  </si>
-  <si>
-    <t>steps7</t>
-  </si>
-  <si>
-    <t>steps8</t>
-  </si>
-  <si>
-    <t>steps9</t>
-  </si>
-  <si>
-    <t>steps10</t>
-  </si>
-  <si>
     <t>expect1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -830,27 +742,6 @@
   </si>
   <si>
     <t>expect3</t>
-  </si>
-  <si>
-    <t>expect4</t>
-  </si>
-  <si>
-    <t>expect5</t>
-  </si>
-  <si>
-    <t>expect6</t>
-  </si>
-  <si>
-    <t>expect7</t>
-  </si>
-  <si>
-    <t>expect8</t>
-  </si>
-  <si>
-    <t>expect9</t>
-  </si>
-  <si>
-    <t>expect10</t>
   </si>
   <si>
     <t>infomation1</t>
@@ -1204,6 +1095,18 @@
   <si>
     <t>Expect
 期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=test3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1612,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1690,7 +1593,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -1740,7 +1643,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -1766,7 +1669,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1792,7 +1695,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1818,7 +1721,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1844,7 +1747,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -1870,7 +1773,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -1936,16 +1839,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1956,16 +1859,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -1976,16 +1879,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1996,16 +1899,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2016,16 +1919,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2036,16 +1939,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2056,16 +1959,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2076,16 +1979,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2096,16 +1999,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2116,16 +2019,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2188,10 +2091,10 @@
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
@@ -2205,31 +2108,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2240,31 +2143,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2275,31 +2178,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2310,31 +2213,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2345,31 +2248,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2380,31 +2283,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2415,31 +2318,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2450,31 +2353,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2485,31 +2388,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2520,31 +2423,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2600,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2617,16 +2520,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2634,16 +2537,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2651,16 +2554,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2668,16 +2571,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2685,16 +2588,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2702,16 +2605,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2719,16 +2622,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2736,16 +2639,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2753,16 +2656,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2679,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2802,7 +2705,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2810,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2827,16 +2730,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2844,16 +2747,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2861,16 +2764,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2878,16 +2781,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2895,16 +2798,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2912,16 +2815,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2929,16 +2832,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2946,16 +2849,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2963,16 +2866,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2983,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3009,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -3018,22 +2921,22 @@
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3041,295 +2944,110 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K2" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K11" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D11">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D4">
       <formula1>"仪表,中控,空调屏"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3354,16 +3072,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3371,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3386,10 +3104,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3401,10 +3119,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3416,13 +3134,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3431,10 +3149,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3446,13 +3164,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3461,10 +3179,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3476,10 +3194,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3491,10 +3209,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3506,13 +3224,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3521,13 +3239,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3536,13 +3254,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3551,10 +3269,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3665,7 +3383,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3685,7 +3403,7 @@
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3705,7 +3423,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3725,7 +3443,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3745,7 +3463,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3765,7 +3483,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3785,7 +3503,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3805,7 +3523,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -4077,7 +3795,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -4414,7 +4132,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4455,10 +4173,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>87</v>
@@ -4467,10 +4185,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4481,7 +4199,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>88</v>
@@ -4490,10 +4208,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4504,7 +4222,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>88</v>
@@ -4513,10 +4231,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4527,7 +4245,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>88</v>
@@ -4536,10 +4254,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4550,7 +4268,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>88</v>
@@ -4559,10 +4277,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4573,7 +4291,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>88</v>
@@ -4582,10 +4300,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4596,7 +4314,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>87</v>
@@ -4605,10 +4323,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4619,7 +4337,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>87</v>
@@ -4628,10 +4346,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4642,7 +4360,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>87</v>
@@ -4651,10 +4369,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4665,7 +4383,7 @@
         <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>87</v>
@@ -4674,10 +4392,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4709,7 +4427,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4726,13 +4444,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4746,7 +4464,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4760,7 +4478,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4774,7 +4492,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4788,7 +4506,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4802,7 +4520,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4816,7 +4534,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4830,7 +4548,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4844,7 +4562,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4855,10 +4573,10 @@
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4903,13 +4621,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4917,13 +4635,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4931,13 +4649,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4945,13 +4663,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4959,13 +4677,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4973,13 +4691,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4987,13 +4705,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5001,13 +4719,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5015,13 +4733,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5029,13 +4747,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5080,13 +4798,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5094,13 +4812,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5108,13 +4826,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5122,13 +4840,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5136,13 +4854,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5150,13 +4868,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5164,13 +4882,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5178,13 +4896,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5192,13 +4910,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5206,13 +4924,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5253,13 +4971,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>23</v>
@@ -5270,16 +4988,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5288,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5305,7 +5023,7 @@
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5314,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5331,7 +5049,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5340,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5357,7 +5075,7 @@
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5366,7 +5084,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5383,7 +5101,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5392,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5409,7 +5127,7 @@
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5418,7 +5136,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5435,7 +5153,7 @@
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5444,7 +5162,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5461,7 +5179,7 @@
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5470,7 +5188,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5487,7 +5205,7 @@
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5496,7 +5214,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5513,7 +5231,7 @@
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5522,7 +5240,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="391">
   <si>
     <t>Id
 序号</t>
@@ -276,37 +276,6 @@
     <t>全关</t>
   </si>
   <si>
-    <t>teset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teset2</t>
-  </si>
-  <si>
-    <t>teset3</t>
-  </si>
-  <si>
-    <t>teset4</t>
-  </si>
-  <si>
-    <t>teset5</t>
-  </si>
-  <si>
-    <t>teset6</t>
-  </si>
-  <si>
-    <t>teset7</t>
-  </si>
-  <si>
-    <t>teset8</t>
-  </si>
-  <si>
-    <t>teset9</t>
-  </si>
-  <si>
-    <t>teset10</t>
-  </si>
-  <si>
     <t>tttt1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,12 +323,6 @@
   </si>
   <si>
     <t>右滑到头</t>
-  </si>
-  <si>
-    <t>teset11</t>
-  </si>
-  <si>
-    <t>teset12</t>
   </si>
   <si>
     <t>tttt11</t>
@@ -416,22 +379,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test11</t>
-  </si>
-  <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk2</t>
   </si>
   <si>
     <t>kkk3</t>
@@ -1098,15 +1050,356 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BatteryAction=test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAction=test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InformationCompare=test3</t>
+    <t>battery_test2</t>
+  </si>
+  <si>
+    <t>battery_test3</t>
+  </si>
+  <si>
+    <t>battery_test4</t>
+  </si>
+  <si>
+    <t>battery_test5</t>
+  </si>
+  <si>
+    <t>battery_test6</t>
+  </si>
+  <si>
+    <t>battery_test7</t>
+  </si>
+  <si>
+    <t>battery_test8</t>
+  </si>
+  <si>
+    <t>battery_test9</t>
+  </si>
+  <si>
+    <t>battery_test10</t>
+  </si>
+  <si>
+    <t>element_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_test2</t>
+  </si>
+  <si>
+    <t>element_test3</t>
+  </si>
+  <si>
+    <t>element_test4</t>
+  </si>
+  <si>
+    <t>element_test5</t>
+  </si>
+  <si>
+    <t>element_test6</t>
+  </si>
+  <si>
+    <t>element_test7</t>
+  </si>
+  <si>
+    <t>element_test8</t>
+  </si>
+  <si>
+    <t>relay_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relay_test2</t>
+  </si>
+  <si>
+    <t>relay_test3</t>
+  </si>
+  <si>
+    <t>relay_test4</t>
+  </si>
+  <si>
+    <t>relay_test5</t>
+  </si>
+  <si>
+    <t>relay_test6</t>
+  </si>
+  <si>
+    <t>relay_test7</t>
+  </si>
+  <si>
+    <t>relay_test8</t>
+  </si>
+  <si>
+    <t>relay_test9</t>
+  </si>
+  <si>
+    <t>relay_test10</t>
+  </si>
+  <si>
+    <t>screen_operation_teset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_operation_teset2</t>
+  </si>
+  <si>
+    <t>screen_operation_teset3</t>
+  </si>
+  <si>
+    <t>screen_operation_teset4</t>
+  </si>
+  <si>
+    <t>screen_operation_teset5</t>
+  </si>
+  <si>
+    <t>screen_operation_teset6</t>
+  </si>
+  <si>
+    <t>screen_operation_teset7</t>
+  </si>
+  <si>
+    <t>screen_operation_teset8</t>
+  </si>
+  <si>
+    <t>screen_operation_teset9</t>
+  </si>
+  <si>
+    <t>screen_operation_teset10</t>
+  </si>
+  <si>
+    <t>screen_operation_teset11</t>
+  </si>
+  <si>
+    <t>screen_operation_teset12</t>
+  </si>
+  <si>
+    <t>screenshot_tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenshot_tttt2</t>
+  </si>
+  <si>
+    <t>screenshot_tttt3</t>
+  </si>
+  <si>
+    <t>screenshot_tttt4</t>
+  </si>
+  <si>
+    <t>screenshot_tttt5</t>
+  </si>
+  <si>
+    <t>screenshot_tttt6</t>
+  </si>
+  <si>
+    <t>screenshot_tttt7</t>
+  </si>
+  <si>
+    <t>screenshot_tttt8</t>
+  </si>
+  <si>
+    <t>screenshot_tttt9</t>
+  </si>
+  <si>
+    <t>screenshot_tttt10</t>
+  </si>
+  <si>
+    <t>can_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_test2</t>
+  </si>
+  <si>
+    <t>can_test3</t>
+  </si>
+  <si>
+    <t>can_test4</t>
+  </si>
+  <si>
+    <t>can_test5</t>
+  </si>
+  <si>
+    <t>can_test6</t>
+  </si>
+  <si>
+    <t>can_test7</t>
+  </si>
+  <si>
+    <t>can_test8</t>
+  </si>
+  <si>
+    <t>can_test9</t>
+  </si>
+  <si>
+    <t>can_test10</t>
+  </si>
+  <si>
+    <t>element_kkk2</t>
+  </si>
+  <si>
+    <t>element_kkk3</t>
+  </si>
+  <si>
+    <t>element_kkk4</t>
+  </si>
+  <si>
+    <t>element_kkk5</t>
+  </si>
+  <si>
+    <t>element_kkk6</t>
+  </si>
+  <si>
+    <t>element_kkk7</t>
+  </si>
+  <si>
+    <t>element_kkk8</t>
+  </si>
+  <si>
+    <t>element_kkk9</t>
+  </si>
+  <si>
+    <t>element_kkk10</t>
+  </si>
+  <si>
+    <t>common1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_compare_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_compare_test2</t>
+  </si>
+  <si>
+    <t>can_compare_test3</t>
+  </si>
+  <si>
+    <t>can_compare_test4</t>
+  </si>
+  <si>
+    <t>can_compare_test5</t>
+  </si>
+  <si>
+    <t>can_compare_test6</t>
+  </si>
+  <si>
+    <t>can_compare_test7</t>
+  </si>
+  <si>
+    <t>can_compare_test8</t>
+  </si>
+  <si>
+    <t>can_compare_test9</t>
+  </si>
+  <si>
+    <t>can_compare_test10</t>
+  </si>
+  <si>
+    <t>element_comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_comapre2</t>
+  </si>
+  <si>
+    <t>element_comapre3</t>
+  </si>
+  <si>
+    <t>element_comapre4</t>
+  </si>
+  <si>
+    <t>element_comapre5</t>
+  </si>
+  <si>
+    <t>element_comapre6</t>
+  </si>
+  <si>
+    <t>element_comapre7</t>
+  </si>
+  <si>
+    <t>element_comapre8</t>
+  </si>
+  <si>
+    <t>element_comapre9</t>
+  </si>
+  <si>
+    <t>element_comapre10</t>
+  </si>
+  <si>
+    <t>image_compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_compareaaaa2</t>
+  </si>
+  <si>
+    <t>image_compareaaaa3</t>
+  </si>
+  <si>
+    <t>image_compareaaaa4</t>
+  </si>
+  <si>
+    <t>image_compareaaaa5</t>
+  </si>
+  <si>
+    <t>image_compareaaaa6</t>
+  </si>
+  <si>
+    <t>image_compareaaaa7</t>
+  </si>
+  <si>
+    <t>image_compareaaaa8</t>
+  </si>
+  <si>
+    <t>image_compareaaaa9</t>
+  </si>
+  <si>
+    <t>image_compareaaaa10</t>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test3</t>
+  </si>
+  <si>
+    <t>InformationCompare=info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,7 +1776,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1515,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1529,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -1555,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -1581,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -1593,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -1607,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -1631,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -1643,7 +1936,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -1657,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -1669,7 +1962,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1683,7 +1976,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -1695,7 +1988,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1709,7 +2002,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -1721,7 +2014,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1735,7 +2028,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -1747,7 +2040,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -1761,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -1773,7 +2066,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -1802,7 +2095,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1839,16 +2132,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>359</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1859,16 +2152,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -1879,16 +2172,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1899,16 +2192,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>341</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -1919,16 +2212,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>363</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -1939,16 +2232,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>343</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -1959,16 +2252,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>344</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -1979,16 +2272,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>366</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -1999,16 +2292,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>367</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>116</v>
+        <v>346</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2019,16 +2312,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>368</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>347</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2050,7 +2343,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2091,10 +2384,10 @@
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
@@ -2108,31 +2401,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>369</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2143,31 +2436,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>370</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2178,31 +2471,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>371</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2213,31 +2506,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2248,31 +2541,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2283,31 +2576,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>374</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2318,31 +2611,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>375</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2353,31 +2646,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2388,31 +2681,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>377</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2423,31 +2716,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>378</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2470,7 +2763,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2503,16 +2796,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2520,16 +2813,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,16 +2830,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2554,16 +2847,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2571,16 +2864,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2588,16 +2881,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2605,16 +2898,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2622,16 +2915,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2639,16 +2932,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2656,16 +2949,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2705,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2713,16 +3006,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2730,16 +3023,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2747,16 +3040,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2764,16 +3057,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2781,16 +3074,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2798,16 +3091,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2815,16 +3108,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2832,16 +3125,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2849,16 +3142,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2866,16 +3159,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +3182,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2912,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -2921,22 +3214,22 @@
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2944,34 +3237,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2979,34 +3272,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>297</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3014,34 +3307,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3072,16 +3365,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3089,10 +3382,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3104,10 +3397,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3119,10 +3412,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3134,13 +3427,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3149,10 +3442,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3164,13 +3457,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3179,10 +3472,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3194,10 +3487,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3209,10 +3502,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3224,13 +3517,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3239,13 +3532,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3254,13 +3547,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3269,10 +3562,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3337,7 +3630,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3374,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>45</v>
@@ -3383,7 +3676,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3394,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -3403,7 +3696,7 @@
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3414,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -3423,7 +3716,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3434,7 +3727,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -3443,7 +3736,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>341</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3454,7 +3747,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
@@ -3463,7 +3756,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>342</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3474,7 +3767,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -3483,7 +3776,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>343</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3494,7 +3787,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -3503,7 +3796,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>344</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3514,7 +3807,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -3523,7 +3816,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -3545,7 +3838,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3579,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>45</v>
@@ -3596,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>298</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -3613,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -3630,7 +3923,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -3647,7 +3940,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
@@ -3664,7 +3957,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -3681,7 +3974,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -3698,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>304</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -3715,7 +4008,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>305</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -3732,7 +4025,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>306</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
@@ -3760,7 +4053,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3795,7 +4088,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -3806,13 +4099,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>55</v>
@@ -3821,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -3832,13 +4125,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>56</v>
@@ -3847,24 +4140,24 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>57</v>
@@ -3873,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -3884,13 +4177,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>58</v>
@@ -3899,7 +4192,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H5" s="1">
         <v>0.5</v>
@@ -3910,13 +4203,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>59</v>
@@ -3925,7 +4218,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H6" s="1">
         <v>0.5</v>
@@ -3936,13 +4229,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>60</v>
@@ -3951,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H7" s="1">
         <v>0.5</v>
@@ -3962,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>61</v>
@@ -3977,7 +4270,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H8" s="1">
         <v>0.5</v>
@@ -3988,13 +4281,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>62</v>
@@ -4003,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1">
         <v>0.5</v>
@@ -4014,22 +4307,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H10" s="1">
         <v>0.5</v>
@@ -4040,22 +4333,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1">
         <v>0.5</v>
@@ -4066,22 +4359,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H12" s="1">
         <v>0.5</v>
@@ -4092,22 +4385,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -4132,7 +4425,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4173,22 +4466,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4196,22 +4489,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4219,22 +4512,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4242,22 +4535,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4265,22 +4558,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4288,22 +4581,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4311,22 +4604,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4334,22 +4627,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>326</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4357,22 +4650,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4380,22 +4673,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4707,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4427,7 +4720,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4444,13 +4737,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4458,13 +4751,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4472,13 +4765,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4486,13 +4779,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4500,13 +4793,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>333</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4514,13 +4807,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4528,13 +4821,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4542,13 +4835,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4556,13 +4849,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4570,13 +4863,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4884,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4621,13 +4914,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4635,13 +4928,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4649,13 +4942,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4663,13 +4956,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4677,13 +4970,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>342</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4691,13 +4984,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>343</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4705,13 +4998,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>344</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4719,13 +5012,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4733,13 +5026,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4747,13 +5040,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4768,7 +5061,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4798,13 +5091,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>348</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4812,13 +5105,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4826,13 +5119,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4840,13 +5133,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4854,13 +5147,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4868,13 +5161,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4882,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4896,13 +5189,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4910,13 +5203,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4924,13 +5217,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +5237,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4971,13 +5264,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>23</v>
@@ -4988,16 +5281,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5006,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5014,7 +5307,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -5023,7 +5316,7 @@
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5032,7 +5325,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5040,7 +5333,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>351</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -5049,7 +5342,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5058,7 +5351,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5066,7 +5359,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>352</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -5075,7 +5368,7 @@
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5084,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5092,7 +5385,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>353</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
@@ -5101,7 +5394,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5110,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5118,7 +5411,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>354</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -5127,7 +5420,7 @@
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5136,7 +5429,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5144,7 +5437,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -5153,7 +5446,7 @@
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5162,7 +5455,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5170,7 +5463,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -5179,7 +5472,7 @@
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5188,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5196,7 +5489,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -5205,7 +5498,7 @@
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5214,7 +5507,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5222,7 +5515,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
@@ -5231,7 +5524,7 @@
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5240,7 +5533,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="393">
   <si>
     <t>Id
 序号</t>
@@ -893,10 +893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\Workspace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment
 描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1007,10 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\Workspace\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>template_light.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1400,6 +1392,23 @@
   </si>
   <si>
     <t>InformationCompare=info3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024-15
+12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\screenshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\template</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1822,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -1848,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -1874,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -1886,7 +1895,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -1900,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -1924,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -1936,7 +1945,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -1950,7 +1959,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -1962,7 +1971,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1976,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -1988,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2002,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -2014,7 +2023,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2028,7 +2037,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -2040,7 +2049,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2054,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -2066,7 +2075,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2132,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>127</v>
@@ -2141,7 +2150,7 @@
         <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2152,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>128</v>
@@ -2161,7 +2170,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2172,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>129</v>
@@ -2181,7 +2190,7 @@
         <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2192,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>130</v>
@@ -2201,7 +2210,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2212,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>131</v>
@@ -2221,7 +2230,7 @@
         <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2232,7 +2241,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>132</v>
@@ -2241,7 +2250,7 @@
         <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2252,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>133</v>
@@ -2261,7 +2270,7 @@
         <v>137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2272,7 +2281,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>134</v>
@@ -2281,7 +2290,7 @@
         <v>138</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2292,7 +2301,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>135</v>
@@ -2301,7 +2310,7 @@
         <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2312,7 +2321,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>136</v>
@@ -2321,7 +2330,7 @@
         <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2401,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>146</v>
@@ -2413,10 +2422,10 @@
         <v>235</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>139</v>
@@ -2436,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>147</v>
@@ -2448,10 +2457,10 @@
         <v>142</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>205</v>
@@ -2471,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>148</v>
@@ -2483,10 +2492,10 @@
         <v>142</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>205</v>
@@ -2506,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>149</v>
@@ -2518,10 +2527,10 @@
         <v>142</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>205</v>
@@ -2541,7 +2550,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>150</v>
@@ -2553,10 +2562,10 @@
         <v>142</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>205</v>
@@ -2576,7 +2585,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>151</v>
@@ -2588,10 +2597,10 @@
         <v>142</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>205</v>
@@ -2611,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>152</v>
@@ -2623,10 +2632,10 @@
         <v>142</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>205</v>
@@ -2646,7 +2655,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>153</v>
@@ -2658,10 +2667,10 @@
         <v>142</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>205</v>
@@ -2681,7 +2690,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>154</v>
@@ -2693,10 +2702,10 @@
         <v>142</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>205</v>
@@ -2716,7 +2725,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>155</v>
@@ -2728,10 +2737,10 @@
         <v>142</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>205</v>
@@ -3181,7 +3190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -3205,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -3214,22 +3223,22 @@
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3252,19 +3261,19 @@
         <v>187</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>193</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3287,19 +3296,19 @@
         <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>194</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3322,19 +3331,19 @@
         <v>189</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>195</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3352,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3365,13 +3374,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>236</v>
@@ -3382,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3397,10 +3406,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3412,7 +3421,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>237</v>
@@ -3427,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>240</v>
@@ -3442,10 +3451,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3457,10 +3466,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>238</v>
@@ -3472,7 +3481,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>241</v>
@@ -3487,7 +3496,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>242</v>
@@ -3502,10 +3511,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3517,13 +3526,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>243</v>
+        <v>391</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3532,13 +3541,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3547,13 +3556,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3562,10 +3571,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3667,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>45</v>
@@ -3676,7 +3685,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3687,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -3696,7 +3705,7 @@
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3707,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -3716,7 +3725,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3727,7 +3736,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -3736,7 +3745,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3747,7 +3756,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
@@ -3756,7 +3765,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3767,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -3776,7 +3785,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3787,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -3796,7 +3805,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3807,7 +3816,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -3816,7 +3825,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -3872,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>45</v>
@@ -3889,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -3906,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -3923,7 +3932,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -3940,7 +3949,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
@@ -3957,7 +3966,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -3974,7 +3983,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -3991,7 +4000,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -4008,7 +4017,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -4025,7 +4034,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
@@ -4053,7 +4062,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4099,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>67</v>
@@ -4114,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>390</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4125,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -4151,7 +4160,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -4177,7 +4186,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>70</v>
@@ -4203,7 +4212,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>71</v>
@@ -4229,7 +4238,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>72</v>
@@ -4255,7 +4264,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>73</v>
@@ -4281,7 +4290,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>74</v>
@@ -4307,7 +4316,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>75</v>
@@ -4333,7 +4342,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>76</v>
@@ -4359,7 +4368,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>83</v>
@@ -4385,7 +4394,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>84</v>
@@ -4417,6 +4426,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4466,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>87</v>
@@ -4478,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>97</v>
@@ -4489,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>88</v>
@@ -4501,7 +4511,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>98</v>
@@ -4512,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>89</v>
@@ -4524,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>97</v>
@@ -4535,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>90</v>
@@ -4547,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>98</v>
@@ -4558,7 +4568,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>91</v>
@@ -4570,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>97</v>
@@ -4581,7 +4591,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>92</v>
@@ -4593,7 +4603,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>98</v>
@@ -4604,7 +4614,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>93</v>
@@ -4616,7 +4626,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>98</v>
@@ -4627,7 +4637,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>94</v>
@@ -4639,7 +4649,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>98</v>
@@ -4650,7 +4660,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>95</v>
@@ -4662,7 +4672,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>97</v>
@@ -4673,7 +4683,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>96</v>
@@ -4685,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>97</v>
@@ -4737,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>99</v>
@@ -4751,7 +4761,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -4765,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>48</v>
@@ -4779,7 +4789,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>49</v>
@@ -4793,7 +4803,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
@@ -4807,7 +4817,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>51</v>
@@ -4821,7 +4831,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>52</v>
@@ -4835,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>53</v>
@@ -4849,7 +4859,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
@@ -4863,7 +4873,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>100</v>
@@ -4914,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>109</v>
@@ -4928,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>101</v>
@@ -4942,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>102</v>
@@ -4956,7 +4966,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>103</v>
@@ -4970,7 +4980,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>104</v>
@@ -4984,7 +4994,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>105</v>
@@ -4998,7 +5008,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>106</v>
@@ -5012,7 +5022,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>107</v>
@@ -5026,7 +5036,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>108</v>
@@ -5040,7 +5050,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>110</v>
@@ -5091,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>112</v>
@@ -5281,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>123</v>
@@ -5307,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -5333,7 +5343,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -5359,7 +5369,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -5385,7 +5395,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
@@ -5411,7 +5421,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -5437,7 +5447,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -5463,7 +5473,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -5489,7 +5499,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -5515,7 +5525,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="信息对比(InformationCompare)" sheetId="12" r:id="rId12"/>
     <sheet name="信息保存(Information)" sheetId="13" r:id="rId13"/>
     <sheet name="测试用例(TestCase)" sheetId="14" r:id="rId14"/>
-    <sheet name="配置(Configure)" sheetId="15" r:id="rId15"/>
+    <sheet name="测试用例前置条件(TestCaseSetUp)" sheetId="16" r:id="rId15"/>
+    <sheet name="配置(Configure)" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="403">
   <si>
     <t>Id
 序号</t>
@@ -656,10 +657,6 @@
     <t>空调屏</t>
   </si>
   <si>
-    <t>module1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>module2</t>
   </si>
   <si>
@@ -869,27 +866,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最小支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COM24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COM23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOC串口号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MCU串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏宽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -903,38 +888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SocPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SocBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McuPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>McuBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenShotTempPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templateImagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dbcFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,10 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOC串口波特率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,23 +908,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示屏高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAN的DBC文件绝对路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -998,40 +931,484 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>template_light.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_dark.bmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxRelayChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-12-0.5-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepsDescription
+操作步骤描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_test2</t>
+  </si>
+  <si>
+    <t>battery_test3</t>
+  </si>
+  <si>
+    <t>battery_test4</t>
+  </si>
+  <si>
+    <t>battery_test5</t>
+  </si>
+  <si>
+    <t>battery_test6</t>
+  </si>
+  <si>
+    <t>battery_test7</t>
+  </si>
+  <si>
+    <t>battery_test8</t>
+  </si>
+  <si>
+    <t>battery_test9</t>
+  </si>
+  <si>
+    <t>battery_test10</t>
+  </si>
+  <si>
+    <t>element_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_test2</t>
+  </si>
+  <si>
+    <t>element_test3</t>
+  </si>
+  <si>
+    <t>element_test4</t>
+  </si>
+  <si>
+    <t>element_test5</t>
+  </si>
+  <si>
+    <t>element_test6</t>
+  </si>
+  <si>
+    <t>element_test7</t>
+  </si>
+  <si>
+    <t>element_test8</t>
+  </si>
+  <si>
+    <t>relay_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relay_test2</t>
+  </si>
+  <si>
+    <t>relay_test3</t>
+  </si>
+  <si>
+    <t>relay_test4</t>
+  </si>
+  <si>
+    <t>relay_test5</t>
+  </si>
+  <si>
+    <t>relay_test6</t>
+  </si>
+  <si>
+    <t>relay_test7</t>
+  </si>
+  <si>
+    <t>relay_test8</t>
+  </si>
+  <si>
+    <t>relay_test9</t>
+  </si>
+  <si>
+    <t>relay_test10</t>
+  </si>
+  <si>
+    <t>screen_operation_teset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_operation_teset2</t>
+  </si>
+  <si>
+    <t>screen_operation_teset3</t>
+  </si>
+  <si>
+    <t>screen_operation_teset4</t>
+  </si>
+  <si>
+    <t>screen_operation_teset5</t>
+  </si>
+  <si>
+    <t>screen_operation_teset6</t>
+  </si>
+  <si>
+    <t>screen_operation_teset7</t>
+  </si>
+  <si>
+    <t>screen_operation_teset8</t>
+  </si>
+  <si>
+    <t>screen_operation_teset9</t>
+  </si>
+  <si>
+    <t>screen_operation_teset10</t>
+  </si>
+  <si>
+    <t>screen_operation_teset11</t>
+  </si>
+  <si>
+    <t>screen_operation_teset12</t>
+  </si>
+  <si>
+    <t>screenshot_tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenshot_tttt2</t>
+  </si>
+  <si>
+    <t>screenshot_tttt3</t>
+  </si>
+  <si>
+    <t>screenshot_tttt4</t>
+  </si>
+  <si>
+    <t>screenshot_tttt5</t>
+  </si>
+  <si>
+    <t>screenshot_tttt6</t>
+  </si>
+  <si>
+    <t>screenshot_tttt7</t>
+  </si>
+  <si>
+    <t>screenshot_tttt8</t>
+  </si>
+  <si>
+    <t>screenshot_tttt9</t>
+  </si>
+  <si>
+    <t>screenshot_tttt10</t>
+  </si>
+  <si>
+    <t>can_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_test2</t>
+  </si>
+  <si>
+    <t>can_test3</t>
+  </si>
+  <si>
+    <t>can_test4</t>
+  </si>
+  <si>
+    <t>can_test5</t>
+  </si>
+  <si>
+    <t>can_test6</t>
+  </si>
+  <si>
+    <t>can_test7</t>
+  </si>
+  <si>
+    <t>can_test8</t>
+  </si>
+  <si>
+    <t>can_test9</t>
+  </si>
+  <si>
+    <t>can_test10</t>
+  </si>
+  <si>
+    <t>element_kkk2</t>
+  </si>
+  <si>
+    <t>element_kkk3</t>
+  </si>
+  <si>
+    <t>element_kkk4</t>
+  </si>
+  <si>
+    <t>element_kkk5</t>
+  </si>
+  <si>
+    <t>element_kkk6</t>
+  </si>
+  <si>
+    <t>element_kkk7</t>
+  </si>
+  <si>
+    <t>element_kkk8</t>
+  </si>
+  <si>
+    <t>element_kkk9</t>
+  </si>
+  <si>
+    <t>element_kkk10</t>
+  </si>
+  <si>
+    <t>common1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_compare_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_compare_test2</t>
+  </si>
+  <si>
+    <t>can_compare_test3</t>
+  </si>
+  <si>
+    <t>can_compare_test4</t>
+  </si>
+  <si>
+    <t>can_compare_test5</t>
+  </si>
+  <si>
+    <t>can_compare_test6</t>
+  </si>
+  <si>
+    <t>can_compare_test7</t>
+  </si>
+  <si>
+    <t>can_compare_test8</t>
+  </si>
+  <si>
+    <t>can_compare_test9</t>
+  </si>
+  <si>
+    <t>can_compare_test10</t>
+  </si>
+  <si>
+    <t>element_comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_comapre2</t>
+  </si>
+  <si>
+    <t>element_comapre3</t>
+  </si>
+  <si>
+    <t>element_comapre4</t>
+  </si>
+  <si>
+    <t>element_comapre5</t>
+  </si>
+  <si>
+    <t>element_comapre6</t>
+  </si>
+  <si>
+    <t>element_comapre7</t>
+  </si>
+  <si>
+    <t>element_comapre8</t>
+  </si>
+  <si>
+    <t>element_comapre9</t>
+  </si>
+  <si>
+    <t>element_comapre10</t>
+  </si>
+  <si>
+    <t>image_compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_compareaaaa2</t>
+  </si>
+  <si>
+    <t>image_compareaaaa3</t>
+  </si>
+  <si>
+    <t>image_compareaaaa4</t>
+  </si>
+  <si>
+    <t>image_compareaaaa5</t>
+  </si>
+  <si>
+    <t>image_compareaaaa6</t>
+  </si>
+  <si>
+    <t>image_compareaaaa7</t>
+  </si>
+  <si>
+    <t>image_compareaaaa8</t>
+  </si>
+  <si>
+    <t>image_compareaaaa9</t>
+  </si>
+  <si>
+    <t>image_compareaaaa10</t>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test3</t>
+  </si>
+  <si>
+    <t>InformationCompare=info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024-15
+12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcuPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcuBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenShotTempPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\screenshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN的DBC文件绝对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的继电器通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functions
+函数执行前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suites
+套件执行前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PreCondition
 前置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>template_light.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_dark.bmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的继电器通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxRelayChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-12-0.5-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepsDescription
-操作步骤描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Steps
 操作步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,321 +1419,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>battery_test2</t>
-  </si>
-  <si>
-    <t>battery_test3</t>
-  </si>
-  <si>
-    <t>battery_test4</t>
-  </si>
-  <si>
-    <t>battery_test5</t>
-  </si>
-  <si>
-    <t>battery_test6</t>
-  </si>
-  <si>
-    <t>battery_test7</t>
-  </si>
-  <si>
-    <t>battery_test8</t>
-  </si>
-  <si>
-    <t>battery_test9</t>
-  </si>
-  <si>
-    <t>battery_test10</t>
-  </si>
-  <si>
-    <t>element_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_test2</t>
-  </si>
-  <si>
-    <t>element_test3</t>
-  </si>
-  <si>
-    <t>element_test4</t>
-  </si>
-  <si>
-    <t>element_test5</t>
-  </si>
-  <si>
-    <t>element_test6</t>
-  </si>
-  <si>
-    <t>element_test7</t>
-  </si>
-  <si>
-    <t>element_test8</t>
-  </si>
-  <si>
-    <t>relay_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relay_test2</t>
-  </si>
-  <si>
-    <t>relay_test3</t>
-  </si>
-  <si>
-    <t>relay_test4</t>
-  </si>
-  <si>
-    <t>relay_test5</t>
-  </si>
-  <si>
-    <t>relay_test6</t>
-  </si>
-  <si>
-    <t>relay_test7</t>
-  </si>
-  <si>
-    <t>relay_test8</t>
-  </si>
-  <si>
-    <t>relay_test9</t>
-  </si>
-  <si>
-    <t>relay_test10</t>
-  </si>
-  <si>
-    <t>screen_operation_teset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_operation_teset2</t>
-  </si>
-  <si>
-    <t>screen_operation_teset3</t>
-  </si>
-  <si>
-    <t>screen_operation_teset4</t>
-  </si>
-  <si>
-    <t>screen_operation_teset5</t>
-  </si>
-  <si>
-    <t>screen_operation_teset6</t>
-  </si>
-  <si>
-    <t>screen_operation_teset7</t>
-  </si>
-  <si>
-    <t>screen_operation_teset8</t>
-  </si>
-  <si>
-    <t>screen_operation_teset9</t>
-  </si>
-  <si>
-    <t>screen_operation_teset10</t>
-  </si>
-  <si>
-    <t>screen_operation_teset11</t>
-  </si>
-  <si>
-    <t>screen_operation_teset12</t>
-  </si>
-  <si>
-    <t>screenshot_tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenshot_tttt2</t>
-  </si>
-  <si>
-    <t>screenshot_tttt3</t>
-  </si>
-  <si>
-    <t>screenshot_tttt4</t>
-  </si>
-  <si>
-    <t>screenshot_tttt5</t>
-  </si>
-  <si>
-    <t>screenshot_tttt6</t>
-  </si>
-  <si>
-    <t>screenshot_tttt7</t>
-  </si>
-  <si>
-    <t>screenshot_tttt8</t>
-  </si>
-  <si>
-    <t>screenshot_tttt9</t>
-  </si>
-  <si>
-    <t>screenshot_tttt10</t>
-  </si>
-  <si>
-    <t>can_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_test2</t>
-  </si>
-  <si>
-    <t>can_test3</t>
-  </si>
-  <si>
-    <t>can_test4</t>
-  </si>
-  <si>
-    <t>can_test5</t>
-  </si>
-  <si>
-    <t>can_test6</t>
-  </si>
-  <si>
-    <t>can_test7</t>
-  </si>
-  <si>
-    <t>can_test8</t>
-  </si>
-  <si>
-    <t>can_test9</t>
-  </si>
-  <si>
-    <t>can_test10</t>
-  </si>
-  <si>
-    <t>element_kkk2</t>
-  </si>
-  <si>
-    <t>element_kkk3</t>
-  </si>
-  <si>
-    <t>element_kkk4</t>
-  </si>
-  <si>
-    <t>element_kkk5</t>
-  </si>
-  <si>
-    <t>element_kkk6</t>
-  </si>
-  <si>
-    <t>element_kkk7</t>
-  </si>
-  <si>
-    <t>element_kkk8</t>
-  </si>
-  <si>
-    <t>element_kkk9</t>
-  </si>
-  <si>
-    <t>element_kkk10</t>
-  </si>
-  <si>
-    <t>common1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_compare_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_compare_test2</t>
-  </si>
-  <si>
-    <t>can_compare_test3</t>
-  </si>
-  <si>
-    <t>can_compare_test4</t>
-  </si>
-  <si>
-    <t>can_compare_test5</t>
-  </si>
-  <si>
-    <t>can_compare_test6</t>
-  </si>
-  <si>
-    <t>can_compare_test7</t>
-  </si>
-  <si>
-    <t>can_compare_test8</t>
-  </si>
-  <si>
-    <t>can_compare_test9</t>
-  </si>
-  <si>
-    <t>can_compare_test10</t>
-  </si>
-  <si>
-    <t>element_comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_comapre2</t>
-  </si>
-  <si>
-    <t>element_comapre3</t>
-  </si>
-  <si>
-    <t>element_comapre4</t>
-  </si>
-  <si>
-    <t>element_comapre5</t>
-  </si>
-  <si>
-    <t>element_comapre6</t>
-  </si>
-  <si>
-    <t>element_comapre7</t>
-  </si>
-  <si>
-    <t>element_comapre8</t>
-  </si>
-  <si>
-    <t>element_comapre9</t>
-  </si>
-  <si>
-    <t>element_comapre10</t>
-  </si>
-  <si>
-    <t>image_compareaaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_compareaaaa2</t>
-  </si>
-  <si>
-    <t>image_compareaaaa3</t>
-  </si>
-  <si>
-    <t>image_compareaaaa4</t>
-  </si>
-  <si>
-    <t>image_compareaaaa5</t>
-  </si>
-  <si>
-    <t>image_compareaaaa6</t>
-  </si>
-  <si>
-    <t>image_compareaaaa7</t>
-  </si>
-  <si>
-    <t>image_compareaaaa8</t>
-  </si>
-  <si>
-    <t>image_compareaaaa9</t>
-  </si>
-  <si>
-    <t>image_compareaaaa10</t>
-  </si>
-  <si>
-    <t>element_kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battery_test1</t>
+    <t>module1</t>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1364,51 +1442,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BatteryAction=battery_test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryAction=battery_test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAction=can_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAction=can_test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAction=can_test3</t>
-  </si>
-  <si>
-    <t>InformationCompare=info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InformationCompare=info2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InformationCompare=info3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024-15
-12-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\screenshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\template</t>
+    <t>BatteryAction=battery_test1
+yeild
+pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass
+yeild
+BatteryAction=battery_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,7 +1526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1501,6 +1547,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1785,7 +1834,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1817,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1831,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>388</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
@@ -1857,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
@@ -1883,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -1895,7 +1944,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -1909,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -1933,7 +1982,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -1945,7 +1994,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -1959,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -1971,7 +2020,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1985,7 +2034,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -1997,7 +2046,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2011,7 +2060,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -2023,7 +2072,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2037,7 +2086,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -2049,7 +2098,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2063,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -2075,7 +2124,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2141,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>127</v>
@@ -2150,7 +2199,7 @@
         <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2161,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>128</v>
@@ -2170,7 +2219,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2181,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>129</v>
@@ -2190,7 +2239,7 @@
         <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2201,7 +2250,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>130</v>
@@ -2210,7 +2259,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2221,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>131</v>
@@ -2230,7 +2279,7 @@
         <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2241,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>132</v>
@@ -2250,7 +2299,7 @@
         <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2261,7 +2310,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>133</v>
@@ -2270,7 +2319,7 @@
         <v>137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2281,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>134</v>
@@ -2290,7 +2339,7 @@
         <v>138</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2301,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>135</v>
@@ -2310,7 +2359,7 @@
         <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2321,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>136</v>
@@ -2330,7 +2379,7 @@
         <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2393,10 +2442,10 @@
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
@@ -2410,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>146</v>
@@ -2419,13 +2468,13 @@
         <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>139</v>
@@ -2445,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>147</v>
@@ -2457,13 +2506,13 @@
         <v>142</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
@@ -2480,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>148</v>
@@ -2492,13 +2541,13 @@
         <v>142</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
@@ -2515,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>149</v>
@@ -2527,13 +2576,13 @@
         <v>142</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
@@ -2550,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>150</v>
@@ -2562,13 +2611,13 @@
         <v>142</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
@@ -2585,7 +2634,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>151</v>
@@ -2597,13 +2646,13 @@
         <v>142</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
@@ -2620,7 +2669,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>152</v>
@@ -2632,13 +2681,13 @@
         <v>142</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
@@ -2655,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>153</v>
@@ -2667,13 +2716,13 @@
         <v>142</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
@@ -2690,7 +2739,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>154</v>
@@ -2702,13 +2751,13 @@
         <v>142</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
@@ -2725,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>155</v>
@@ -2737,13 +2786,13 @@
         <v>142</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
@@ -2814,7 +2863,7 @@
         <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2831,7 +2880,7 @@
         <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2848,7 +2897,7 @@
         <v>167</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2865,7 +2914,7 @@
         <v>167</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2882,7 +2931,7 @@
         <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2899,7 +2948,7 @@
         <v>167</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2916,7 +2965,7 @@
         <v>167</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2933,7 +2982,7 @@
         <v>167</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2950,7 +2999,7 @@
         <v>167</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2967,7 +3016,7 @@
         <v>167</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3073,7 @@
         <v>176</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3041,7 +3090,7 @@
         <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3058,7 +3107,7 @@
         <v>176</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3075,7 +3124,7 @@
         <v>176</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3092,7 +3141,7 @@
         <v>176</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3109,7 +3158,7 @@
         <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3126,7 +3175,7 @@
         <v>176</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3143,7 +3192,7 @@
         <v>176</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3160,7 +3209,7 @@
         <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3177,7 +3226,7 @@
         <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3191,7 +3240,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3214,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -3223,22 +3272,22 @@
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>268</v>
+        <v>391</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3255,25 +3304,25 @@
         <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>184</v>
+        <v>395</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3290,25 +3339,25 @@
         <v>182</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3325,25 +3374,25 @@
         <v>183</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3359,10 +3408,102 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="28.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3374,16 +3515,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3391,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3406,10 +3547,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>255</v>
+        <v>369</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3421,10 +3562,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>237</v>
+        <v>371</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3436,13 +3577,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>247</v>
+        <v>374</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>239</v>
+        <v>372</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3451,10 +3592,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>248</v>
+        <v>375</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3466,13 +3607,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>249</v>
+        <v>376</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3481,10 +3622,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3496,10 +3637,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>242</v>
+        <v>373</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3511,10 +3652,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3526,13 +3667,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>251</v>
+        <v>380</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>261</v>
+        <v>379</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3541,13 +3682,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>252</v>
+        <v>382</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3556,13 +3697,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>263</v>
+        <v>385</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3571,10 +3712,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3676,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>45</v>
@@ -3685,7 +3826,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3696,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -3705,7 +3846,7 @@
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3716,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -3725,7 +3866,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3736,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -3745,7 +3886,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3756,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
@@ -3765,7 +3906,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3776,7 +3917,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -3785,7 +3926,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3796,7 +3937,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -3805,7 +3946,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3816,7 +3957,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -3825,7 +3966,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -3881,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>45</v>
@@ -3898,7 +4039,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -3915,7 +4056,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -3932,7 +4073,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -3949,7 +4090,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
@@ -3966,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -3983,7 +4124,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -4000,7 +4141,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -4017,7 +4158,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -4034,7 +4175,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
@@ -4097,7 +4238,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -4108,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>67</v>
@@ -4123,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4134,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -4160,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -4186,7 +4327,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>70</v>
@@ -4212,7 +4353,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>71</v>
@@ -4238,7 +4379,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>72</v>
@@ -4264,7 +4405,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>73</v>
@@ -4290,7 +4431,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>74</v>
@@ -4316,7 +4457,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>75</v>
@@ -4342,7 +4483,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>76</v>
@@ -4368,7 +4509,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>83</v>
@@ -4394,7 +4535,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>84</v>
@@ -4476,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>87</v>
@@ -4488,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>97</v>
@@ -4499,7 +4640,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>88</v>
@@ -4511,7 +4652,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>98</v>
@@ -4522,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>89</v>
@@ -4534,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>97</v>
@@ -4545,7 +4686,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>90</v>
@@ -4557,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>98</v>
@@ -4568,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>91</v>
@@ -4580,7 +4721,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>97</v>
@@ -4591,7 +4732,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>92</v>
@@ -4603,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>98</v>
@@ -4614,7 +4755,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>93</v>
@@ -4626,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>98</v>
@@ -4637,7 +4778,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>94</v>
@@ -4649,7 +4790,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>98</v>
@@ -4660,7 +4801,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>95</v>
@@ -4672,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>97</v>
@@ -4683,7 +4824,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>96</v>
@@ -4695,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>97</v>
@@ -4730,7 +4871,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4747,13 +4888,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4761,13 +4902,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4775,13 +4916,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4789,13 +4930,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4803,13 +4944,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4817,13 +4958,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4831,13 +4972,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4845,13 +4986,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4859,13 +5000,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4873,13 +5014,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4924,13 +5065,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4938,7 +5079,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>101</v>
@@ -4952,13 +5093,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4966,13 +5107,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4980,13 +5121,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4994,13 +5135,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5008,13 +5149,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5022,7 +5163,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>107</v>
@@ -5036,7 +5177,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>108</v>
@@ -5050,7 +5191,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>110</v>
@@ -5101,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>112</v>
@@ -5274,7 +5415,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -5291,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>123</v>
@@ -5300,7 +5441,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5317,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -5326,7 +5467,7 @@
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5343,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -5352,7 +5493,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5369,7 +5510,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -5378,7 +5519,7 @@
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5395,7 +5536,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
@@ -5404,7 +5545,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5421,7 +5562,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -5430,7 +5571,7 @@
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5447,7 +5588,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -5456,7 +5597,7 @@
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5473,7 +5614,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -5482,7 +5623,7 @@
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5499,7 +5640,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -5508,7 +5649,7 @@
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5525,7 +5666,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
@@ -5534,7 +5675,7 @@
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
     <sheet name="元素操作(ElementAction)" sheetId="2" r:id="rId2"/>
     <sheet name="继电器操作(RelayAction)" sheetId="3" r:id="rId3"/>
-    <sheet name="屏幕操作(ScreenOperationAction)" sheetId="4" r:id="rId4"/>
+    <sheet name="屏幕操作(ScreenOpsAction)" sheetId="4" r:id="rId4"/>
     <sheet name="截图操作(ScreenShotAction)" sheetId="5" r:id="rId5"/>
     <sheet name="Can信号(CanAction)" sheetId="6" r:id="rId6"/>
     <sheet name="安卓元素(Element)" sheetId="7" r:id="rId7"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="414">
   <si>
     <t>Id
 序号</t>
@@ -71,1390 +71,1452 @@
 安卓元素</t>
   </si>
   <si>
+    <t>RelayOperationType
+继电器操作类型</t>
+  </si>
+  <si>
+    <t>ChannelIndex
+继电器通道</t>
+  </si>
+  <si>
+    <t>ScreenIndex
+屏幕序号</t>
+  </si>
+  <si>
+    <t>ContinueTimes
+持续时间</t>
+  </si>
+  <si>
+    <t>Count
+截图张数</t>
+  </si>
+  <si>
+    <t>ImageName
+截图名称</t>
+  </si>
+  <si>
+    <t>Signals
+信号名与值</t>
+  </si>
+  <si>
+    <t>MessageId
+信号ID</t>
+  </si>
+  <si>
+    <t>ExpectValue
+期望值</t>
+  </si>
+  <si>
+    <t>Exact
+是否精确对比</t>
+  </si>
+  <si>
+    <t>ElementCompareType
+元素对比类型</t>
+  </si>
+  <si>
+    <t>Timeout
+超时时间</t>
+  </si>
+  <si>
+    <t>CompareType
+图片对比方式</t>
+  </si>
+  <si>
+    <t>TemplateLight
+模板亮图</t>
+  </si>
+  <si>
+    <t>TemplateDark
+模板暗图</t>
+  </si>
+  <si>
+    <t>IsGray
+是否灰度对比</t>
+  </si>
+  <si>
+    <t>Threshold
+灰度二值化阈值</t>
+  </si>
+  <si>
+    <t>Origin
+原始信息</t>
+  </si>
+  <si>
+    <t>Target
+目标信息</t>
+  </si>
+  <si>
+    <t>TestCaseType
+测试用例类型</t>
+  </si>
+  <si>
+    <t>ModuleName
+模块名</t>
+  </si>
+  <si>
+    <t>ExpectDescription
+期望结果描述</t>
+  </si>
+  <si>
+    <t>BatteryType
+电源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT6831</t>
+  </si>
+  <si>
+    <t>设置电压</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KONSTANTER</t>
+  </si>
+  <si>
+    <t>设置电流</t>
+  </si>
+  <si>
+    <t>调节电压</t>
+  </si>
+  <si>
+    <t>电压曲线</t>
+  </si>
+  <si>
+    <t>d:\a.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>滑动</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>长按</t>
+  </si>
+  <si>
+    <t>双击</t>
+  </si>
+  <si>
+    <t>上滑</t>
+  </si>
+  <si>
+    <t>下滑</t>
+  </si>
+  <si>
+    <t>左滑</t>
+  </si>
+  <si>
+    <t>右滑</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>全开</t>
+  </si>
+  <si>
+    <t>全关</t>
+  </si>
+  <si>
+    <t>tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tttt2</t>
+  </si>
+  <si>
+    <t>tttt3</t>
+  </si>
+  <si>
+    <t>tttt4</t>
+  </si>
+  <si>
+    <t>tttt5</t>
+  </si>
+  <si>
+    <t>tttt6</t>
+  </si>
+  <si>
+    <t>tttt7</t>
+  </si>
+  <si>
+    <t>tttt8</t>
+  </si>
+  <si>
+    <t>tttt9</t>
+  </si>
+  <si>
+    <t>tttt10</t>
+  </si>
+  <si>
+    <t>QNX</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>上滑到顶</t>
+  </si>
+  <si>
+    <t>下滑到底</t>
+  </si>
+  <si>
+    <t>左滑到头</t>
+  </si>
+  <si>
+    <t>右滑到头</t>
+  </si>
+  <si>
+    <t>tttt11</t>
+  </si>
+  <si>
+    <t>tttt12</t>
+  </si>
+  <si>
+    <t>12-15
+12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oooo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oooo2</t>
+  </si>
+  <si>
+    <t>oooo3</t>
+  </si>
+  <si>
+    <t>oooo4</t>
+  </si>
+  <si>
+    <t>oooo5</t>
+  </si>
+  <si>
+    <t>oooo6</t>
+  </si>
+  <si>
+    <t>oooo7</t>
+  </si>
+  <si>
+    <t>oooo8</t>
+  </si>
+  <si>
+    <t>oooo9</t>
+  </si>
+  <si>
+    <t>oooo10</t>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>kkk3</t>
+  </si>
+  <si>
+    <t>kkk4</t>
+  </si>
+  <si>
+    <t>kkk5</t>
+  </si>
+  <si>
+    <t>kkk6</t>
+  </si>
+  <si>
+    <t>kkk7</t>
+  </si>
+  <si>
+    <t>kkk10</t>
+  </si>
+  <si>
+    <t>kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk11</t>
+  </si>
+  <si>
+    <t>text=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common2</t>
+  </si>
+  <si>
+    <t>common3</t>
+  </si>
+  <si>
+    <t>common4</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppearCount
+出现次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre2</t>
+  </si>
+  <si>
+    <t>comapre3</t>
+  </si>
+  <si>
+    <t>comapre4</t>
+  </si>
+  <si>
+    <t>comapre5</t>
+  </si>
+  <si>
+    <t>comapre6</t>
+  </si>
+  <si>
+    <t>comapre7</t>
+  </si>
+  <si>
+    <t>comapre8</t>
+  </si>
+  <si>
+    <t>comapre9</t>
+  </si>
+  <si>
+    <t>comapre10</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>不存在</t>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮图</t>
+  </si>
+  <si>
+    <t>暗图</t>
+  </si>
+  <si>
+    <t>闪烁图</t>
+  </si>
+  <si>
+    <t>compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareaaaa2</t>
+  </si>
+  <si>
+    <t>compareaaaa3</t>
+  </si>
+  <si>
+    <t>compareaaaa4</t>
+  </si>
+  <si>
+    <t>compareaaaa5</t>
+  </si>
+  <si>
+    <t>compareaaaa6</t>
+  </si>
+  <si>
+    <t>compareaaaa7</t>
+  </si>
+  <si>
+    <t>compareaaaa8</t>
+  </si>
+  <si>
+    <t>compareaaaa9</t>
+  </si>
+  <si>
+    <t>compareaaaa10</t>
+  </si>
+  <si>
+    <t>info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info2</t>
+  </si>
+  <si>
+    <t>info3</t>
+  </si>
+  <si>
+    <t>info4</t>
+  </si>
+  <si>
+    <t>info5</t>
+  </si>
+  <si>
+    <t>info6</t>
+  </si>
+  <si>
+    <t>info7</t>
+  </si>
+  <si>
+    <t>info8</t>
+  </si>
+  <si>
+    <t>info9</t>
+  </si>
+  <si>
+    <t>info10</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
+  </si>
+  <si>
+    <t>infomation3</t>
+  </si>
+  <si>
+    <t>infomation4</t>
+  </si>
+  <si>
+    <t>infomation5</t>
+  </si>
+  <si>
+    <t>infomation6</t>
+  </si>
+  <si>
+    <t>infomation7</t>
+  </si>
+  <si>
+    <t>infomation8</t>
+  </si>
+  <si>
+    <t>infomation9</t>
+  </si>
+  <si>
+    <t>infomation10</t>
+  </si>
+  <si>
+    <t>kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAttributes
+元素属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase2</t>
+  </si>
+  <si>
+    <t>testcase3</t>
+  </si>
+  <si>
+    <t>仪表</t>
+  </si>
+  <si>
+    <t>中控</t>
+  </si>
+  <si>
+    <t>空调屏</t>
+  </si>
+  <si>
+    <t>module2</t>
+  </si>
+  <si>
+    <t>module3</t>
+  </si>
+  <si>
+    <t>condition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition2</t>
+  </si>
+  <si>
+    <t>condition3</t>
+  </si>
+  <si>
+    <t>steps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps2</t>
+  </si>
+  <si>
+    <t>steps3</t>
+  </si>
+  <si>
+    <t>expect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect2</t>
+  </si>
+  <si>
+    <t>expect3</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLLABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAYED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-45-67
+34-24-54-78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values
+电源操作值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKED
+CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG_CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points
+坐标点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positions
+比较区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignalName
+信号名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similarity
+相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=a,text=b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_FRMMsgErr=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LKASet=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_EQ5Set=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_IntConctVolStepSet=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_CallVolStepSet=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ChrgMod=0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LocTiY=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_SeatTltgAdjMotTarPosn=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACU_RePassBkl_Sts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_RRMDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_RRSnsrDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLSnsrDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDU_OBCACVlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSM_SeatTltgtAdjStsFb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC_TakeoverReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAS_SysFltFlg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAS_SteerAgVld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content
+内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbcFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的显示屏的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name
+名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreConditionDescription
+前置条件描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_light.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_dark.bmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxRelayChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-12-0.5-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepsDescription
+操作步骤描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_test2</t>
+  </si>
+  <si>
+    <t>battery_test3</t>
+  </si>
+  <si>
+    <t>battery_test4</t>
+  </si>
+  <si>
+    <t>battery_test5</t>
+  </si>
+  <si>
+    <t>battery_test6</t>
+  </si>
+  <si>
+    <t>battery_test7</t>
+  </si>
+  <si>
+    <t>battery_test8</t>
+  </si>
+  <si>
+    <t>battery_test9</t>
+  </si>
+  <si>
+    <t>battery_test10</t>
+  </si>
+  <si>
+    <t>element_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_test2</t>
+  </si>
+  <si>
+    <t>element_test3</t>
+  </si>
+  <si>
+    <t>element_test4</t>
+  </si>
+  <si>
+    <t>element_test5</t>
+  </si>
+  <si>
+    <t>element_test6</t>
+  </si>
+  <si>
+    <t>element_test7</t>
+  </si>
+  <si>
+    <t>relay_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relay_test2</t>
+  </si>
+  <si>
+    <t>relay_test3</t>
+  </si>
+  <si>
+    <t>relay_test4</t>
+  </si>
+  <si>
+    <t>relay_test5</t>
+  </si>
+  <si>
+    <t>relay_test6</t>
+  </si>
+  <si>
+    <t>relay_test7</t>
+  </si>
+  <si>
+    <t>relay_test8</t>
+  </si>
+  <si>
+    <t>relay_test9</t>
+  </si>
+  <si>
+    <t>relay_test10</t>
+  </si>
+  <si>
+    <t>screen_operation_teset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_operation_teset2</t>
+  </si>
+  <si>
+    <t>screen_operation_teset3</t>
+  </si>
+  <si>
+    <t>screen_operation_teset4</t>
+  </si>
+  <si>
+    <t>screen_operation_teset5</t>
+  </si>
+  <si>
+    <t>screen_operation_teset6</t>
+  </si>
+  <si>
+    <t>screen_operation_teset7</t>
+  </si>
+  <si>
+    <t>screen_operation_teset8</t>
+  </si>
+  <si>
+    <t>screen_operation_teset9</t>
+  </si>
+  <si>
+    <t>screen_operation_teset10</t>
+  </si>
+  <si>
+    <t>screen_operation_teset11</t>
+  </si>
+  <si>
+    <t>screen_operation_teset12</t>
+  </si>
+  <si>
+    <t>screenshot_tttt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenshot_tttt2</t>
+  </si>
+  <si>
+    <t>screenshot_tttt3</t>
+  </si>
+  <si>
+    <t>screenshot_tttt4</t>
+  </si>
+  <si>
+    <t>screenshot_tttt5</t>
+  </si>
+  <si>
+    <t>screenshot_tttt6</t>
+  </si>
+  <si>
+    <t>screenshot_tttt7</t>
+  </si>
+  <si>
+    <t>screenshot_tttt8</t>
+  </si>
+  <si>
+    <t>screenshot_tttt9</t>
+  </si>
+  <si>
+    <t>screenshot_tttt10</t>
+  </si>
+  <si>
+    <t>can_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_test2</t>
+  </si>
+  <si>
+    <t>can_test3</t>
+  </si>
+  <si>
+    <t>can_test4</t>
+  </si>
+  <si>
+    <t>can_test5</t>
+  </si>
+  <si>
+    <t>can_test6</t>
+  </si>
+  <si>
+    <t>can_test7</t>
+  </si>
+  <si>
+    <t>can_test8</t>
+  </si>
+  <si>
+    <t>can_test9</t>
+  </si>
+  <si>
+    <t>can_test10</t>
+  </si>
+  <si>
+    <t>element_kkk2</t>
+  </si>
+  <si>
+    <t>element_kkk3</t>
+  </si>
+  <si>
+    <t>element_kkk4</t>
+  </si>
+  <si>
+    <t>element_kkk5</t>
+  </si>
+  <si>
+    <t>element_kkk6</t>
+  </si>
+  <si>
+    <t>element_kkk7</t>
+  </si>
+  <si>
+    <t>element_kkk9</t>
+  </si>
+  <si>
+    <t>element_kkk10</t>
+  </si>
+  <si>
+    <t>can_compare_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_compare_test2</t>
+  </si>
+  <si>
+    <t>can_compare_test3</t>
+  </si>
+  <si>
+    <t>can_compare_test4</t>
+  </si>
+  <si>
+    <t>can_compare_test5</t>
+  </si>
+  <si>
+    <t>can_compare_test6</t>
+  </si>
+  <si>
+    <t>can_compare_test7</t>
+  </si>
+  <si>
+    <t>can_compare_test8</t>
+  </si>
+  <si>
+    <t>can_compare_test9</t>
+  </si>
+  <si>
+    <t>element_comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_comapre2</t>
+  </si>
+  <si>
+    <t>element_comapre3</t>
+  </si>
+  <si>
+    <t>element_comapre4</t>
+  </si>
+  <si>
+    <t>element_comapre5</t>
+  </si>
+  <si>
+    <t>element_comapre6</t>
+  </si>
+  <si>
+    <t>element_comapre7</t>
+  </si>
+  <si>
+    <t>element_comapre8</t>
+  </si>
+  <si>
+    <t>element_comapre9</t>
+  </si>
+  <si>
+    <t>element_comapre10</t>
+  </si>
+  <si>
+    <t>image_compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_compareaaaa2</t>
+  </si>
+  <si>
+    <t>image_compareaaaa3</t>
+  </si>
+  <si>
+    <t>image_compareaaaa4</t>
+  </si>
+  <si>
+    <t>image_compareaaaa5</t>
+  </si>
+  <si>
+    <t>image_compareaaaa6</t>
+  </si>
+  <si>
+    <t>image_compareaaaa7</t>
+  </si>
+  <si>
+    <t>image_compareaaaa8</t>
+  </si>
+  <si>
+    <t>image_compareaaaa9</t>
+  </si>
+  <si>
+    <t>image_compareaaaa10</t>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test3</t>
+  </si>
+  <si>
+    <t>InformationCompare=info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024-15
+12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcuPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcuBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenShotTempPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\screenshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN的DBC文件绝对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的继电器通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functions
+函数执行前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suites
+套件执行前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreCondition
+前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps
+操作步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module1</t>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name
+名字/函数名/模块名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ACCSet=0x1
+HU_ACCSet=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=a,text=b
+text=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locators
+元素定位符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_on_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp_on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_compare_test10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info3
+CanCompare=can_compare_test10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SlideTimes
 滑动次数</t>
-  </si>
-  <si>
-    <t>RelayOperationType
-继电器操作类型</t>
-  </si>
-  <si>
-    <t>ChannelIndex
-继电器通道</t>
-  </si>
-  <si>
-    <t>DeviceTpeEnum
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_on_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_on_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceType
 屏幕类型</t>
   </si>
   <si>
-    <t>ScreenIndex
+    <t>ScreenShotType
+截图类型</t>
+  </si>
+  <si>
+    <t>QNX屏</t>
+  </si>
+  <si>
+    <t>安卓屏</t>
+  </si>
+  <si>
+    <t>仪表屏</t>
+  </si>
+  <si>
+    <t>displayId
 屏幕序号</t>
-  </si>
-  <si>
-    <t>ContinueTimes
-持续时间</t>
-  </si>
-  <si>
-    <t>Count
-截图张数</t>
-  </si>
-  <si>
-    <t>ImageName
-截图名称</t>
-  </si>
-  <si>
-    <t>IsArea
-是否区域截图</t>
-  </si>
-  <si>
-    <t>Signals
-信号名与值</t>
-  </si>
-  <si>
-    <t>Locators
-元素定位符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testwe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testqs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testwa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testwed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test1
+common=yeild
+common=pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common=pass
+common=yeild
+BatteryAction=battery_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear_stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test3
+COMMON=clear_stack
+ElementAction=esp_on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Params
 函数参数</t>
-  </si>
-  <si>
-    <t>MessageId
-信号ID</t>
-  </si>
-  <si>
-    <t>ExpectValue
-期望值</t>
-  </si>
-  <si>
-    <t>Exact
-是否精确对比</t>
-  </si>
-  <si>
-    <t>ElementCompareType
-元素对比类型</t>
-  </si>
-  <si>
-    <t>Timeout
-超时时间</t>
-  </si>
-  <si>
-    <t>CompareType
-图片对比方式</t>
-  </si>
-  <si>
-    <t>TemplateLight
-模板亮图</t>
-  </si>
-  <si>
-    <t>TemplateDark
-模板暗图</t>
-  </si>
-  <si>
-    <t>IsGray
-是否灰度对比</t>
-  </si>
-  <si>
-    <t>Threshold
-灰度二值化阈值</t>
-  </si>
-  <si>
-    <t>Origin
-原始信息</t>
-  </si>
-  <si>
-    <t>Target
-目标信息</t>
-  </si>
-  <si>
-    <t>TestCaseType
-测试用例类型</t>
-  </si>
-  <si>
-    <t>ModuleName
-模块名</t>
-  </si>
-  <si>
-    <t>ExpectDescription
-期望结果描述</t>
-  </si>
-  <si>
-    <t>BatteryType
-电源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT6831</t>
-  </si>
-  <si>
-    <t>设置电压</t>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KONSTANTER</t>
-  </si>
-  <si>
-    <t>设置电流</t>
-  </si>
-  <si>
-    <t>调节电压</t>
-  </si>
-  <si>
-    <t>电压曲线</t>
-  </si>
-  <si>
-    <t>d:\a.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
-    <t>滑动</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>长按</t>
-  </si>
-  <si>
-    <t>双击</t>
-  </si>
-  <si>
-    <t>上滑</t>
-  </si>
-  <si>
-    <t>下滑</t>
-  </si>
-  <si>
-    <t>左滑</t>
-  </si>
-  <si>
-    <t>右滑</t>
-  </si>
-  <si>
-    <t>开启</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>全开</t>
-  </si>
-  <si>
-    <t>全关</t>
-  </si>
-  <si>
-    <t>tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tttt2</t>
-  </si>
-  <si>
-    <t>tttt3</t>
-  </si>
-  <si>
-    <t>tttt4</t>
-  </si>
-  <si>
-    <t>tttt5</t>
-  </si>
-  <si>
-    <t>tttt6</t>
-  </si>
-  <si>
-    <t>tttt7</t>
-  </si>
-  <si>
-    <t>tttt8</t>
-  </si>
-  <si>
-    <t>tttt9</t>
-  </si>
-  <si>
-    <t>tttt10</t>
-  </si>
-  <si>
-    <t>QNX</t>
-  </si>
-  <si>
-    <t>ANDROID</t>
-  </si>
-  <si>
-    <t>上滑到顶</t>
-  </si>
-  <si>
-    <t>下滑到底</t>
-  </si>
-  <si>
-    <t>左滑到头</t>
-  </si>
-  <si>
-    <t>右滑到头</t>
-  </si>
-  <si>
-    <t>tttt11</t>
-  </si>
-  <si>
-    <t>tttt12</t>
-  </si>
-  <si>
-    <t>12-15
-12-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oooo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oooo2</t>
-  </si>
-  <si>
-    <t>oooo3</t>
-  </si>
-  <si>
-    <t>oooo4</t>
-  </si>
-  <si>
-    <t>oooo5</t>
-  </si>
-  <si>
-    <t>oooo6</t>
-  </si>
-  <si>
-    <t>oooo7</t>
-  </si>
-  <si>
-    <t>oooo8</t>
-  </si>
-  <si>
-    <t>oooo9</t>
-  </si>
-  <si>
-    <t>oooo10</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>kkk3</t>
-  </si>
-  <si>
-    <t>kkk4</t>
-  </si>
-  <si>
-    <t>kkk5</t>
-  </si>
-  <si>
-    <t>kkk6</t>
-  </si>
-  <si>
-    <t>kkk7</t>
-  </si>
-  <si>
-    <t>kkk8</t>
-  </si>
-  <si>
-    <t>kkk9</t>
-  </si>
-  <si>
-    <t>kkk10</t>
-  </si>
-  <si>
-    <t>kkk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk11</t>
-  </si>
-  <si>
-    <t>text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common2</t>
-  </si>
-  <si>
-    <t>common3</t>
-  </si>
-  <si>
-    <t>common4</t>
-  </si>
-  <si>
-    <t>common5</t>
-  </si>
-  <si>
-    <t>common6</t>
-  </si>
-  <si>
-    <t>common7</t>
-  </si>
-  <si>
-    <t>common8</t>
-  </si>
-  <si>
-    <t>common9</t>
-  </si>
-  <si>
-    <t>common10</t>
-  </si>
-  <si>
-    <t>a,b,c,d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppearCount
-出现次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre2</t>
-  </si>
-  <si>
-    <t>comapre3</t>
-  </si>
-  <si>
-    <t>comapre4</t>
-  </si>
-  <si>
-    <t>comapre5</t>
-  </si>
-  <si>
-    <t>comapre6</t>
-  </si>
-  <si>
-    <t>comapre7</t>
-  </si>
-  <si>
-    <t>comapre8</t>
-  </si>
-  <si>
-    <t>comapre9</t>
-  </si>
-  <si>
-    <t>comapre10</t>
-  </si>
-  <si>
-    <t>存在</t>
-  </si>
-  <si>
-    <t>不存在</t>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮图</t>
-  </si>
-  <si>
-    <t>暗图</t>
-  </si>
-  <si>
-    <t>闪烁图</t>
-  </si>
-  <si>
-    <t>compareaaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compareaaaa2</t>
-  </si>
-  <si>
-    <t>compareaaaa3</t>
-  </si>
-  <si>
-    <t>compareaaaa4</t>
-  </si>
-  <si>
-    <t>compareaaaa5</t>
-  </si>
-  <si>
-    <t>compareaaaa6</t>
-  </si>
-  <si>
-    <t>compareaaaa7</t>
-  </si>
-  <si>
-    <t>compareaaaa8</t>
-  </si>
-  <si>
-    <t>compareaaaa9</t>
-  </si>
-  <si>
-    <t>compareaaaa10</t>
-  </si>
-  <si>
-    <t>info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info2</t>
-  </si>
-  <si>
-    <t>info3</t>
-  </si>
-  <si>
-    <t>info4</t>
-  </si>
-  <si>
-    <t>info5</t>
-  </si>
-  <si>
-    <t>info6</t>
-  </si>
-  <si>
-    <t>info7</t>
-  </si>
-  <si>
-    <t>info8</t>
-  </si>
-  <si>
-    <t>info9</t>
-  </si>
-  <si>
-    <t>info10</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation2</t>
-  </si>
-  <si>
-    <t>infomation3</t>
-  </si>
-  <si>
-    <t>infomation4</t>
-  </si>
-  <si>
-    <t>infomation5</t>
-  </si>
-  <si>
-    <t>infomation6</t>
-  </si>
-  <si>
-    <t>infomation7</t>
-  </si>
-  <si>
-    <t>infomation8</t>
-  </si>
-  <si>
-    <t>infomation9</t>
-  </si>
-  <si>
-    <t>infomation10</t>
-  </si>
-  <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementAttributes
-元素属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase2</t>
-  </si>
-  <si>
-    <t>testcase3</t>
-  </si>
-  <si>
-    <t>仪表</t>
-  </si>
-  <si>
-    <t>中控</t>
-  </si>
-  <si>
-    <t>空调屏</t>
-  </si>
-  <si>
-    <t>module2</t>
-  </si>
-  <si>
-    <t>module3</t>
-  </si>
-  <si>
-    <t>condition1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition2</t>
-  </si>
-  <si>
-    <t>condition3</t>
-  </si>
-  <si>
-    <t>steps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>steps2</t>
-  </si>
-  <si>
-    <t>steps3</t>
-  </si>
-  <si>
-    <t>expect1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect2</t>
-  </si>
-  <si>
-    <t>expect3</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENABLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCROLLABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAYED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3-45-67
-34-24-54-78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values
-电源操作值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKED
-CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONG_CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Points
-坐标点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positions
-比较区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignalName
-信号名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Similarity
-相似度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId=a,text=b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id
-序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_ACCSet=0x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_FRMMsgErr=0x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_LKASet=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_EQ5Set=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_IntConctVolStepSet=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_CallVolStepSet=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_ChrgMod=0x0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_LocTiY=9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_SeatTltgAdjMotTarPosn=19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLMDst=12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACU_RePassBkl_Sts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_RRMDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLMDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_RRSnsrDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLSnsrDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDU_OBCACVlt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSM_SeatTltgtAdjStsFb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPC_TakeoverReq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAS_SysFltFlg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAS_SteerAgVld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content
-内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment
-描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment
-描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbcFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的显示屏的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxWidth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id
-序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name
-名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreConditionDescription
-前置条件描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_light.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_dark.bmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxRelayChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-12-0.5-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepsDescription
-操作步骤描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battery_test2</t>
-  </si>
-  <si>
-    <t>battery_test3</t>
-  </si>
-  <si>
-    <t>battery_test4</t>
-  </si>
-  <si>
-    <t>battery_test5</t>
-  </si>
-  <si>
-    <t>battery_test6</t>
-  </si>
-  <si>
-    <t>battery_test7</t>
-  </si>
-  <si>
-    <t>battery_test8</t>
-  </si>
-  <si>
-    <t>battery_test9</t>
-  </si>
-  <si>
-    <t>battery_test10</t>
-  </si>
-  <si>
-    <t>element_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_test2</t>
-  </si>
-  <si>
-    <t>element_test3</t>
-  </si>
-  <si>
-    <t>element_test4</t>
-  </si>
-  <si>
-    <t>element_test5</t>
-  </si>
-  <si>
-    <t>element_test6</t>
-  </si>
-  <si>
-    <t>element_test7</t>
-  </si>
-  <si>
-    <t>element_test8</t>
-  </si>
-  <si>
-    <t>relay_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relay_test2</t>
-  </si>
-  <si>
-    <t>relay_test3</t>
-  </si>
-  <si>
-    <t>relay_test4</t>
-  </si>
-  <si>
-    <t>relay_test5</t>
-  </si>
-  <si>
-    <t>relay_test6</t>
-  </si>
-  <si>
-    <t>relay_test7</t>
-  </si>
-  <si>
-    <t>relay_test8</t>
-  </si>
-  <si>
-    <t>relay_test9</t>
-  </si>
-  <si>
-    <t>relay_test10</t>
-  </si>
-  <si>
-    <t>screen_operation_teset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_operation_teset2</t>
-  </si>
-  <si>
-    <t>screen_operation_teset3</t>
-  </si>
-  <si>
-    <t>screen_operation_teset4</t>
-  </si>
-  <si>
-    <t>screen_operation_teset5</t>
-  </si>
-  <si>
-    <t>screen_operation_teset6</t>
-  </si>
-  <si>
-    <t>screen_operation_teset7</t>
-  </si>
-  <si>
-    <t>screen_operation_teset8</t>
-  </si>
-  <si>
-    <t>screen_operation_teset9</t>
-  </si>
-  <si>
-    <t>screen_operation_teset10</t>
-  </si>
-  <si>
-    <t>screen_operation_teset11</t>
-  </si>
-  <si>
-    <t>screen_operation_teset12</t>
-  </si>
-  <si>
-    <t>screenshot_tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenshot_tttt2</t>
-  </si>
-  <si>
-    <t>screenshot_tttt3</t>
-  </si>
-  <si>
-    <t>screenshot_tttt4</t>
-  </si>
-  <si>
-    <t>screenshot_tttt5</t>
-  </si>
-  <si>
-    <t>screenshot_tttt6</t>
-  </si>
-  <si>
-    <t>screenshot_tttt7</t>
-  </si>
-  <si>
-    <t>screenshot_tttt8</t>
-  </si>
-  <si>
-    <t>screenshot_tttt9</t>
-  </si>
-  <si>
-    <t>screenshot_tttt10</t>
-  </si>
-  <si>
-    <t>can_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_test2</t>
-  </si>
-  <si>
-    <t>can_test3</t>
-  </si>
-  <si>
-    <t>can_test4</t>
-  </si>
-  <si>
-    <t>can_test5</t>
-  </si>
-  <si>
-    <t>can_test6</t>
-  </si>
-  <si>
-    <t>can_test7</t>
-  </si>
-  <si>
-    <t>can_test8</t>
-  </si>
-  <si>
-    <t>can_test9</t>
-  </si>
-  <si>
-    <t>can_test10</t>
-  </si>
-  <si>
-    <t>element_kkk2</t>
-  </si>
-  <si>
-    <t>element_kkk3</t>
-  </si>
-  <si>
-    <t>element_kkk4</t>
-  </si>
-  <si>
-    <t>element_kkk5</t>
-  </si>
-  <si>
-    <t>element_kkk6</t>
-  </si>
-  <si>
-    <t>element_kkk7</t>
-  </si>
-  <si>
-    <t>element_kkk8</t>
-  </si>
-  <si>
-    <t>element_kkk9</t>
-  </si>
-  <si>
-    <t>element_kkk10</t>
-  </si>
-  <si>
-    <t>common1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_compare_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_compare_test2</t>
-  </si>
-  <si>
-    <t>can_compare_test3</t>
-  </si>
-  <si>
-    <t>can_compare_test4</t>
-  </si>
-  <si>
-    <t>can_compare_test5</t>
-  </si>
-  <si>
-    <t>can_compare_test6</t>
-  </si>
-  <si>
-    <t>can_compare_test7</t>
-  </si>
-  <si>
-    <t>can_compare_test8</t>
-  </si>
-  <si>
-    <t>can_compare_test9</t>
-  </si>
-  <si>
-    <t>can_compare_test10</t>
-  </si>
-  <si>
-    <t>element_comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_comapre2</t>
-  </si>
-  <si>
-    <t>element_comapre3</t>
-  </si>
-  <si>
-    <t>element_comapre4</t>
-  </si>
-  <si>
-    <t>element_comapre5</t>
-  </si>
-  <si>
-    <t>element_comapre6</t>
-  </si>
-  <si>
-    <t>element_comapre7</t>
-  </si>
-  <si>
-    <t>element_comapre8</t>
-  </si>
-  <si>
-    <t>element_comapre9</t>
-  </si>
-  <si>
-    <t>element_comapre10</t>
-  </si>
-  <si>
-    <t>image_compareaaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_compareaaaa2</t>
-  </si>
-  <si>
-    <t>image_compareaaaa3</t>
-  </si>
-  <si>
-    <t>image_compareaaaa4</t>
-  </si>
-  <si>
-    <t>image_compareaaaa5</t>
-  </si>
-  <si>
-    <t>image_compareaaaa6</t>
-  </si>
-  <si>
-    <t>image_compareaaaa7</t>
-  </si>
-  <si>
-    <t>image_compareaaaa8</t>
-  </si>
-  <si>
-    <t>image_compareaaaa9</t>
-  </si>
-  <si>
-    <t>image_compareaaaa10</t>
-  </si>
-  <si>
-    <t>element_kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battery_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryAction=battery_test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryAction=battery_test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAction=can_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAction=can_test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAction=can_test3</t>
-  </si>
-  <si>
-    <t>InformationCompare=info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InformationCompare=info2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InformationCompare=info3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024-15
-12-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcuPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcuBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenShotTempPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\screenshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templateImagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAN的DBC文件绝对路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的继电器通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functions
-函数执行前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suites
-套件执行前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreCondition
-前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steps
-操作步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect
-期望结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module1</t>
-  </si>
-  <si>
-    <t>module1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryAction=battery_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryAction=battery_test1
-yeild
-pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass
-yeild
-BatteryAction=battery_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,12 +1540,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1526,7 +1594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1550,6 +1618,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1834,7 +1911,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1860,13 +1937,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1880,16 +1957,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -1906,16 +1983,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1">
         <v>13</v>
@@ -1932,19 +2009,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -1958,23 +2035,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1982,19 +2059,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2008,19 +2085,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2034,19 +2111,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2060,19 +2137,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2086,19 +2163,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2112,19 +2189,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2153,7 +2230,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2176,13 +2253,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2190,16 +2267,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2210,16 +2287,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2230,16 +2307,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2250,16 +2327,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2270,16 +2347,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2290,16 +2367,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2310,16 +2387,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2330,16 +2407,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2350,16 +2427,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2370,16 +2447,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2401,7 +2478,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2430,28 +2507,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2459,31 +2536,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2494,31 +2571,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2529,31 +2606,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2564,31 +2641,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2599,31 +2676,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2634,31 +2711,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2669,31 +2746,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2704,31 +2781,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2739,31 +2816,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2774,31 +2851,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2843,10 +2920,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2854,16 +2931,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2871,16 +2948,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2888,16 +2965,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2905,16 +2982,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2922,16 +2999,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2939,16 +3016,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2956,16 +3033,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2973,16 +3050,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2990,16 +3067,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3007,16 +3084,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3056,7 +3133,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3064,16 +3141,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3081,16 +3158,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3098,16 +3175,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3115,16 +3192,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3132,16 +3209,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3149,16 +3226,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3166,16 +3243,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3183,16 +3260,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3200,16 +3277,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3217,16 +3294,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3239,8 +3316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3263,31 +3340,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3295,34 +3372,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3330,69 +3407,69 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>366</v>
+        <v>178</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3410,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3428,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3445,16 +3522,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3462,16 +3539,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3479,16 +3556,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3503,7 +3580,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3515,16 +3592,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3532,10 +3609,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3547,10 +3624,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3562,10 +3639,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3577,13 +3654,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3592,10 +3669,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3607,13 +3684,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3622,10 +3699,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3637,10 +3714,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3652,10 +3729,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3667,13 +3744,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3682,13 +3759,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3697,13 +3774,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3712,10 +3789,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3780,7 +3857,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3809,7 +3886,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3817,16 +3894,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3837,36 +3914,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3877,16 +3952,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3897,16 +3972,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -3917,16 +3992,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -3937,16 +4012,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -3957,20 +4032,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3988,7 +4061,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4011,10 +4084,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4022,13 +4095,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4039,13 +4112,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4056,13 +4129,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -4073,13 +4146,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -4090,13 +4163,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -4107,13 +4180,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -4124,13 +4197,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -4141,13 +4214,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -4158,13 +4231,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4175,13 +4248,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -4203,7 +4276,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4229,19 +4302,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>391</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -4249,22 +4322,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4275,22 +4348,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -4301,22 +4374,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4327,22 +4400,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1">
         <v>0.5</v>
@@ -4353,22 +4426,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1">
         <v>0.5</v>
@@ -4379,22 +4452,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1">
         <v>0.5</v>
@@ -4405,22 +4478,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1">
         <v>0.5</v>
@@ -4431,22 +4504,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1">
         <v>0.5</v>
@@ -4457,22 +4530,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1">
         <v>0.5</v>
@@ -4483,22 +4556,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1">
         <v>0.5</v>
@@ -4509,22 +4582,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1">
         <v>0.5</v>
@@ -4535,22 +4608,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -4576,7 +4649,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4585,8 +4658,8 @@
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -4600,16 +4673,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>392</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>396</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4617,22 +4690,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>253</v>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4640,22 +4713,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>253</v>
+      <c r="F3" s="1">
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4663,22 +4736,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4686,22 +4759,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4709,22 +4782,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>97</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4732,22 +4805,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4755,22 +4828,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4778,22 +4851,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4801,22 +4874,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4824,29 +4897,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="D2:D11">
-      <formula1>"QNX,ANDROID"</formula1>
+      <formula1>"QNX屏,安卓屏,仪表屏"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4858,7 +4931,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4871,7 +4944,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4880,21 +4953,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4902,13 +4975,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4916,13 +4989,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4930,13 +5003,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4944,13 +5017,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4958,13 +5031,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4972,13 +5045,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4986,13 +5059,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -5000,13 +5073,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5014,13 +5087,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5032,10 +5105,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5044,9 +5117,10 @@
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5057,147 +5131,148 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>387</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>381</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5209,10 +5284,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5234,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5242,140 +5317,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>407</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>408</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>115</v>
+      <c r="B5" s="9" t="s">
+        <v>411</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5388,7 +5373,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5412,19 +5397,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5432,16 +5417,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5450,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5458,16 +5443,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1">
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5476,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5484,16 +5469,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5502,7 +5487,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5510,16 +5495,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1">
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5528,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5536,16 +5521,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5554,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5562,16 +5547,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5580,7 +5565,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5588,16 +5573,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1">
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5606,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5614,16 +5599,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5632,7 +5617,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5640,16 +5625,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1">
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5658,7 +5643,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5666,16 +5651,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1">
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5684,7 +5669,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="416">
   <si>
     <t>Id
 序号</t>
@@ -1278,10 +1278,6 @@
   </si>
   <si>
     <t>screenShotTempPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\screenshot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1517,6 +1513,18 @@
   <si>
     <t>Params
 函数参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbcJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\screenshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN的dbc文件转换成json文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1960,7 +1968,7 @@
         <v>337</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -2416,7 +2424,7 @@
         <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -3316,7 +3324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3352,19 +3360,19 @@
         <v>233</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3381,13 +3389,13 @@
         <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>173</v>
@@ -3457,7 +3465,7 @@
         <v>172</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>175</v>
@@ -3469,7 +3477,7 @@
         <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3505,16 +3513,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3522,16 +3530,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3539,16 +3547,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3559,13 +3567,13 @@
         <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3579,14 +3587,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3750,7 +3758,7 @@
         <v>356</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3759,13 +3767,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3777,10 +3785,10 @@
         <v>224</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3792,7 +3800,7 @@
         <v>237</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3800,9 +3808,15 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
@@ -3886,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4032,7 +4046,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -4041,7 +4055,7 @@
         <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -4302,7 +4316,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -4673,10 +4687,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -4696,7 +4710,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4719,7 +4733,7 @@
         <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4728,7 +4742,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4742,7 +4756,7 @@
         <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4751,7 +4765,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4765,7 +4779,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4774,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4788,7 +4802,7 @@
         <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4797,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4811,7 +4825,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4820,7 +4834,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4834,7 +4848,7 @@
         <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4843,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4857,7 +4871,7 @@
         <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4866,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4880,7 +4894,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4889,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4903,7 +4917,7 @@
         <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4912,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4967,7 +4981,7 @@
         <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5131,7 +5145,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5174,7 +5188,7 @@
         <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5224,10 +5238,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>196</v>
@@ -5238,10 +5252,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>102</v>
@@ -5309,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5317,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>103</v>
@@ -5329,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>104</v>
@@ -5341,7 +5355,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>105</v>
@@ -5355,7 +5369,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>106</v>
@@ -5651,7 +5665,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>49</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="417">
   <si>
     <t>Id
 序号</t>
@@ -577,11 +577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ElementAttributes
-元素属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testcase1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -680,11 +675,6 @@
   <si>
     <t>Values
 电源操作值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKED
-CLICKABLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1525,6 +1515,19 @@
   </si>
   <si>
     <t>CAN的dbc文件转换成json文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAttribute
+元素属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1951,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1965,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -1991,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
@@ -2017,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>34</v>
@@ -2029,7 +2032,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2043,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
@@ -2067,7 +2070,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>34</v>
@@ -2079,7 +2082,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2093,7 +2096,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -2105,7 +2108,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2119,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>34</v>
@@ -2131,7 +2134,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2145,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
@@ -2157,7 +2160,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2171,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -2183,7 +2186,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2197,7 +2200,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>34</v>
@@ -2209,7 +2212,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2275,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>111</v>
@@ -2284,7 +2287,7 @@
         <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2295,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>112</v>
@@ -2304,7 +2307,7 @@
         <v>122</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2315,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>113</v>
@@ -2324,7 +2327,7 @@
         <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2335,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>114</v>
@@ -2344,7 +2347,7 @@
         <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2355,7 +2358,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>115</v>
@@ -2364,7 +2367,7 @@
         <v>121</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2375,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>116</v>
@@ -2384,7 +2387,7 @@
         <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2395,7 +2398,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>117</v>
@@ -2404,7 +2407,7 @@
         <v>121</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2415,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>118</v>
@@ -2424,7 +2427,7 @@
         <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2435,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>119</v>
@@ -2444,7 +2447,7 @@
         <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2455,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>120</v>
@@ -2464,7 +2467,7 @@
         <v>122</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2527,10 +2530,10 @@
         <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
@@ -2544,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>130</v>
@@ -2553,13 +2556,13 @@
         <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>123</v>
@@ -2579,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>131</v>
@@ -2591,13 +2594,13 @@
         <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
@@ -2614,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>132</v>
@@ -2626,13 +2629,13 @@
         <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
@@ -2649,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>133</v>
@@ -2661,13 +2664,13 @@
         <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
@@ -2684,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>134</v>
@@ -2696,13 +2699,13 @@
         <v>126</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
@@ -2719,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>135</v>
@@ -2731,13 +2734,13 @@
         <v>126</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
@@ -2754,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>136</v>
@@ -2766,13 +2769,13 @@
         <v>126</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
@@ -2789,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>137</v>
@@ -2801,13 +2804,13 @@
         <v>126</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
@@ -2824,7 +2827,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>138</v>
@@ -2836,13 +2839,13 @@
         <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
@@ -2859,7 +2862,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>139</v>
@@ -2871,13 +2874,13 @@
         <v>126</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
@@ -2906,7 +2909,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2945,10 +2948,10 @@
         <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2965,7 +2968,7 @@
         <v>151</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2982,7 +2985,7 @@
         <v>151</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2999,7 +3002,7 @@
         <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3016,7 +3019,7 @@
         <v>151</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3033,7 +3036,7 @@
         <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3050,7 +3053,7 @@
         <v>151</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3067,7 +3070,7 @@
         <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3084,7 +3087,7 @@
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3101,7 +3104,7 @@
         <v>151</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3114,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3141,7 +3144,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3158,10 +3161,10 @@
         <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>160</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>190</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3192,7 +3195,7 @@
         <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3209,7 +3212,7 @@
         <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3226,7 +3229,7 @@
         <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3243,7 +3246,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3260,7 +3263,7 @@
         <v>160</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3277,7 +3280,7 @@
         <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3294,7 +3297,7 @@
         <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3311,12 +3314,13 @@
         <v>160</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3348,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>28</v>
@@ -3357,22 +3361,22 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3380,34 +3384,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3415,34 +3419,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
@@ -3450,34 +3454,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3500,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3513,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3530,16 +3534,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3547,16 +3551,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3564,16 +3568,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3587,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3600,16 +3604,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3617,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3632,10 +3636,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3647,10 +3651,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3662,13 +3666,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3677,10 +3681,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3692,13 +3696,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3707,10 +3711,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3722,10 +3726,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3737,10 +3741,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3752,13 +3756,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3767,13 +3771,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3782,13 +3786,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3797,10 +3801,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3812,10 +3816,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -3900,7 +3904,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3908,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>40</v>
@@ -3917,7 +3921,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3928,7 +3932,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>41</v>
@@ -3937,7 +3941,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -3946,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -3955,7 +3959,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3966,7 +3970,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>43</v>
@@ -3975,7 +3979,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3986,7 +3990,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
@@ -3995,7 +3999,7 @@
         <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4006,7 +4010,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>45</v>
@@ -4015,7 +4019,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4026,7 +4030,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -4035,7 +4039,7 @@
         <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -4046,7 +4050,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -4055,7 +4059,7 @@
         <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -4109,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>40</v>
@@ -4126,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>41</v>
@@ -4143,7 +4147,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -4160,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>43</v>
@@ -4177,7 +4181,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
@@ -4194,7 +4198,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>45</v>
@@ -4211,7 +4215,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -4228,7 +4232,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -4245,7 +4249,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>48</v>
@@ -4262,7 +4266,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>49</v>
@@ -4316,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -4325,7 +4329,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
@@ -4336,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>62</v>
@@ -4351,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4362,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>63</v>
@@ -4388,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>64</v>
@@ -4414,7 +4418,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>65</v>
@@ -4440,7 +4444,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>66</v>
@@ -4466,7 +4470,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>67</v>
@@ -4492,7 +4496,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>68</v>
@@ -4518,7 +4522,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>69</v>
@@ -4544,7 +4548,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>70</v>
@@ -4570,7 +4574,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>71</v>
@@ -4596,7 +4600,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>78</v>
@@ -4622,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>79</v>
@@ -4687,10 +4691,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -4704,13 +4708,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4719,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4727,13 +4731,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4742,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4750,13 +4754,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4765,7 +4769,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4773,13 +4777,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4788,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4796,13 +4800,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4811,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4819,13 +4823,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4834,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4842,13 +4846,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4857,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4865,13 +4869,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4880,7 +4884,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4888,13 +4892,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4903,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4911,13 +4915,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4926,7 +4930,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4958,7 +4962,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4975,13 +4979,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4989,13 +4993,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5003,13 +5007,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5017,13 +5021,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -5031,13 +5035,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -5045,13 +5049,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5059,13 +5063,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5073,13 +5077,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -5087,13 +5091,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5101,13 +5105,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5145,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5153,13 +5157,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5168,7 +5172,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>94</v>
@@ -5182,13 +5186,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5196,13 +5200,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5210,13 +5214,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5224,13 +5228,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5238,13 +5242,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5252,10 +5256,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>102</v>
@@ -5266,7 +5270,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>99</v>
@@ -5280,7 +5284,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>101</v>
@@ -5323,7 +5327,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5331,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>103</v>
@@ -5343,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>104</v>
@@ -5355,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>105</v>
@@ -5369,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>106</v>
@@ -5414,7 +5418,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -5431,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>107</v>
@@ -5440,7 +5444,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5457,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>41</v>
@@ -5466,7 +5470,7 @@
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5483,7 +5487,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -5492,7 +5496,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5509,7 +5513,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>43</v>
@@ -5518,7 +5522,7 @@
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5535,7 +5539,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
@@ -5544,7 +5548,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5561,7 +5565,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>45</v>
@@ -5570,7 +5574,7 @@
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5587,7 +5591,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -5596,7 +5600,7 @@
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5613,7 +5617,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -5622,7 +5626,7 @@
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5639,7 +5643,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>48</v>
@@ -5648,7 +5652,7 @@
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5665,7 +5669,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>49</v>
@@ -5674,7 +5678,7 @@
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="419">
   <si>
     <t>Id
 序号</t>
@@ -95,10 +95,6 @@
 截图名称</t>
   </si>
   <si>
-    <t>Signals
-信号名与值</t>
-  </si>
-  <si>
     <t>MessageId
 信号ID</t>
   </si>
@@ -359,9 +355,6 @@
     <t>test11</t>
   </si>
   <si>
-    <t>kkk3</t>
-  </si>
-  <si>
     <t>kkk4</t>
   </si>
   <si>
@@ -573,10 +566,6 @@
     <t>infomation10</t>
   </si>
   <si>
-    <t>kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testcase1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,39 +700,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HU_FRMMsgErr=0x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_LKASet=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_EQ5Set=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HU_AMP_IntConctVolStepSet=5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HU_AMP_CallVolStepSet=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_ChrgMod=0x0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HU_LocTiY=9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HU_SeatTltgAdjMotTarPosn=19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLMDst=12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1349,11 +1314,6 @@
   <si>
     <t>Name
 名字/函数名/模块名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_ACCSet=0x1
-HU_ACCSet=0x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1528,6 +1488,57 @@
   <si>
     <t>ElementAttribute
 元素属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signals
+信号名与值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageId
+信号ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LKASet=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_EQ5Set=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_CallVolStepSet=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ChrgMod=0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_FRMMsgErr=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ACCSet=0x1
+HU_FRMMsgErr=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1948,13 +1959,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1968,16 +1979,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -1994,16 +2005,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="1">
         <v>13</v>
@@ -2020,19 +2031,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2046,23 +2057,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2070,19 +2081,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2096,19 +2107,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2122,19 +2133,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2148,19 +2159,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2174,19 +2185,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2200,19 +2211,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2264,13 +2275,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2278,16 +2289,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2298,16 +2309,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2318,16 +2329,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2338,16 +2349,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2358,16 +2369,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2378,16 +2389,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2398,16 +2409,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2418,16 +2429,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2438,16 +2449,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2458,16 +2469,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2518,28 +2529,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2547,31 +2558,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2582,31 +2593,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2617,31 +2628,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2652,31 +2663,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2687,31 +2698,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2722,31 +2733,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2757,31 +2768,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2792,31 +2803,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2827,31 +2838,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2862,31 +2873,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2909,7 +2920,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2931,10 +2942,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2942,16 +2953,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2959,16 +2970,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2976,16 +2987,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2993,16 +3004,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3010,16 +3021,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3027,16 +3038,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3044,16 +3055,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3061,16 +3072,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3078,16 +3089,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3095,16 +3106,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3117,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3144,7 +3155,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3152,16 +3163,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3169,16 +3180,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3186,16 +3197,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3203,16 +3214,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3220,16 +3231,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3237,16 +3248,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3254,16 +3265,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3271,16 +3282,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3288,16 +3299,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3305,16 +3316,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3352,31 +3363,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3384,34 +3395,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3419,34 +3430,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
@@ -3454,34 +3465,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3517,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3534,16 +3545,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3551,16 +3562,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3568,16 +3579,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3604,16 +3615,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3621,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3636,10 +3647,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3651,10 +3662,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3666,13 +3677,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3681,10 +3692,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3696,13 +3707,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3711,10 +3722,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3726,10 +3737,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3741,10 +3752,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3756,13 +3767,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3771,13 +3782,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3786,13 +3797,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3801,10 +3812,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3816,10 +3827,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -3874,8 +3885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3904,7 +3915,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3912,16 +3923,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3932,16 +3943,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -3950,16 +3961,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3970,16 +3981,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -3990,16 +4001,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4010,16 +4021,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4030,16 +4041,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -4050,16 +4061,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -4113,13 +4124,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4130,13 +4141,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4147,13 +4158,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -4164,13 +4175,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -4181,13 +4192,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -4198,13 +4209,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -4215,13 +4226,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -4232,13 +4243,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -4249,13 +4260,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4266,13 +4277,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -4320,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -4329,7 +4340,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
@@ -4340,22 +4351,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4366,22 +4377,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -4392,22 +4403,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4418,22 +4429,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1">
         <v>0.5</v>
@@ -4444,22 +4455,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1">
         <v>0.5</v>
@@ -4470,22 +4481,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1">
         <v>0.5</v>
@@ -4496,22 +4507,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="1">
         <v>0.5</v>
@@ -4522,22 +4533,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="1">
         <v>0.5</v>
@@ -4548,22 +4559,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1">
         <v>0.5</v>
@@ -4574,22 +4585,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="1">
         <v>0.5</v>
@@ -4600,22 +4611,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1">
         <v>0.5</v>
@@ -4626,22 +4637,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -4691,10 +4702,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -4708,13 +4719,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4723,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4731,13 +4742,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4746,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4754,13 +4765,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4769,7 +4780,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4777,13 +4788,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4792,7 +4803,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4800,13 +4811,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4815,7 +4826,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4823,13 +4834,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4838,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4846,13 +4857,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4861,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4869,13 +4880,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4884,7 +4895,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4892,13 +4903,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4907,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4915,13 +4926,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4930,7 +4941,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4946,23 +4957,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4971,147 +4982,180 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1">
+        <v>642</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="D3" s="1">
+        <v>642</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1">
+        <v>642</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1">
+        <v>646</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1">
+        <v>645</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1">
+        <v>645</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1">
+        <v>640</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1">
+        <v>649</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>643</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>204</v>
+        <v>92</v>
+      </c>
+      <c r="D11" s="1">
+        <v>340</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -5126,7 +5170,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5149,7 +5193,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5157,13 +5201,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5172,13 +5216,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>418</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -5186,13 +5230,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5200,13 +5244,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5214,13 +5258,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5228,13 +5272,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5242,13 +5286,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5256,13 +5300,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5270,13 +5314,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5284,13 +5328,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5327,7 +5371,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5335,10 +5379,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -5347,10 +5391,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -5359,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -5373,10 +5417,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -5415,19 +5459,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5435,16 +5479,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5453,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5461,16 +5505,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5479,7 +5523,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5487,16 +5531,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5505,7 +5549,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5513,16 +5557,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1">
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5531,7 +5575,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5539,16 +5583,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5557,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5565,16 +5609,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5583,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5591,16 +5635,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5609,7 +5653,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5617,16 +5661,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5635,7 +5679,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5643,16 +5687,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1">
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5661,7 +5705,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5669,16 +5713,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1">
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5687,7 +5731,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="422">
   <si>
     <t>Id
 序号</t>
@@ -179,13 +179,6 @@
     <t>调节电压</t>
   </si>
   <si>
-    <t>电压曲线</t>
-  </si>
-  <si>
-    <t>d:\a.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -854,9 +847,6 @@
     <t>battery_test2</t>
   </si>
   <si>
-    <t>battery_test3</t>
-  </si>
-  <si>
     <t>battery_test4</t>
   </si>
   <si>
@@ -1142,10 +1132,6 @@
   </si>
   <si>
     <t>image_compareaaaa10</t>
-  </si>
-  <si>
-    <t>element_kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>element_kkk1</t>
@@ -1539,6 +1525,35 @@
   </si>
   <si>
     <t>kkk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT6831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:\a.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1
+element_kkk2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1933,7 +1948,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1965,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1979,13 +1994,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>415</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -1993,9 +2008,7 @@
       <c r="F2" s="1">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2005,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2019,9 +2032,7 @@
       <c r="F3" s="1">
         <v>13</v>
       </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2031,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>416</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2043,7 +2054,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2057,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2066,14 +2077,14 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2081,7 +2092,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2093,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2107,7 +2118,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -2119,7 +2130,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2133,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -2145,7 +2156,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2159,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -2171,7 +2182,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2185,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -2197,7 +2208,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2211,7 +2222,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -2223,7 +2234,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2289,16 +2300,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2309,16 +2320,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2329,16 +2340,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2349,16 +2360,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2369,16 +2380,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2389,16 +2400,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2409,16 +2420,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2429,16 +2440,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2449,16 +2460,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2469,16 +2480,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2500,7 +2511,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2541,10 +2552,10 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>23</v>
@@ -2558,31 +2569,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2593,31 +2604,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2628,31 +2639,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2663,31 +2674,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2698,31 +2709,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2733,31 +2744,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2768,31 +2779,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2803,31 +2814,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2838,31 +2849,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2873,31 +2884,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2953,16 +2964,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2970,16 +2981,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2987,16 +2998,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3004,16 +3015,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3021,16 +3032,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3038,16 +3049,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3055,16 +3066,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3072,16 +3083,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3089,16 +3100,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3106,16 +3117,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3155,7 +3166,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3163,16 +3174,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3180,16 +3191,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3197,16 +3208,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3214,16 +3225,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3231,16 +3242,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3248,16 +3259,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3265,16 +3276,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3282,16 +3293,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3299,16 +3310,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3316,16 +3327,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3363,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>27</v>
@@ -3372,22 +3383,22 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3395,34 +3406,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3430,34 +3441,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
@@ -3465,34 +3476,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3528,16 +3539,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3545,16 +3556,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3562,16 +3573,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3579,16 +3590,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3615,16 +3626,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3632,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3647,10 +3658,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3662,10 +3673,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3677,13 +3688,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3692,10 +3703,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3707,13 +3718,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3722,10 +3733,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3737,10 +3748,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3752,10 +3763,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3767,13 +3778,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3782,13 +3793,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3797,13 +3808,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3812,10 +3823,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3827,10 +3838,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -3886,7 +3897,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3915,24 +3926,24 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>419</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3943,16 +3954,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>287</v>
+        <v>420</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -3961,16 +3972,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3981,16 +3992,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -4001,16 +4012,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4021,16 +4032,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4041,16 +4052,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -4061,16 +4072,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -4124,13 +4135,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4141,13 +4152,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4158,13 +4169,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -4175,13 +4186,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -4192,13 +4203,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -4209,13 +4220,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -4226,13 +4237,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -4243,13 +4254,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -4260,13 +4271,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4277,13 +4288,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -4305,7 +4316,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4331,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -4340,7 +4351,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
@@ -4351,22 +4362,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4377,22 +4388,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -4403,22 +4414,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4429,22 +4440,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1">
         <v>0.5</v>
@@ -4455,22 +4466,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H6" s="1">
         <v>0.5</v>
@@ -4481,22 +4492,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" s="1">
         <v>0.5</v>
@@ -4507,22 +4518,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" s="1">
         <v>0.5</v>
@@ -4533,22 +4544,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" s="1">
         <v>0.5</v>
@@ -4559,22 +4570,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="1">
         <v>0.5</v>
@@ -4585,22 +4596,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H11" s="1">
         <v>0.5</v>
@@ -4611,22 +4622,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1">
         <v>0.5</v>
@@ -4637,22 +4648,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -4702,10 +4713,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -4719,13 +4730,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4734,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4742,13 +4753,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4757,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4765,13 +4776,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4780,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4788,13 +4799,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4803,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4811,13 +4822,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4826,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4834,13 +4845,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4849,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4857,13 +4868,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4872,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4880,13 +4891,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4895,7 +4906,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4903,13 +4914,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4918,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4926,13 +4937,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4941,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -4973,7 +4984,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4982,10 +4993,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4993,16 +5004,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1">
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5010,16 +5021,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5027,16 +5038,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5044,16 +5055,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5061,16 +5072,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>645</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5078,16 +5089,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5095,16 +5106,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5112,16 +5123,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
         <v>649</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5129,16 +5140,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
         <v>643</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5146,16 +5157,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1">
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5193,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5201,13 +5212,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5216,13 +5227,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -5230,13 +5241,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5244,13 +5255,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5258,13 +5269,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5272,13 +5283,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5286,13 +5297,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5300,13 +5311,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5314,13 +5325,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5328,13 +5339,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5371,7 +5382,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5379,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -5391,10 +5402,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -5403,10 +5414,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -5417,10 +5428,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -5435,7 +5446,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5462,13 +5473,13 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>17</v>
@@ -5479,16 +5490,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5497,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5505,16 +5516,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1">
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5523,7 +5534,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5531,16 +5542,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5549,7 +5560,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5557,16 +5568,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5575,7 +5586,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5583,16 +5594,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5601,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5609,16 +5620,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5627,7 +5638,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5635,16 +5646,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5653,7 +5664,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5661,16 +5672,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5679,7 +5690,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5687,16 +5698,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1">
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5705,7 +5716,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5713,16 +5724,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1">
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5731,7 +5742,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="423">
   <si>
     <t>Id
 序号</t>
@@ -52,10 +52,6 @@
 电源操作类型</t>
   </si>
   <si>
-    <t>RepeatTimes
-重复次数</t>
-  </si>
-  <si>
     <t>CurveFile
 电压曲线文件</t>
   </si>
@@ -1235,10 +1231,6 @@
   </si>
   <si>
     <t>CAN的DBC文件绝对路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1554,6 +1546,20 @@
   <si>
     <t>element_kkk1
 element_kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elements
+安卓元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatTimes
+重复次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1948,7 +1954,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1974,19 +1980,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1994,23 +2000,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2018,23 +2024,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="1">
         <v>13</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2042,25 +2048,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2068,23 +2074,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2092,25 +2098,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2118,25 +2124,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2144,25 +2150,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2170,25 +2176,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2196,25 +2202,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2222,25 +2228,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2286,13 +2292,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2300,16 +2306,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2320,16 +2326,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2340,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2360,16 +2366,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2380,16 +2386,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2400,16 +2406,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2420,16 +2426,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2440,16 +2446,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2460,16 +2466,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2480,16 +2486,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2540,28 +2546,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2569,31 +2575,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2604,31 +2610,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2639,31 +2645,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2674,31 +2680,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2709,31 +2715,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2744,31 +2750,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2779,31 +2785,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2814,31 +2820,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2849,31 +2855,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2884,31 +2890,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2953,10 +2959,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2964,16 +2970,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2981,16 +2987,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2998,16 +3004,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3015,16 +3021,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3032,16 +3038,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3049,16 +3055,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3066,16 +3072,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3083,16 +3089,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3100,16 +3106,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3117,16 +3123,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3169,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3174,16 +3180,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3191,16 +3197,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3208,16 +3214,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3225,16 +3231,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3242,16 +3248,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3259,16 +3265,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3276,16 +3282,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3293,16 +3299,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3310,16 +3316,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3327,16 +3333,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3374,31 +3380,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3406,34 +3412,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3441,34 +3447,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
@@ -3476,34 +3482,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3539,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3556,16 +3562,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3573,16 +3579,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3590,16 +3596,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3614,7 +3620,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3626,16 +3632,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3643,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3658,10 +3664,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3673,10 +3679,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3688,13 +3694,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3703,10 +3709,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3718,13 +3724,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3733,10 +3739,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3748,10 +3754,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3763,10 +3769,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3778,13 +3784,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3793,13 +3799,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3808,13 +3814,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>347</v>
+        <v>422</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3823,10 +3829,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3838,10 +3844,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -3894,10 +3900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3920,13 +3926,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -3934,16 +3940,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3954,16 +3960,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -3972,16 +3978,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -3992,16 +3998,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -4012,16 +4018,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4032,16 +4038,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4052,16 +4058,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -4072,23 +4078,61 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D9">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D11">
       <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4124,10 +4168,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4135,13 +4179,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4152,13 +4196,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4169,13 +4213,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -4186,13 +4230,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -4203,13 +4247,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -4220,13 +4264,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -4237,13 +4281,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -4254,13 +4298,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -4271,13 +4315,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4288,13 +4332,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -4342,19 +4386,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -4362,22 +4406,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4388,22 +4432,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -4414,22 +4458,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4440,22 +4484,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1">
         <v>0.5</v>
@@ -4466,22 +4510,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1">
         <v>0.5</v>
@@ -4492,22 +4536,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="1">
         <v>0.5</v>
@@ -4518,22 +4562,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="1">
         <v>0.5</v>
@@ -4544,22 +4588,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1">
         <v>0.5</v>
@@ -4570,22 +4614,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="1">
         <v>0.5</v>
@@ -4596,22 +4640,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1">
         <v>0.5</v>
@@ -4622,22 +4666,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1">
         <v>0.5</v>
@@ -4648,22 +4692,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -4713,16 +4757,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4730,13 +4774,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4745,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4753,13 +4797,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4768,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4776,13 +4820,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4791,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4799,13 +4843,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4814,7 +4858,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4822,13 +4866,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4837,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4845,13 +4889,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4860,7 +4904,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4868,13 +4912,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4883,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4891,13 +4935,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4906,7 +4950,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4914,13 +4958,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4929,7 +4973,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4937,13 +4981,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4952,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4984,7 +5028,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4993,10 +5037,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5004,16 +5048,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5021,16 +5065,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5038,16 +5082,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5055,16 +5099,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5072,16 +5116,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>645</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5089,16 +5133,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5106,16 +5150,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5123,16 +5167,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>649</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5140,16 +5184,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1">
         <v>643</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5157,16 +5201,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1">
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -5204,7 +5248,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5212,13 +5256,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5227,13 +5271,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -5241,13 +5285,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5255,13 +5299,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5269,13 +5313,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5283,13 +5327,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5297,13 +5341,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5311,13 +5355,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5325,13 +5369,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5339,13 +5383,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5382,7 +5426,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5390,10 +5434,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -5402,10 +5446,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -5414,10 +5458,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -5428,10 +5472,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -5470,19 +5514,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5490,16 +5534,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5508,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5516,16 +5560,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5534,7 +5578,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5542,16 +5586,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5560,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5568,16 +5612,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5586,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5594,16 +5638,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5612,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5620,16 +5664,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5638,7 +5682,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5646,16 +5690,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5664,7 +5708,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5672,16 +5716,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1">
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5690,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5698,16 +5742,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5716,7 +5760,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5724,16 +5768,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1">
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5742,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="414">
   <si>
     <t>Id
 序号</t>
@@ -218,18 +218,12 @@
     <t>双击</t>
   </si>
   <si>
-    <t>上滑</t>
-  </si>
-  <si>
     <t>下滑</t>
   </si>
   <si>
     <t>左滑</t>
   </si>
   <si>
-    <t>右滑</t>
-  </si>
-  <si>
     <t>开启</t>
   </si>
   <si>
@@ -242,59 +236,1223 @@
     <t>全关</t>
   </si>
   <si>
+    <t>tttt2</t>
+  </si>
+  <si>
+    <t>tttt3</t>
+  </si>
+  <si>
+    <t>tttt4</t>
+  </si>
+  <si>
+    <t>QNX</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>上滑到顶</t>
+  </si>
+  <si>
+    <t>oooo2</t>
+  </si>
+  <si>
+    <t>oooo3</t>
+  </si>
+  <si>
+    <t>oooo4</t>
+  </si>
+  <si>
+    <t>oooo5</t>
+  </si>
+  <si>
+    <t>oooo6</t>
+  </si>
+  <si>
+    <t>oooo7</t>
+  </si>
+  <si>
+    <t>oooo8</t>
+  </si>
+  <si>
+    <t>oooo9</t>
+  </si>
+  <si>
+    <t>oooo10</t>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>kkk5</t>
+  </si>
+  <si>
+    <t>kkk6</t>
+  </si>
+  <si>
+    <t>kkk7</t>
+  </si>
+  <si>
+    <t>kkk10</t>
+  </si>
+  <si>
+    <t>kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk11</t>
+  </si>
+  <si>
+    <t>text=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppearCount
+出现次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre2</t>
+  </si>
+  <si>
+    <t>comapre3</t>
+  </si>
+  <si>
+    <t>comapre4</t>
+  </si>
+  <si>
+    <t>comapre5</t>
+  </si>
+  <si>
+    <t>comapre6</t>
+  </si>
+  <si>
+    <t>comapre7</t>
+  </si>
+  <si>
+    <t>comapre8</t>
+  </si>
+  <si>
+    <t>comapre9</t>
+  </si>
+  <si>
+    <t>comapre10</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>不存在</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮图</t>
+  </si>
+  <si>
+    <t>暗图</t>
+  </si>
+  <si>
+    <t>闪烁图</t>
+  </si>
+  <si>
+    <t>compareaaaa2</t>
+  </si>
+  <si>
+    <t>compareaaaa3</t>
+  </si>
+  <si>
+    <t>compareaaaa4</t>
+  </si>
+  <si>
+    <t>compareaaaa5</t>
+  </si>
+  <si>
+    <t>compareaaaa6</t>
+  </si>
+  <si>
+    <t>compareaaaa7</t>
+  </si>
+  <si>
+    <t>compareaaaa8</t>
+  </si>
+  <si>
+    <t>compareaaaa9</t>
+  </si>
+  <si>
+    <t>compareaaaa10</t>
+  </si>
+  <si>
+    <t>info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info2</t>
+  </si>
+  <si>
+    <t>info3</t>
+  </si>
+  <si>
+    <t>info4</t>
+  </si>
+  <si>
+    <t>info5</t>
+  </si>
+  <si>
+    <t>info6</t>
+  </si>
+  <si>
+    <t>info7</t>
+  </si>
+  <si>
+    <t>info8</t>
+  </si>
+  <si>
+    <t>info9</t>
+  </si>
+  <si>
+    <t>info10</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
+  </si>
+  <si>
+    <t>infomation3</t>
+  </si>
+  <si>
+    <t>infomation4</t>
+  </si>
+  <si>
+    <t>infomation5</t>
+  </si>
+  <si>
+    <t>infomation6</t>
+  </si>
+  <si>
+    <t>infomation7</t>
+  </si>
+  <si>
+    <t>infomation8</t>
+  </si>
+  <si>
+    <t>infomation9</t>
+  </si>
+  <si>
+    <t>infomation10</t>
+  </si>
+  <si>
+    <t>testcase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase2</t>
+  </si>
+  <si>
+    <t>testcase3</t>
+  </si>
+  <si>
+    <t>仪表</t>
+  </si>
+  <si>
+    <t>中控</t>
+  </si>
+  <si>
+    <t>空调屏</t>
+  </si>
+  <si>
+    <t>module2</t>
+  </si>
+  <si>
+    <t>module3</t>
+  </si>
+  <si>
+    <t>condition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition2</t>
+  </si>
+  <si>
+    <t>condition3</t>
+  </si>
+  <si>
+    <t>steps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps2</t>
+  </si>
+  <si>
+    <t>steps3</t>
+  </si>
+  <si>
+    <t>expect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect2</t>
+  </si>
+  <si>
+    <t>expect3</t>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCROLLABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAYED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values
+电源操作值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG_CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points
+坐标点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positions
+比较区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignalName
+信号名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similarity
+相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=a,text=b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_IntConctVolStepSet=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LocTiY=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_SeatTltgAdjMotTarPosn=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_RRMDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_RRSnsrDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLSnsrDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDU_OBCACVlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSM_SeatTltgtAdjStsFb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPC_TakeoverReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAS_SysFltFlg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAS_SteerAgVld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content
+内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbcFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的显示屏的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name
+名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreConditionDescription
+前置条件描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_light.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_dark.bmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxRelayChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepsDescription
+操作步骤描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_test2</t>
+  </si>
+  <si>
+    <t>battery_test4</t>
+  </si>
+  <si>
+    <t>battery_test5</t>
+  </si>
+  <si>
+    <t>battery_test6</t>
+  </si>
+  <si>
+    <t>battery_test7</t>
+  </si>
+  <si>
+    <t>battery_test8</t>
+  </si>
+  <si>
+    <t>battery_test9</t>
+  </si>
+  <si>
+    <t>battery_test10</t>
+  </si>
+  <si>
+    <t>element_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_test4</t>
+  </si>
+  <si>
+    <t>element_test5</t>
+  </si>
+  <si>
+    <t>element_test6</t>
+  </si>
+  <si>
+    <t>element_test7</t>
+  </si>
+  <si>
+    <t>relay_test2</t>
+  </si>
+  <si>
+    <t>relay_test3</t>
+  </si>
+  <si>
+    <t>relay_test4</t>
+  </si>
+  <si>
+    <t>relay_test5</t>
+  </si>
+  <si>
+    <t>relay_test6</t>
+  </si>
+  <si>
+    <t>relay_test7</t>
+  </si>
+  <si>
+    <t>relay_test8</t>
+  </si>
+  <si>
+    <t>relay_test9</t>
+  </si>
+  <si>
+    <t>relay_test10</t>
+  </si>
+  <si>
+    <t>screen_operation_teset2</t>
+  </si>
+  <si>
+    <t>screenshot_tttt2</t>
+  </si>
+  <si>
+    <t>screenshot_tttt3</t>
+  </si>
+  <si>
+    <t>screenshot_tttt4</t>
+  </si>
+  <si>
+    <t>screenshot_tttt5</t>
+  </si>
+  <si>
+    <t>screenshot_tttt6</t>
+  </si>
+  <si>
+    <t>screenshot_tttt7</t>
+  </si>
+  <si>
+    <t>screenshot_tttt8</t>
+  </si>
+  <si>
+    <t>screenshot_tttt9</t>
+  </si>
+  <si>
+    <t>screenshot_tttt10</t>
+  </si>
+  <si>
+    <t>can_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_test2</t>
+  </si>
+  <si>
+    <t>can_test3</t>
+  </si>
+  <si>
+    <t>can_test4</t>
+  </si>
+  <si>
+    <t>can_test5</t>
+  </si>
+  <si>
+    <t>can_test6</t>
+  </si>
+  <si>
+    <t>can_test7</t>
+  </si>
+  <si>
+    <t>can_test8</t>
+  </si>
+  <si>
+    <t>can_test9</t>
+  </si>
+  <si>
+    <t>can_test10</t>
+  </si>
+  <si>
+    <t>element_kkk2</t>
+  </si>
+  <si>
+    <t>element_kkk3</t>
+  </si>
+  <si>
+    <t>element_kkk4</t>
+  </si>
+  <si>
+    <t>element_kkk5</t>
+  </si>
+  <si>
+    <t>element_kkk6</t>
+  </si>
+  <si>
+    <t>element_kkk7</t>
+  </si>
+  <si>
+    <t>element_kkk9</t>
+  </si>
+  <si>
+    <t>element_kkk10</t>
+  </si>
+  <si>
+    <t>can_compare_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_compare_test2</t>
+  </si>
+  <si>
+    <t>can_compare_test3</t>
+  </si>
+  <si>
+    <t>can_compare_test4</t>
+  </si>
+  <si>
+    <t>can_compare_test5</t>
+  </si>
+  <si>
+    <t>can_compare_test6</t>
+  </si>
+  <si>
+    <t>can_compare_test7</t>
+  </si>
+  <si>
+    <t>can_compare_test8</t>
+  </si>
+  <si>
+    <t>can_compare_test9</t>
+  </si>
+  <si>
+    <t>element_comapre3</t>
+  </si>
+  <si>
+    <t>element_comapre4</t>
+  </si>
+  <si>
+    <t>element_comapre5</t>
+  </si>
+  <si>
+    <t>element_comapre6</t>
+  </si>
+  <si>
+    <t>element_comapre7</t>
+  </si>
+  <si>
+    <t>element_comapre8</t>
+  </si>
+  <si>
+    <t>element_comapre9</t>
+  </si>
+  <si>
+    <t>element_comapre10</t>
+  </si>
+  <si>
+    <t>image_compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_compareaaaa2</t>
+  </si>
+  <si>
+    <t>image_compareaaaa3</t>
+  </si>
+  <si>
+    <t>image_compareaaaa4</t>
+  </si>
+  <si>
+    <t>image_compareaaaa5</t>
+  </si>
+  <si>
+    <t>image_compareaaaa6</t>
+  </si>
+  <si>
+    <t>image_compareaaaa7</t>
+  </si>
+  <si>
+    <t>image_compareaaaa8</t>
+  </si>
+  <si>
+    <t>image_compareaaaa9</t>
+  </si>
+  <si>
+    <t>image_compareaaaa10</t>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanAction=can_test3</t>
+  </si>
+  <si>
+    <t>InformationCompare=info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小支持的电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcuPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcuBaudRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenShotTempPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板图片存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN的DBC文件绝对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的继电器通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functions
+函数执行前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suites
+套件执行前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreCondition
+前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps
+操作步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module1</t>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name
+名字/函数名/模块名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locators
+元素定位符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_on_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp_on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_compare_test10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info3
+CanCompare=can_compare_test10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_on_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_on_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceType
+屏幕类型</t>
+  </si>
+  <si>
+    <t>ScreenShotType
+截图类型</t>
+  </si>
+  <si>
+    <t>QNX屏</t>
+  </si>
+  <si>
+    <t>安卓屏</t>
+  </si>
+  <si>
+    <t>仪表屏</t>
+  </si>
+  <si>
+    <t>displayId
+屏幕序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testwe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testqs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testwa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testwed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params
+函数参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbcJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\screenshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN的dbc文件转换成json文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAttribute
+元素属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signals
+信号名与值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageId
+信号ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_LKASet=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_EQ5Set=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_AMP_CallVolStepSet=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ChrgMod=0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA_FLMDst=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_FRMMsgErr=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_ACCSet=0x1
+HU_FRMMsgErr=0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT6831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:\a.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1
+element_kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elements
+安卓元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatTimes
+重复次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId=a,text=b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk5
+element_kkk4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk6
+element_kkk4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk7
+element_kkk4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk7
+element_kkk4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_test8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esp_on11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlideTimes
+滑动次数/持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relay_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_operation_teset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tttt1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tttt2</t>
-  </si>
-  <si>
-    <t>tttt3</t>
-  </si>
-  <si>
-    <t>tttt4</t>
-  </si>
-  <si>
-    <t>tttt5</t>
-  </si>
-  <si>
-    <t>tttt6</t>
-  </si>
-  <si>
-    <t>tttt7</t>
-  </si>
-  <si>
-    <t>tttt8</t>
-  </si>
-  <si>
-    <t>tttt9</t>
-  </si>
-  <si>
-    <t>tttt10</t>
-  </si>
-  <si>
-    <t>QNX</t>
-  </si>
-  <si>
-    <t>ANDROID</t>
-  </si>
-  <si>
-    <t>上滑到顶</t>
-  </si>
-  <si>
-    <t>下滑到底</t>
-  </si>
-  <si>
-    <t>左滑到头</t>
-  </si>
-  <si>
-    <t>右滑到头</t>
-  </si>
-  <si>
-    <t>tttt11</t>
-  </si>
-  <si>
-    <t>tttt12</t>
+    <t>ScreenOperationType
+操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-12-0.5-5</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>2,3,45,67
+34,24,54,78</t>
+  </si>
+  <si>
+    <t>1024-15
+12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12-15
@@ -302,7 +1460,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12-152</t>
+    <t>12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_operation_teset3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_operation_teset4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenshot_tttt1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,1192 +1480,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oooo2</t>
-  </si>
-  <si>
-    <t>oooo3</t>
-  </si>
-  <si>
-    <t>oooo4</t>
-  </si>
-  <si>
-    <t>oooo5</t>
-  </si>
-  <si>
-    <t>oooo6</t>
-  </si>
-  <si>
-    <t>oooo7</t>
-  </si>
-  <si>
-    <t>oooo8</t>
-  </si>
-  <si>
-    <t>oooo9</t>
-  </si>
-  <si>
-    <t>oooo10</t>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>kkk4</t>
-  </si>
-  <si>
-    <t>kkk5</t>
-  </si>
-  <si>
-    <t>kkk6</t>
-  </si>
-  <si>
-    <t>kkk7</t>
-  </si>
-  <si>
-    <t>kkk10</t>
-  </si>
-  <si>
-    <t>kkk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk11</t>
-  </si>
-  <si>
-    <t>text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common2</t>
-  </si>
-  <si>
-    <t>common3</t>
-  </si>
-  <si>
-    <t>common4</t>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppearCount
-出现次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre2</t>
-  </si>
-  <si>
-    <t>comapre3</t>
-  </si>
-  <si>
-    <t>comapre4</t>
-  </si>
-  <si>
-    <t>comapre5</t>
-  </si>
-  <si>
-    <t>comapre6</t>
-  </si>
-  <si>
-    <t>comapre7</t>
-  </si>
-  <si>
-    <t>comapre8</t>
-  </si>
-  <si>
-    <t>comapre9</t>
-  </si>
-  <si>
-    <t>comapre10</t>
-  </si>
-  <si>
-    <t>存在</t>
-  </si>
-  <si>
-    <t>不存在</t>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮图</t>
-  </si>
-  <si>
-    <t>暗图</t>
-  </si>
-  <si>
-    <t>闪烁图</t>
-  </si>
-  <si>
-    <t>compareaaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compareaaaa2</t>
-  </si>
-  <si>
-    <t>compareaaaa3</t>
-  </si>
-  <si>
-    <t>compareaaaa4</t>
-  </si>
-  <si>
-    <t>compareaaaa5</t>
-  </si>
-  <si>
-    <t>compareaaaa6</t>
-  </si>
-  <si>
-    <t>compareaaaa7</t>
-  </si>
-  <si>
-    <t>compareaaaa8</t>
-  </si>
-  <si>
-    <t>compareaaaa9</t>
-  </si>
-  <si>
-    <t>compareaaaa10</t>
-  </si>
-  <si>
-    <t>info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info2</t>
-  </si>
-  <si>
-    <t>info3</t>
-  </si>
-  <si>
-    <t>info4</t>
-  </si>
-  <si>
-    <t>info5</t>
-  </si>
-  <si>
-    <t>info6</t>
-  </si>
-  <si>
-    <t>info7</t>
-  </si>
-  <si>
-    <t>info8</t>
-  </si>
-  <si>
-    <t>info9</t>
-  </si>
-  <si>
-    <t>info10</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation2</t>
-  </si>
-  <si>
-    <t>infomation3</t>
-  </si>
-  <si>
-    <t>infomation4</t>
-  </si>
-  <si>
-    <t>infomation5</t>
-  </si>
-  <si>
-    <t>infomation6</t>
-  </si>
-  <si>
-    <t>infomation7</t>
-  </si>
-  <si>
-    <t>infomation8</t>
-  </si>
-  <si>
-    <t>infomation9</t>
-  </si>
-  <si>
-    <t>infomation10</t>
-  </si>
-  <si>
-    <t>testcase1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcase2</t>
-  </si>
-  <si>
-    <t>testcase3</t>
-  </si>
-  <si>
-    <t>仪表</t>
-  </si>
-  <si>
-    <t>中控</t>
-  </si>
-  <si>
-    <t>空调屏</t>
-  </si>
-  <si>
-    <t>module2</t>
-  </si>
-  <si>
-    <t>module3</t>
-  </si>
-  <si>
-    <t>condition1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition2</t>
-  </si>
-  <si>
-    <t>condition3</t>
-  </si>
-  <si>
-    <t>steps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>steps2</t>
-  </si>
-  <si>
-    <t>steps3</t>
-  </si>
-  <si>
-    <t>expect1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect2</t>
-  </si>
-  <si>
-    <t>expect3</t>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENABLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOCUSED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCROLLABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAYED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3-45-67
-34-24-54-78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values
-电源操作值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONG_CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Points
-坐标点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positions
-比较区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignalName
-信号名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Similarity
-相似度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId=a,text=b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id
-序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_IntConctVolStepSet=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_LocTiY=9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_SeatTltgAdjMotTarPosn=19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACU_RePassBkl_Sts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_RRMDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLMDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_RRSnsrDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLSnsrDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDU_OBCACVlt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSM_SeatTltgtAdjStsFb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPC_TakeoverReq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAS_SysFltFlg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAS_SteerAgVld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content
-内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment
-描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment
-描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbcFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的显示屏的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxWidth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id
-序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name
-名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreConditionDescription
-前置条件描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_light.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_dark.bmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxRelayChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-12-0.5-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepsDescription
-操作步骤描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battery_test2</t>
-  </si>
-  <si>
-    <t>battery_test4</t>
-  </si>
-  <si>
-    <t>battery_test5</t>
-  </si>
-  <si>
-    <t>battery_test6</t>
-  </si>
-  <si>
-    <t>battery_test7</t>
-  </si>
-  <si>
-    <t>battery_test8</t>
-  </si>
-  <si>
-    <t>battery_test9</t>
-  </si>
-  <si>
-    <t>battery_test10</t>
-  </si>
-  <si>
-    <t>element_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_test2</t>
-  </si>
-  <si>
-    <t>element_test3</t>
-  </si>
-  <si>
-    <t>element_test4</t>
-  </si>
-  <si>
-    <t>element_test5</t>
-  </si>
-  <si>
-    <t>element_test6</t>
-  </si>
-  <si>
-    <t>element_test7</t>
-  </si>
-  <si>
-    <t>relay_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relay_test2</t>
-  </si>
-  <si>
-    <t>relay_test3</t>
-  </si>
-  <si>
-    <t>relay_test4</t>
-  </si>
-  <si>
-    <t>relay_test5</t>
-  </si>
-  <si>
-    <t>relay_test6</t>
-  </si>
-  <si>
-    <t>relay_test7</t>
-  </si>
-  <si>
-    <t>relay_test8</t>
-  </si>
-  <si>
-    <t>relay_test9</t>
-  </si>
-  <si>
-    <t>relay_test10</t>
-  </si>
-  <si>
-    <t>screen_operation_teset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_operation_teset2</t>
-  </si>
-  <si>
-    <t>screen_operation_teset3</t>
-  </si>
-  <si>
-    <t>screen_operation_teset4</t>
-  </si>
-  <si>
-    <t>screen_operation_teset5</t>
-  </si>
-  <si>
-    <t>screen_operation_teset6</t>
-  </si>
-  <si>
-    <t>screen_operation_teset7</t>
-  </si>
-  <si>
-    <t>screen_operation_teset8</t>
-  </si>
-  <si>
-    <t>screen_operation_teset9</t>
-  </si>
-  <si>
-    <t>screen_operation_teset10</t>
-  </si>
-  <si>
-    <t>screen_operation_teset11</t>
-  </si>
-  <si>
-    <t>screen_operation_teset12</t>
-  </si>
-  <si>
-    <t>screenshot_tttt1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenshot_tttt2</t>
-  </si>
-  <si>
-    <t>screenshot_tttt3</t>
-  </si>
-  <si>
-    <t>screenshot_tttt4</t>
-  </si>
-  <si>
-    <t>screenshot_tttt5</t>
-  </si>
-  <si>
-    <t>screenshot_tttt6</t>
-  </si>
-  <si>
-    <t>screenshot_tttt7</t>
-  </si>
-  <si>
-    <t>screenshot_tttt8</t>
-  </si>
-  <si>
-    <t>screenshot_tttt9</t>
-  </si>
-  <si>
-    <t>screenshot_tttt10</t>
-  </si>
-  <si>
-    <t>can_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_test2</t>
-  </si>
-  <si>
-    <t>can_test3</t>
-  </si>
-  <si>
-    <t>can_test4</t>
-  </si>
-  <si>
-    <t>can_test5</t>
-  </si>
-  <si>
-    <t>can_test6</t>
-  </si>
-  <si>
-    <t>can_test7</t>
-  </si>
-  <si>
-    <t>can_test8</t>
-  </si>
-  <si>
-    <t>can_test9</t>
-  </si>
-  <si>
-    <t>can_test10</t>
-  </si>
-  <si>
-    <t>element_kkk2</t>
-  </si>
-  <si>
-    <t>element_kkk3</t>
-  </si>
-  <si>
-    <t>element_kkk4</t>
-  </si>
-  <si>
-    <t>element_kkk5</t>
-  </si>
-  <si>
-    <t>element_kkk6</t>
-  </si>
-  <si>
-    <t>element_kkk7</t>
-  </si>
-  <si>
-    <t>element_kkk9</t>
-  </si>
-  <si>
-    <t>element_kkk10</t>
-  </si>
-  <si>
-    <t>can_compare_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_compare_test2</t>
-  </si>
-  <si>
-    <t>can_compare_test3</t>
-  </si>
-  <si>
-    <t>can_compare_test4</t>
-  </si>
-  <si>
-    <t>can_compare_test5</t>
-  </si>
-  <si>
-    <t>can_compare_test6</t>
-  </si>
-  <si>
-    <t>can_compare_test7</t>
-  </si>
-  <si>
-    <t>can_compare_test8</t>
-  </si>
-  <si>
-    <t>can_compare_test9</t>
-  </si>
-  <si>
-    <t>element_comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_comapre2</t>
-  </si>
-  <si>
-    <t>element_comapre3</t>
-  </si>
-  <si>
-    <t>element_comapre4</t>
-  </si>
-  <si>
-    <t>element_comapre5</t>
-  </si>
-  <si>
-    <t>element_comapre6</t>
-  </si>
-  <si>
-    <t>element_comapre7</t>
-  </si>
-  <si>
-    <t>element_comapre8</t>
-  </si>
-  <si>
-    <t>element_comapre9</t>
-  </si>
-  <si>
-    <t>element_comapre10</t>
-  </si>
-  <si>
-    <t>image_compareaaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_compareaaaa2</t>
-  </si>
-  <si>
-    <t>image_compareaaaa3</t>
-  </si>
-  <si>
-    <t>image_compareaaaa4</t>
-  </si>
-  <si>
-    <t>image_compareaaaa5</t>
-  </si>
-  <si>
-    <t>image_compareaaaa6</t>
-  </si>
-  <si>
-    <t>image_compareaaaa7</t>
-  </si>
-  <si>
-    <t>image_compareaaaa8</t>
-  </si>
-  <si>
-    <t>image_compareaaaa9</t>
-  </si>
-  <si>
-    <t>image_compareaaaa10</t>
-  </si>
-  <si>
-    <t>element_kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battery_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryAction=battery_test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAction=can_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAction=can_test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAction=can_test3</t>
-  </si>
-  <si>
-    <t>InformationCompare=info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InformationCompare=info2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024-15
-12-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcuPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcuBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenShotTempPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templateImagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAN的DBC文件绝对路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的继电器通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functions
-函数执行前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suites
-套件执行前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreCondition
-前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steps
-操作步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect
-期望结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module1</t>
-  </si>
-  <si>
-    <t>module1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryAction=battery_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name
-名字/函数名/模块名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceId=a,text=b
-text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locators
-元素定位符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPS开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eps_on_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>esp_on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_compare_test10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InformationCompare=info3
-CanCompare=can_compare_test10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SlideTimes
-滑动次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_kkk7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eps_on_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eps_on_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceType
-屏幕类型</t>
-  </si>
-  <si>
-    <t>ScreenShotType
-截图类型</t>
-  </si>
-  <si>
-    <t>QNX屏</t>
-  </si>
-  <si>
-    <t>安卓屏</t>
-  </si>
-  <si>
-    <t>仪表屏</t>
-  </si>
-  <si>
-    <t>displayId
-屏幕序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testwe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testsd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testqs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testwa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testwed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep</t>
+    <t>CommonType
+模块类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BatteryAction=battery_test1
-common=yeild
-common=pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common=pass
-common=yeild
+yeild
+pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass
+yeild
 BatteryAction=battery_test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear_stack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BatteryAction=battery_test3
 COMMON=clear_stack
+SLEEP=3
 ElementAction=esp_on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Params
-函数参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbcJson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\screenshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAN的dbc文件转换成json文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementAttribute
-元素属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signals
-信号名与值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageId
-信号ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_LKASet=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_EQ5Set=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_AMP_CallVolStepSet=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_ChrgMod=0x0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APA_FLMDst=12</t>
+    <t>common4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear_stack_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACU_RePassBkl_Sts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1503,63 +1536,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_FRMMsgErr=0x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU_ACCSet=0x1
-HU_FRMMsgErr=0x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkk3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT6831</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battery_test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d:\a.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_kkk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_kkk1
-element_kkk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elements
-安卓元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepeatTimes
-重复次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <t>element_comapre2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_light.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1637,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1669,6 +1666,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1954,7 +1957,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1986,10 +1989,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2000,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
@@ -2024,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2048,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2060,7 +2063,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2074,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2083,14 +2086,14 @@
         <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2098,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2110,7 +2113,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2124,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2136,7 +2139,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2150,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2162,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2176,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2188,7 +2191,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2202,7 +2205,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2214,7 +2217,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2228,7 +2231,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2240,7 +2243,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2269,7 +2272,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2306,16 +2309,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2326,16 +2329,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>408</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2346,16 +2349,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2366,16 +2369,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2386,16 +2389,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2406,16 +2409,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2426,16 +2429,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2446,16 +2449,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2466,16 +2469,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2486,16 +2489,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2516,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2558,10 +2561,10 @@
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -2575,31 +2578,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>409</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>410</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>203</v>
+        <v>411</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>220</v>
+        <v>413</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>118</v>
+        <v>386</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K2" s="1">
         <v>240</v>
@@ -2610,31 +2613,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K3" s="1">
         <v>240</v>
@@ -2645,31 +2648,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>412</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K4" s="1">
         <v>240</v>
@@ -2680,31 +2683,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K5" s="1">
         <v>240</v>
@@ -2715,31 +2718,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2750,31 +2753,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2785,31 +2788,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2820,31 +2823,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2855,31 +2858,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2890,31 +2893,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2970,16 +2973,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2987,16 +2990,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3004,16 +3007,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3021,16 +3024,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3038,16 +3041,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3055,16 +3058,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3072,16 +3075,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3089,16 +3092,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3106,16 +3109,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3123,16 +3126,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3149,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3172,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3180,16 +3183,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3197,16 +3200,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3214,16 +3217,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3231,16 +3234,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3248,16 +3251,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3265,16 +3268,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3282,16 +3285,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3299,16 +3302,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3316,16 +3319,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3333,16 +3336,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3360,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3380,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>26</v>
@@ -3389,22 +3392,22 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3412,34 +3415,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3447,69 +3450,69 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3528,7 +3531,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3545,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3562,16 +3565,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3579,16 +3582,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3596,16 +3599,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3620,7 +3623,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3632,16 +3635,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3649,10 +3652,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3664,10 +3667,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3679,10 +3682,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3694,13 +3697,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3709,10 +3712,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3724,13 +3727,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3739,10 +3742,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3754,10 +3757,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3769,10 +3772,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3784,13 +3787,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3799,13 +3802,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3814,13 +3817,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3829,10 +3832,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3844,10 +3847,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -3902,8 +3905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3912,7 +3915,8 @@
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="6" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -3929,10 +3933,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -3940,36 +3944,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -3978,19 +3980,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>378</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>377</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3998,7 +4000,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -4007,70 +4009,68 @@
         <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="F8" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -4087,28 +4087,30 @@
         <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>240</v>
+        <v>374</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="F10" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4116,7 +4118,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
@@ -4125,7 +4127,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4145,7 +4147,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4179,13 +4181,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4196,13 +4198,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4213,50 +4215,46 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4264,13 +4262,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -4281,50 +4279,46 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4332,17 +4326,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4352,15 +4344,16 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4386,16 +4379,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>383</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -4406,13 +4399,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>381</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>382</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>46</v>
@@ -4421,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>328</v>
+        <v>388</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4432,13 +4425,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>47</v>
@@ -4446,25 +4439,23 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
+      <c r="G3" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>392</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>48</v>
@@ -4472,8 +4463,8 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>77</v>
+      <c r="G4" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4484,242 +4475,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>254</v>
+        <v>393</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>384</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="H5" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D13">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D5">
       <formula1>"QNX,ANDROID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E13">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E5">
       <formula1>"滑动,点击,长按,双击,上滑,下滑,左滑,右滑,上滑到顶,下滑到底,左滑到头,右滑到头"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4733,7 +4516,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4757,10 +4540,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -4774,13 +4557,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>394</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4789,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4797,13 +4580,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4812,7 +4595,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4820,13 +4603,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4835,7 +4618,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4843,13 +4626,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4858,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4866,13 +4649,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4881,7 +4664,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4889,13 +4672,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4904,7 +4687,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4912,13 +4695,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4927,7 +4710,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4935,13 +4718,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4950,7 +4733,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4958,13 +4741,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4973,7 +4756,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4981,13 +4764,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4996,7 +4779,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5015,7 +4798,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5028,7 +4811,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5037,10 +4820,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5048,16 +4831,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1">
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5065,16 +4848,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5082,7 +4865,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -5091,7 +4874,7 @@
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5099,7 +4882,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -5108,7 +4891,7 @@
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5116,7 +4899,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>41</v>
@@ -5125,7 +4908,7 @@
         <v>645</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5133,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -5142,7 +4925,7 @@
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5150,7 +4933,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>43</v>
@@ -5159,7 +4942,7 @@
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5167,7 +4950,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
@@ -5176,7 +4959,7 @@
         <v>649</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5184,7 +4967,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>45</v>
@@ -5193,7 +4976,7 @@
         <v>643</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5201,16 +4984,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1">
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5225,7 +5008,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5248,7 +5031,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5256,13 +5039,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>366</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5271,27 +5054,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>379</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5299,13 +5082,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5313,13 +5096,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5327,13 +5110,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5341,13 +5124,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5355,13 +5138,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5369,13 +5152,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5383,13 +5166,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5401,10 +5184,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5412,10 +5195,11 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5426,58 +5210,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>387</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>402</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>401</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5490,7 +5242,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5517,13 +5269,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -5534,16 +5286,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
+        <v>403</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5552,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5560,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>37</v>
@@ -5569,7 +5321,7 @@
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5578,7 +5330,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>105</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5586,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>38</v>
@@ -5595,7 +5347,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5603,16 +5355,14 @@
       <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -5621,7 +5371,7 @@
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5629,16 +5379,14 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
@@ -5647,7 +5395,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5655,16 +5403,14 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
@@ -5673,7 +5419,7 @@
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5681,16 +5427,14 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -5699,7 +5443,7 @@
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5707,16 +5451,14 @@
       <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -5725,7 +5467,7 @@
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5733,16 +5475,14 @@
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>44</v>
@@ -5751,7 +5491,7 @@
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5759,16 +5499,14 @@
       <c r="G10" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
@@ -5777,7 +5515,7 @@
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -5785,9 +5523,7 @@
       <c r="G11" s="1">
         <v>7</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="423">
   <si>
     <t>Id
 序号</t>
@@ -374,9 +374,6 @@
     <t>闪烁图</t>
   </si>
   <si>
-    <t>compareaaaa2</t>
-  </si>
-  <si>
     <t>compareaaaa3</t>
   </si>
   <si>
@@ -401,10 +398,6 @@
     <t>compareaaaa10</t>
   </si>
   <si>
-    <t>info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>info2</t>
   </si>
   <si>
@@ -482,9 +475,6 @@
     <t>空调屏</t>
   </si>
   <si>
-    <t>module2</t>
-  </si>
-  <si>
     <t>module3</t>
   </si>
   <si>
@@ -519,10 +509,6 @@
   </si>
   <si>
     <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKABLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -939,9 +925,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>image_compareaaaa2</t>
-  </si>
-  <si>
     <t>image_compareaaaa3</t>
   </si>
   <si>
@@ -1243,14 +1226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>infomation2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ElementAttribute
 元素属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1437,13 +1412,6 @@
   </si>
   <si>
     <t>14-12-0.5-5</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>2,3,45,67
-34,24,54,78</t>
   </si>
   <si>
     <t>1024-15
@@ -1557,6 +1525,79 @@
   </si>
   <si>
     <t>template_light.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-45-67
+34-24-54-78</t>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_compareaaaa2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareaaaa2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-45-67
+34-24-54-78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1989,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2003,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
@@ -2027,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2051,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2063,7 +2104,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2077,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2086,14 +2127,14 @@
         <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2101,7 +2142,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2113,7 +2154,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2127,7 +2168,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2139,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2153,7 +2194,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2165,7 +2206,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2179,7 +2220,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2191,7 +2232,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2205,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2217,7 +2258,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2231,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2243,7 +2284,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2309,16 +2350,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2329,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>82</v>
@@ -2338,7 +2379,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2349,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>83</v>
@@ -2358,7 +2399,7 @@
         <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2369,7 +2410,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>84</v>
@@ -2378,7 +2419,7 @@
         <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2389,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>85</v>
@@ -2398,7 +2439,7 @@
         <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2409,7 +2450,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>86</v>
@@ -2418,7 +2459,7 @@
         <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2429,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>87</v>
@@ -2438,7 +2479,7 @@
         <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2449,7 +2490,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>88</v>
@@ -2458,7 +2499,7 @@
         <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2469,7 +2510,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>89</v>
@@ -2478,7 +2519,7 @@
         <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2489,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>90</v>
@@ -2498,7 +2539,7 @@
         <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2519,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2561,10 +2602,10 @@
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -2578,45 +2619,41 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="1">
-        <v>240</v>
-      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>407</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>408</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>97</v>
@@ -2625,68 +2662,60 @@
         <v>95</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="1">
-        <v>240</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="1">
-        <v>240</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>96</v>
@@ -2695,33 +2724,31 @@
         <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="1">
-        <v>240</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>97</v>
@@ -2730,13 +2757,13 @@
         <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
@@ -2753,10 +2780,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>98</v>
@@ -2765,13 +2792,13 @@
         <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
@@ -2788,10 +2815,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>96</v>
@@ -2800,13 +2827,13 @@
         <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
@@ -2823,10 +2850,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>97</v>
@@ -2835,13 +2862,13 @@
         <v>95</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
@@ -2858,10 +2885,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>98</v>
@@ -2870,13 +2897,13 @@
         <v>95</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
@@ -2893,10 +2920,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>96</v>
@@ -2905,13 +2932,13 @@
         <v>95</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
@@ -2939,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2973,16 +3000,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>417</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>418</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2990,16 +3017,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3007,16 +3034,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3024,16 +3051,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3041,16 +3068,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3058,16 +3085,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3075,16 +3102,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3092,16 +3119,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3109,16 +3136,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3126,16 +3153,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +3176,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3175,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3183,16 +3210,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>410</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>411</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>146</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3200,16 +3227,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>414</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3217,16 +3244,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3234,16 +3261,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3251,16 +3278,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3268,16 +3295,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3285,16 +3312,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3302,16 +3329,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3319,16 +3346,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3336,16 +3363,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3387,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3383,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>26</v>
@@ -3392,22 +3419,22 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3415,34 +3442,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>305</v>
+        <v>419</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3450,34 +3477,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
@@ -3485,34 +3512,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3548,16 +3575,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3565,16 +3592,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3582,16 +3609,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3599,16 +3626,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3635,16 +3662,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3652,10 +3679,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3667,10 +3694,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3682,10 +3709,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3697,13 +3724,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3712,10 +3739,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3727,13 +3754,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3742,10 +3769,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3757,10 +3784,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3772,10 +3799,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3787,13 +3814,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3802,13 +3829,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3817,13 +3844,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3832,10 +3859,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3847,10 +3874,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -3933,10 +3960,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -3944,16 +3971,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -3962,16 +3989,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -3980,16 +4007,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -4000,7 +4027,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -4009,7 +4036,7 @@
         <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -4018,7 +4045,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
@@ -4027,7 +4054,7 @@
         <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4038,7 +4065,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
@@ -4047,7 +4074,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4058,7 +4085,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -4067,7 +4094,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -4078,7 +4105,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -4087,7 +4114,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -4098,7 +4125,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -4107,7 +4134,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -4118,7 +4145,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
@@ -4127,7 +4154,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4181,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -4198,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>37</v>
@@ -4215,7 +4242,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>38</v>
@@ -4230,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -4245,7 +4272,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
@@ -4262,7 +4289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
@@ -4279,7 +4306,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -4294,7 +4321,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -4309,7 +4336,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>44</v>
@@ -4326,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
@@ -4379,16 +4406,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -4399,10 +4426,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>59</v>
@@ -4414,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4425,7 +4452,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4440,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -4449,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -4464,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4475,7 +4502,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
@@ -4484,13 +4511,13 @@
         <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -4540,10 +4567,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -4557,13 +4584,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4572,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4580,13 +4607,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4595,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4603,13 +4630,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4618,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4626,13 +4653,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4641,7 +4668,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4649,13 +4676,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4664,7 +4691,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4672,13 +4699,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4687,7 +4714,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4695,13 +4722,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4710,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4718,13 +4745,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4733,7 +4760,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4741,13 +4768,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4756,7 +4783,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4764,13 +4791,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4779,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4811,7 +4838,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4820,10 +4847,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4831,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -4840,7 +4867,7 @@
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4848,16 +4875,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4865,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -4874,7 +4901,7 @@
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4882,7 +4909,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -4891,7 +4918,7 @@
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4899,7 +4926,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>41</v>
@@ -4908,7 +4935,7 @@
         <v>645</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4916,7 +4943,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -4925,7 +4952,7 @@
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4933,7 +4960,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>43</v>
@@ -4942,7 +4969,7 @@
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4950,7 +4977,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
@@ -4959,7 +4986,7 @@
         <v>649</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4967,7 +4994,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>45</v>
@@ -4976,7 +5003,7 @@
         <v>643</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4984,7 +5011,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>72</v>
@@ -4993,7 +5020,7 @@
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5031,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5039,13 +5066,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5054,13 +5081,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5068,13 +5095,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5082,13 +5109,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5096,13 +5123,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5110,13 +5137,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5124,13 +5151,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5138,10 +5165,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>79</v>
@@ -5152,7 +5179,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>76</v>
@@ -5166,7 +5193,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>78</v>
@@ -5210,10 +5237,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5221,13 +5248,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -5269,7 +5296,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -5286,16 +5313,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5312,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>37</v>
@@ -5321,7 +5348,7 @@
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5330,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5338,7 +5365,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>38</v>
@@ -5347,7 +5374,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5362,7 +5389,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
@@ -5371,7 +5398,7 @@
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5386,7 +5413,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
@@ -5395,7 +5422,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5410,7 +5437,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
@@ -5419,7 +5446,7 @@
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5434,7 +5461,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -5443,7 +5470,7 @@
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5458,7 +5485,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -5467,7 +5494,7 @@
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5482,7 +5509,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>44</v>
@@ -5491,7 +5518,7 @@
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5506,7 +5533,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
@@ -5515,7 +5542,7 @@
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="424">
   <si>
     <t>Id
 序号</t>
@@ -131,10 +131,6 @@
 灰度二值化阈值</t>
   </si>
   <si>
-    <t>Origin
-原始信息</t>
-  </si>
-  <si>
     <t>Target
 目标信息</t>
   </si>
@@ -451,9 +447,6 @@
   </si>
   <si>
     <t>infomation9</t>
-  </si>
-  <si>
-    <t>infomation10</t>
   </si>
   <si>
     <t>testcase1</t>
@@ -1469,135 +1462,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>common4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACU_RePassBkl_Sts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comapre1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_comapre2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareaaaa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_light.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-45-67
+34-24-54-78</t>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_compareaaaa2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compareaaaa2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-45-67
+34-24-54-78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLICKABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element
+元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear_stack_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BatteryAction=battery_test3
-COMMON=clear_stack
+COMMON=clear_stack_data
 SLEEP=3
 ElementAction=esp_on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>common4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear_stack_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACU_RePassBkl_Sts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comapre1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_comapre2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compareaaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪烁图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_light.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3-45-67
-34-24-54-78</t>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_compareaaaa2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compareaaaa2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3-45-67
-34-24-54-78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLICKABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_kkk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation2</t>
+    <t>infomation10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2024,16 +2030,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2044,16 +2050,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -2068,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F3" s="1">
         <v>13</v>
@@ -2092,19 +2098,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2118,23 +2124,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2142,19 +2148,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2168,19 +2174,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2194,19 +2200,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2220,19 +2226,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2246,19 +2252,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2272,19 +2278,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2350,16 +2356,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2370,16 +2376,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2390,16 +2396,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2410,16 +2416,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2430,16 +2436,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2450,16 +2456,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2470,16 +2476,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2490,16 +2496,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2510,16 +2516,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2530,16 +2536,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2561,7 +2567,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2602,10 +2608,10 @@
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -2619,25 +2625,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="I2" s="1">
         <v>9.9</v>
@@ -2650,25 +2656,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
@@ -2681,25 +2687,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
@@ -2712,31 +2718,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -2745,31 +2751,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" s="1">
         <v>240</v>
@@ -2780,31 +2786,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I7" s="1">
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" s="1">
         <v>240</v>
@@ -2815,31 +2821,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I8" s="1">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" s="1">
         <v>240</v>
@@ -2850,31 +2856,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I9" s="1">
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="1">
         <v>240</v>
@@ -2885,31 +2891,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I10" s="1">
         <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" s="1">
         <v>240</v>
@@ -2920,31 +2926,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I11" s="1">
         <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="1">
         <v>240</v>
@@ -2966,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2989,10 +2995,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3000,16 +3006,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3017,16 +3023,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3034,16 +3040,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3051,16 +3057,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3068,16 +3074,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3085,16 +3091,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3102,16 +3108,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3119,16 +3125,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3136,16 +3142,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3153,21 +3159,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3175,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3202,7 +3209,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3210,16 +3217,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3227,16 +3234,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3244,16 +3251,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3261,16 +3268,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3278,16 +3285,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3295,16 +3302,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3312,16 +3319,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3329,16 +3336,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3346,16 +3353,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3363,16 +3370,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>422</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3387,7 +3394,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3410,31 +3417,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3442,34 +3449,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3477,34 +3484,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
@@ -3512,34 +3519,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3565,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3575,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3592,16 +3599,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3609,16 +3616,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3626,16 +3633,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3662,16 +3669,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3679,10 +3686,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3694,10 +3701,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3709,10 +3716,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3724,13 +3731,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3739,10 +3746,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3754,13 +3761,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3769,10 +3776,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3784,10 +3791,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3799,10 +3806,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3814,13 +3821,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3829,13 +3836,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3844,13 +3851,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3859,10 +3866,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3874,10 +3881,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -3960,10 +3967,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -3971,16 +3978,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -3989,16 +3996,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4007,16 +4014,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -4027,16 +4034,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -4045,16 +4052,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4065,16 +4072,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4085,16 +4092,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -4105,16 +4112,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -4125,16 +4132,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -4145,16 +4152,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4208,13 +4215,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4225,13 +4232,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4242,13 +4249,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -4257,13 +4264,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -4272,13 +4279,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -4289,13 +4296,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -4306,13 +4313,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -4321,13 +4328,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -4336,13 +4343,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -4353,13 +4360,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -4406,16 +4413,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -4426,22 +4433,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4452,22 +4459,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -4476,22 +4483,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4502,22 +4509,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -4567,10 +4574,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -4584,13 +4591,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4599,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4607,13 +4614,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4622,7 +4629,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4630,13 +4637,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4645,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4653,13 +4660,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4668,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4676,13 +4683,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4691,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4699,13 +4706,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4714,7 +4721,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4722,13 +4729,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4737,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4745,13 +4752,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4760,7 +4767,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4768,13 +4775,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4783,7 +4790,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4791,13 +4798,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4806,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4838,7 +4845,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4847,10 +4854,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4858,16 +4865,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1">
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4875,16 +4882,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4892,16 +4899,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4909,16 +4916,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4926,16 +4933,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>645</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4943,16 +4950,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4960,16 +4967,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4977,16 +4984,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1">
         <v>649</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4994,16 +5001,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>643</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5011,16 +5018,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1">
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +5042,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5058,7 +5065,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5066,13 +5073,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5081,13 +5088,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5095,13 +5102,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5109,13 +5116,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5123,13 +5130,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5137,13 +5144,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5151,13 +5158,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5165,13 +5172,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5179,13 +5186,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5193,13 +5200,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5214,7 +5221,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5237,10 +5244,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5248,13 +5255,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -5296,13 +5303,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -5313,16 +5320,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5331,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5339,16 +5346,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5357,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5365,16 +5372,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5389,16 +5396,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5413,16 +5420,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5437,16 +5444,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5461,16 +5468,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5485,16 +5492,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5509,16 +5516,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1">
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5533,16 +5540,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1">
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="425">
   <si>
     <t>Id
 序号</t>
@@ -1528,10 +1528,6 @@
   <si>
     <t>2-3-45-67
 34-24-54-78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infomation1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1604,6 +1600,14 @@
   </si>
   <si>
     <t>infomation10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infomation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_kkk2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2973,7 +2977,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2995,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -3006,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>115</v>
@@ -3029,7 +3033,7 @@
         <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>140</v>
@@ -3046,7 +3050,7 @@
         <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>140</v>
@@ -3063,7 +3067,7 @@
         <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>140</v>
@@ -3080,7 +3084,7 @@
         <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>140</v>
@@ -3097,7 +3101,7 @@
         <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>140</v>
@@ -3114,7 +3118,7 @@
         <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>140</v>
@@ -3131,7 +3135,7 @@
         <v>112</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>140</v>
@@ -3148,7 +3152,7 @@
         <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>140</v>
@@ -3165,7 +3169,7 @@
         <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>140</v>
@@ -3182,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3220,13 +3224,13 @@
         <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3234,16 +3238,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3370,10 +3374,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>341</v>
@@ -3458,7 +3462,7 @@
         <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>131</v>
@@ -3528,13 +3532,13 @@
         <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>136</v>
@@ -3565,7 +3569,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>300</v>
@@ -4386,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5042,7 +5046,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5255,7 +5259,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>389</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="测试用例(TestCase)" sheetId="14" r:id="rId14"/>
     <sheet name="测试用例前置条件(TestCaseSetUp)" sheetId="16" r:id="rId15"/>
     <sheet name="配置(Configure)" sheetId="15" r:id="rId16"/>
+    <sheet name="配置(Configure)1" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="477">
   <si>
     <t>Id
 序号</t>
@@ -131,10 +132,6 @@
 灰度二值化阈值</t>
   </si>
   <si>
-    <t>Target
-目标信息</t>
-  </si>
-  <si>
     <t>TestCaseType
 测试用例类型</t>
   </si>
@@ -459,9 +456,6 @@
     <t>testcase3</t>
   </si>
   <si>
-    <t>仪表</t>
-  </si>
-  <si>
     <t>中控</t>
   </si>
   <si>
@@ -479,10 +473,6 @@
   </si>
   <si>
     <t>condition3</t>
-  </si>
-  <si>
-    <t>steps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>steps2</t>
@@ -647,10 +637,6 @@
   </si>
   <si>
     <t>dbcFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的显示屏的个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1608,6 +1594,233 @@
   </si>
   <si>
     <t>element_kkk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target
+目标信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test1
+yeild
+pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的显示屏的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的显示屏的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltageRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源电压支持范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socSerial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcuSerial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>konstanter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it6831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnxScreenShotPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnxResolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxRelayChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidAutomationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testCaseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Konstanter串口配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT6831串口配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调屏(QNX)串口配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNX截图存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android截图存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android屏幕分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNX屏幕分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidScreenShotPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidResolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBC解析后生成的文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的继电器通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android自动化测试方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidAppPackage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓的启动应用的package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓的启动应用的activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM25, 9600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM23, 115200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM24, 115200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM26, 19200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920,720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920,1080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiFire_B31CP_Info_HU_CAN_V2.0.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.chinatsp.settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.SettingsActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓系统版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidAppActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidDeviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓设备号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1685,7 +1898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1724,6 +1937,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2034,16 +2250,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2054,16 +2270,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -2078,16 +2294,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>13</v>
@@ -2102,19 +2318,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2128,23 +2344,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2152,19 +2368,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2178,19 +2394,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2204,19 +2420,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2230,19 +2446,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2256,19 +2472,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2282,19 +2498,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2360,16 +2576,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2380,16 +2596,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2400,16 +2616,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2420,16 +2636,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2440,16 +2656,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2460,16 +2676,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2480,16 +2696,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2500,16 +2716,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2520,16 +2736,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2540,16 +2756,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2568,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2579,17 +2795,18 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="21.625" customWidth="1"/>
-    <col min="11" max="11" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="21.625" customWidth="1"/>
+    <col min="12" max="12" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2600,371 +2817,407 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>9.9</v>
       </c>
-      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I3" s="1">
+        <v>181</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3" s="1">
         <v>90</v>
       </c>
-      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>399</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>395</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I4" s="1">
+        <v>181</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J4" s="1">
         <v>90</v>
       </c>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I5" s="1">
+        <v>181</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J5" s="1">
         <v>90</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I6" s="1">
+        <v>181</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J6" s="1">
         <v>90</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="K6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I7" s="1">
+        <v>181</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J7" s="1">
         <v>90</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="K7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I8" s="1">
+        <v>181</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J8" s="1">
         <v>90</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="K8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I9" s="1">
+        <v>181</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J9" s="1">
         <v>90</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="K9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I10" s="1">
+        <v>181</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J10" s="1">
         <v>90</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="K10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I11" s="1">
+        <v>181</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J11" s="1">
         <v>90</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="K11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="1">
         <v>240</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E11">
+      <formula1>"亮图,暗图,闪烁图"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D2:D11">
-      <formula1>"亮图,暗图,闪烁图"</formula1>
+      <formula1>"QNX,ANDROID"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2974,10 +3227,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2986,9 +3239,10 @@
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2999,180 +3253,213 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>416</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>140</v>
+        <v>412</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3187,7 +3474,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3213,7 +3500,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3221,16 +3508,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3238,16 +3525,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3255,16 +3542,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3272,16 +3559,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3289,16 +3576,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3306,16 +3593,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3323,16 +3610,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,16 +3627,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3357,16 +3644,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,16 +3661,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3398,7 +3685,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3406,7 +3693,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="21.625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="7" width="27.625" customWidth="1"/>
     <col min="8" max="10" width="21.625" customWidth="1"/>
@@ -3421,31 +3708,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3453,34 +3740,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>127</v>
+        <v>423</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3488,34 +3775,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
@@ -3523,34 +3810,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3569,7 +3856,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3586,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3603,16 +3890,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3620,16 +3907,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3637,16 +3924,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3661,28 +3948,28 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3690,10 +3977,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -3705,10 +3992,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D3" s="4">
         <v>20</v>
@@ -3720,10 +4007,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3735,13 +4022,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3750,10 +4037,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D6" s="6">
         <v>115200</v>
@@ -3765,13 +4052,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3780,10 +4067,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" s="6">
         <v>115200</v>
@@ -3795,10 +4082,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D9" s="4">
         <v>1920</v>
@@ -3810,10 +4097,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D10" s="4">
         <v>720</v>
@@ -3825,13 +4112,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -3840,13 +4127,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3855,13 +4142,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -3870,10 +4157,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -3885,10 +4172,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -3931,6 +4218,338 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3971,10 +4590,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -3982,16 +4601,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -4000,16 +4619,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4018,16 +4637,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -4038,16 +4657,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -4056,16 +4675,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4076,16 +4695,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4096,16 +4715,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -4116,16 +4735,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -4136,16 +4755,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -4156,16 +4775,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4219,13 +4838,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4236,13 +4855,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4253,13 +4872,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -4268,13 +4887,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -4283,13 +4902,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -4300,13 +4919,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -4317,13 +4936,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -4332,13 +4951,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -4347,13 +4966,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -4364,13 +4983,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -4390,8 +5009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4417,16 +5036,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -4437,22 +5056,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4463,22 +5082,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -4487,22 +5106,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4513,22 +5132,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -4554,7 +5173,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4578,10 +5197,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -4595,13 +5214,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4610,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4618,13 +5237,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4633,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4641,13 +5260,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4656,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4664,13 +5283,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4679,7 +5298,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4687,13 +5306,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4702,7 +5321,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4710,13 +5329,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4725,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4733,13 +5352,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4748,7 +5367,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4756,13 +5375,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4771,7 +5390,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4779,13 +5398,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4794,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4802,13 +5421,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4817,7 +5436,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4849,7 +5468,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4858,10 +5477,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4869,16 +5488,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1">
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4886,16 +5505,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4903,16 +5522,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4920,16 +5539,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4937,16 +5556,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>645</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4954,16 +5573,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4971,16 +5590,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4988,16 +5607,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>649</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5005,16 +5624,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1">
         <v>643</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5022,16 +5641,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1">
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +5688,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5077,13 +5696,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5092,13 +5711,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5106,13 +5725,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5120,13 +5739,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5134,13 +5753,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5148,13 +5767,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5162,13 +5781,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5176,13 +5795,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5190,13 +5809,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5204,13 +5823,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5248,10 +5867,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5259,13 +5878,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -5307,13 +5926,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -5324,16 +5943,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5342,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5350,16 +5969,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1">
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5368,7 +5987,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5376,16 +5995,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1">
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5400,16 +6019,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5424,16 +6043,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5448,16 +6067,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5472,16 +6091,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5496,16 +6115,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5520,16 +6139,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5544,16 +6163,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1">
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,14 @@
     <sheet name="信息保存(Information)" sheetId="13" r:id="rId13"/>
     <sheet name="测试用例(TestCase)" sheetId="14" r:id="rId14"/>
     <sheet name="测试用例前置条件(TestCaseSetUp)" sheetId="16" r:id="rId15"/>
-    <sheet name="配置(Configure)" sheetId="15" r:id="rId16"/>
-    <sheet name="配置(Configure)1" sheetId="17" r:id="rId17"/>
+    <sheet name="配置(Configure)" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="447">
   <si>
     <t>Id
 序号</t>
@@ -614,54 +613,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COM24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment
 描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Comment
-描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbcFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxWidth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id
-序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -687,10 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxRelayChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StepsDescription
 操作步骤描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -959,78 +912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小支持的电压值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示屏宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcuPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcuBaudRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenShotTempPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templateImagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板图片存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAN的DBC文件绝对路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的继电器通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1197,14 +1078,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\Workspace\screenshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAN的dbc文件转换成json文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ElementAttribute
 元素属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1313,10 +1186,6 @@
   </si>
   <si>
     <t>text=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1620,10 +1489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大支持的显示屏的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>voltageRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1640,107 +1505,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>it6831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnxScreenShotPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnxResolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxRelayChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidAutomationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testCaseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU串口配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Konstanter串口配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT6831串口配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调屏(QNX)串口配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNX截图存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android截图存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android屏幕分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNX屏幕分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidScreenShotPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidResolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBC解析后生成的文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大支持的继电器通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android自动化测试方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidAppPackage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓的启动应用的package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓的启动应用的activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM23, 115200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM24, 115200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM26, 19200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920,720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920,1080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiFire_B31CP_Info_HU_CAN_V2.0.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.chinatsp.settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.SettingsActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓系统版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidAppActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidDeviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>konstanter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it6831</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnxScreenShotPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnxResolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxRelayChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidAutomationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testCaseType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Konstanter串口配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT6831串口配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调屏(QNX)串口配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QNX截图存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android截图存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android屏幕分辨率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QNX屏幕分辨率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidScreenShotPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidResolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBC解析后生成的文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大支持的继电器通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android自动化测试方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidAppPackage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓的启动应用的package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓的启动应用的activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试类型</t>
+    <t>DBC文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM25, 9600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1748,79 +1697,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COM25, 9600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM23, 115200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM24, 115200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM26, 19200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1920,720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1920,1080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HiFire_B31CP_Info_HU_CAN_V2.0.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.chinatsp.settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.SettingsActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓系统版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidAppActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仪表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidDeviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓设备号</t>
+    <t>dbcFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2259,7 +2136,7 @@
         <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2270,13 +2147,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>29</v>
@@ -2294,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -2318,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -2330,7 +2207,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2344,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -2353,14 +2230,14 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2368,7 +2245,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -2380,7 +2257,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2394,7 +2271,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -2406,7 +2283,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2420,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
@@ -2432,7 +2309,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2446,7 +2323,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -2458,7 +2335,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2472,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -2484,7 +2361,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2498,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -2510,7 +2387,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2576,16 +2453,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2596,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>80</v>
@@ -2605,7 +2482,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2616,7 +2493,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>81</v>
@@ -2625,7 +2502,7 @@
         <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2636,7 +2513,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>82</v>
@@ -2645,7 +2522,7 @@
         <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2656,7 +2533,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>83</v>
@@ -2665,7 +2542,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2676,7 +2553,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>84</v>
@@ -2685,7 +2562,7 @@
         <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2696,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>85</v>
@@ -2705,7 +2582,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2716,7 +2593,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>86</v>
@@ -2725,7 +2602,7 @@
         <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2736,7 +2613,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>87</v>
@@ -2745,7 +2622,7 @@
         <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2756,7 +2633,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>88</v>
@@ -2765,7 +2642,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2786,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2817,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -2849,28 +2726,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="J2" s="1">
         <v>9.9</v>
@@ -2883,10 +2760,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>58</v>
@@ -2898,13 +2775,13 @@
         <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="J3" s="1">
         <v>90</v>
@@ -2917,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>97</v>
@@ -2926,19 +2803,19 @@
         <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="J4" s="1">
         <v>90</v>
@@ -2951,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>98</v>
@@ -2966,13 +2843,13 @@
         <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="J5" s="1">
         <v>90</v>
@@ -2987,7 +2864,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
@@ -3002,13 +2879,13 @@
         <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="J6" s="1">
         <v>90</v>
@@ -3025,7 +2902,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>100</v>
@@ -3040,13 +2917,13 @@
         <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="J7" s="1">
         <v>90</v>
@@ -3063,7 +2940,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>101</v>
@@ -3078,13 +2955,13 @@
         <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="J8" s="1">
         <v>90</v>
@@ -3101,7 +2978,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>102</v>
@@ -3116,13 +2993,13 @@
         <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="J9" s="1">
         <v>90</v>
@@ -3139,7 +3016,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>103</v>
@@ -3154,13 +3031,13 @@
         <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="J10" s="1">
         <v>90</v>
@@ -3177,7 +3054,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>104</v>
@@ -3192,13 +3069,13 @@
         <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="J11" s="1">
         <v>90</v>
@@ -3253,13 +3130,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3267,19 +3144,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3296,10 +3173,10 @@
         <v>137</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3316,7 +3193,7 @@
         <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>138</v>
@@ -3336,7 +3213,7 @@
         <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>139</v>
@@ -3356,7 +3233,7 @@
         <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>140</v>
@@ -3376,7 +3253,7 @@
         <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>141</v>
@@ -3396,7 +3273,7 @@
         <v>137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>146</v>
@@ -3416,7 +3293,7 @@
         <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>142</v>
@@ -3436,7 +3313,7 @@
         <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>143</v>
@@ -3456,7 +3333,7 @@
         <v>137</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>144</v>
@@ -3500,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3508,16 +3385,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3525,16 +3402,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3548,7 +3425,7 @@
         <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>138</v>
@@ -3565,7 +3442,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>139</v>
@@ -3582,7 +3459,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>140</v>
@@ -3599,7 +3476,7 @@
         <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>141</v>
@@ -3616,7 +3493,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>146</v>
@@ -3633,7 +3510,7 @@
         <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>142</v>
@@ -3650,7 +3527,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>143</v>
@@ -3661,13 +3538,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>144</v>
@@ -3708,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>24</v>
@@ -3717,22 +3594,22 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3746,28 +3623,28 @@
         <v>123</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>134</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3784,25 +3661,25 @@
         <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>132</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>135</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
@@ -3819,25 +3696,25 @@
         <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>133</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3873,16 +3750,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3890,16 +3767,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3907,16 +3784,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3927,13 +3804,13 @@
         <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3947,298 +3824,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="4">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="6">
-        <v>115200</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="6">
-        <v>115200</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1920</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="4">
-        <v>720</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="4">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="4" max="4" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4246,310 +3840,312 @@
         <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D14" s="4">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>1234567</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4590,10 +4186,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -4601,16 +4197,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -4619,16 +4215,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4637,16 +4233,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -4657,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -4666,7 +4262,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -4675,7 +4271,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -4684,7 +4280,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4695,7 +4291,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -4704,7 +4300,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4715,7 +4311,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -4724,7 +4320,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -4735,7 +4331,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -4744,7 +4340,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -4755,7 +4351,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
@@ -4764,7 +4360,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -4775,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>41</v>
@@ -4784,7 +4380,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4838,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -4855,7 +4451,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -4872,7 +4468,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
@@ -4887,7 +4483,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -4902,7 +4498,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -4919,7 +4515,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -4936,7 +4532,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -4951,7 +4547,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -4966,7 +4562,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -4983,7 +4579,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
@@ -5036,10 +4632,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -5056,10 +4652,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>57</v>
@@ -5071,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -5082,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
@@ -5097,7 +4693,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -5106,7 +4702,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
@@ -5121,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -5132,7 +4728,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>56</v>
@@ -5141,13 +4737,13 @@
         <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -5197,10 +4793,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -5214,13 +4810,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -5229,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5237,13 +4833,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -5252,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5260,13 +4856,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -5275,7 +4871,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5283,13 +4879,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -5298,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5306,13 +4902,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -5321,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5329,13 +4925,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -5344,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5352,13 +4948,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -5367,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5375,13 +4971,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5390,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5398,13 +4994,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -5413,7 +5009,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5421,13 +5017,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -5436,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5477,10 +5073,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5488,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -5497,7 +5093,7 @@
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5505,16 +5101,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5522,7 +5118,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>37</v>
@@ -5531,7 +5127,7 @@
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5539,7 +5135,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>38</v>
@@ -5548,7 +5144,7 @@
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5556,7 +5152,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -5573,7 +5169,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -5582,7 +5178,7 @@
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5590,7 +5186,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -5599,7 +5195,7 @@
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5607,7 +5203,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -5624,7 +5220,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>43</v>
@@ -5641,7 +5237,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>70</v>
@@ -5650,7 +5246,7 @@
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5688,7 +5284,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5696,13 +5292,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -5711,13 +5307,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5725,13 +5321,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5739,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>71</v>
@@ -5753,7 +5349,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>72</v>
@@ -5767,7 +5363,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>73</v>
@@ -5781,10 +5377,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>151</v>
@@ -5795,10 +5391,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>77</v>
@@ -5809,7 +5405,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>74</v>
@@ -5823,7 +5419,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>76</v>
@@ -5867,10 +5463,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5878,13 +5474,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -5943,16 +5539,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5969,7 +5565,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -5987,7 +5583,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5995,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
@@ -6019,7 +5615,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -6043,7 +5639,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -6067,7 +5663,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -6091,7 +5687,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -6115,7 +5711,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -6139,7 +5735,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -6163,7 +5759,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="458">
   <si>
     <t>Id
 序号</t>
@@ -618,10 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name
 名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,10 +1067,6 @@
   <si>
     <t>Params
 函数参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbcJson</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1485,219 +1477,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大支持的显示屏的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voltageRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源电压支持范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socSerial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcuSerial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it6831</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnxScreenShotPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnxResolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxRelayChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidAutomationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testCaseType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC串口配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU串口配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Konstanter串口配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT6831串口配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>/tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiFire_B31CP_Info_HU_CAN_V2.0.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.chinatsp.settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.SettingsActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_android_display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_qnx_display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大QNX显示屏的个数</t>
+  </si>
+  <si>
+    <t>电源电压支持最小电压</t>
+  </si>
+  <si>
+    <t>voltage_max</t>
+  </si>
+  <si>
+    <t>电源电压支持最大电压</t>
+  </si>
+  <si>
+    <t>soc_serial_port</t>
+  </si>
+  <si>
+    <t>SOC串口号</t>
+  </si>
+  <si>
+    <t>COM26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC串口波特率</t>
+  </si>
+  <si>
+    <t>mcu_serial_port</t>
+  </si>
+  <si>
+    <t>MCU串口号</t>
+  </si>
+  <si>
+    <t>mcu_serial_baud_rate</t>
+  </si>
+  <si>
+    <t>MCU串口波特率</t>
+  </si>
+  <si>
+    <t>konstanter_serial_port</t>
+  </si>
+  <si>
+    <t>Konstanter串口号</t>
+  </si>
+  <si>
+    <t>konstanter_serial_baud_rate</t>
+  </si>
+  <si>
+    <t>Konstanter串口波特率</t>
+  </si>
+  <si>
+    <t>it6831_serial_port</t>
+  </si>
+  <si>
+    <t>IT6831串口号</t>
+  </si>
+  <si>
+    <t>it6831_serial_baud_rate</t>
+  </si>
+  <si>
+    <t>IT6831串口波特率</t>
+  </si>
+  <si>
+    <t>air_condition_port</t>
   </si>
   <si>
     <t>空调屏(QNX)串口配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnx_screen_shot_path</t>
   </si>
   <si>
     <t>QNX截图存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_screen_shot_path</t>
   </si>
   <si>
     <t>Android截图存放路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android屏幕分辨率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QNX屏幕分辨率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidScreenShotPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidResolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android屏幕宽</t>
+  </si>
+  <si>
+    <t>android_resolution_height</t>
+  </si>
+  <si>
+    <t>Android屏幕高</t>
+  </si>
+  <si>
+    <t>qnx_resolution_width</t>
+  </si>
+  <si>
+    <t>QNX屏幕宽</t>
+  </si>
+  <si>
+    <t>qnx_resolution_height</t>
+  </si>
+  <si>
+    <t>QNX屏幕高</t>
+  </si>
+  <si>
+    <t>dbc_file</t>
+  </si>
+  <si>
+    <t>DBC文件名称</t>
+  </si>
+  <si>
+    <t>dbc_json</t>
   </si>
   <si>
     <t>DBC解析后生成的文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最大支持的继电器通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_automation_type</t>
   </si>
   <si>
     <t>Android自动化测试方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidAppPackage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_app_package</t>
   </si>
   <si>
     <t>安卓的启动应用的package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_app_activity</t>
   </si>
   <si>
     <t>安卓的启动应用的activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_version</t>
+  </si>
+  <si>
+    <t>安卓系统版本号</t>
+  </si>
+  <si>
+    <t>安卓设备号</t>
+  </si>
+  <si>
+    <t>test_case_type</t>
   </si>
   <si>
     <t>测试类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM23, 115200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM24, 115200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM26, 19200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1920,720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1920,1080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HiFire_B31CP_Info_HU_CAN_V2.0.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.chinatsp.settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.SettingsActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓系统版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidAppActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仪表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androidDeviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓设备号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>konstanter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBC文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM25, 9600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbcFile</t>
+  </si>
+  <si>
+    <t>soc_serial_baud_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltage_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_resolution_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_device_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_relay_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大安卓显示屏的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调屏(QNX)串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>air_condition_baud_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name
+名字/函数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1735,7 +1732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1758,24 +1755,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1792,9 +1778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1814,9 +1797,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2100,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2136,7 +2116,7 @@
         <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2147,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>29</v>
@@ -2171,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -2195,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -2207,7 +2187,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2221,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -2230,14 +2210,14 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2245,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -2257,7 +2237,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2271,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -2283,7 +2263,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2297,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
@@ -2309,7 +2289,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2323,7 +2303,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -2335,7 +2315,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2349,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -2361,7 +2341,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2375,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -2387,7 +2367,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2453,16 +2433,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2473,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>80</v>
@@ -2482,7 +2462,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2493,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>81</v>
@@ -2502,7 +2482,7 @@
         <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2513,7 +2493,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>82</v>
@@ -2522,7 +2502,7 @@
         <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2533,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>83</v>
@@ -2542,7 +2522,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2553,7 +2533,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>84</v>
@@ -2562,7 +2542,7 @@
         <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2573,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>85</v>
@@ -2582,7 +2562,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2593,7 +2573,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>86</v>
@@ -2602,7 +2582,7 @@
         <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2613,7 +2593,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>87</v>
@@ -2622,7 +2602,7 @@
         <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2633,7 +2613,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>88</v>
@@ -2642,7 +2622,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2694,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -2726,28 +2706,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="J2" s="1">
         <v>9.9</v>
@@ -2760,10 +2740,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>58</v>
@@ -2775,13 +2755,13 @@
         <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J3" s="1">
         <v>90</v>
@@ -2794,7 +2774,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>97</v>
@@ -2803,19 +2783,19 @@
         <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J4" s="1">
         <v>90</v>
@@ -2828,7 +2808,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>98</v>
@@ -2843,13 +2823,13 @@
         <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J5" s="1">
         <v>90</v>
@@ -2864,7 +2844,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
@@ -2879,13 +2859,13 @@
         <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J6" s="1">
         <v>90</v>
@@ -2902,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>100</v>
@@ -2917,13 +2897,13 @@
         <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J7" s="1">
         <v>90</v>
@@ -2940,7 +2920,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>101</v>
@@ -2955,13 +2935,13 @@
         <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J8" s="1">
         <v>90</v>
@@ -2978,7 +2958,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>102</v>
@@ -2993,13 +2973,13 @@
         <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J9" s="1">
         <v>90</v>
@@ -3016,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>103</v>
@@ -3031,13 +3011,13 @@
         <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J10" s="1">
         <v>90</v>
@@ -3054,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>104</v>
@@ -3069,13 +3049,13 @@
         <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J11" s="1">
         <v>90</v>
@@ -3130,13 +3110,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3144,19 +3124,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3173,10 +3153,10 @@
         <v>137</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3193,7 +3173,7 @@
         <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>138</v>
@@ -3213,7 +3193,7 @@
         <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>139</v>
@@ -3233,7 +3213,7 @@
         <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>140</v>
@@ -3253,7 +3233,7 @@
         <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>141</v>
@@ -3273,7 +3253,7 @@
         <v>137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>146</v>
@@ -3293,7 +3273,7 @@
         <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>142</v>
@@ -3313,7 +3293,7 @@
         <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>143</v>
@@ -3333,7 +3313,7 @@
         <v>137</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>144</v>
@@ -3377,7 +3357,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3385,16 +3365,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3402,16 +3382,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3425,7 +3405,7 @@
         <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>138</v>
@@ -3442,7 +3422,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>139</v>
@@ -3459,7 +3439,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>140</v>
@@ -3476,7 +3456,7 @@
         <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>141</v>
@@ -3493,7 +3473,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>146</v>
@@ -3510,7 +3490,7 @@
         <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>142</v>
@@ -3527,7 +3507,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>143</v>
@@ -3538,13 +3518,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>144</v>
@@ -3587,29 +3567,29 @@
       <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3622,29 +3602,29 @@
       <c r="C2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>391</v>
+      <c r="D2" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>134</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3657,29 +3637,29 @@
       <c r="C3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>132</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>135</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
@@ -3692,29 +3672,29 @@
       <c r="C4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>133</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>276</v>
+      <c r="K4" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3750,16 +3730,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3767,16 +3747,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>351</v>
+        <v>263</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3784,16 +3764,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>352</v>
+        <v>266</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3804,13 +3784,13 @@
         <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>351</v>
+        <v>267</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3822,15 +3802,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.25" customWidth="1"/>
   </cols>
@@ -3840,7 +3820,7 @@
         <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>166</v>
@@ -3853,28 +3833,28 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>443</v>
+      <c r="B2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -3882,14 +3862,14 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>445</v>
+      <c r="B4" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -3897,14 +3877,14 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>444</v>
+      <c r="B5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3912,14 +3892,14 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -3927,14 +3907,14 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>424</v>
+      <c r="D7" s="1">
+        <v>115200</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3942,14 +3922,14 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>425</v>
+      <c r="C8" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3957,14 +3937,14 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>425</v>
+      <c r="B9" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D9" s="1">
+        <v>115200</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -3972,14 +3952,14 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>426</v>
+      <c r="B10" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -3987,14 +3967,14 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>427</v>
+      <c r="C11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="1">
+        <v>115200</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -4002,14 +3982,14 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>428</v>
+      <c r="B12" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -4017,14 +3997,14 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>429</v>
+      <c r="B13" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="1">
+        <v>115200</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -4032,14 +4012,14 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>430</v>
+      <c r="B14" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -4047,14 +4027,14 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D15" s="4">
-        <v>8</v>
+      <c r="B15" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" s="1">
+        <v>115200</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -4062,14 +4042,14 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>418</v>
+      <c r="B16" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -4077,14 +4057,14 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>420</v>
+      <c r="B17" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -4092,14 +4072,14 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>433</v>
+      <c r="B18" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1920</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -4107,14 +4087,14 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>437</v>
+      <c r="B19" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="1">
+        <v>720</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -4122,14 +4102,14 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1234567</v>
+      <c r="B20" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1920</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -4137,14 +4117,141 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D21" s="1">
+        <v>720</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>438</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4186,10 +4293,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -4197,16 +4304,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -4215,16 +4322,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4233,16 +4340,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -4253,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -4262,7 +4369,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -4271,7 +4378,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -4280,7 +4387,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4291,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -4300,7 +4407,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4311,7 +4418,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -4320,7 +4427,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -4331,7 +4438,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -4340,7 +4447,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -4351,7 +4458,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
@@ -4360,7 +4467,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -4371,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>41</v>
@@ -4380,7 +4487,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4434,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -4451,7 +4558,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -4468,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
@@ -4483,7 +4590,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -4498,7 +4605,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -4515,7 +4622,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -4532,7 +4639,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -4547,7 +4654,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -4562,7 +4669,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -4579,7 +4686,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
@@ -4632,10 +4739,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -4652,10 +4759,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>57</v>
@@ -4667,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4678,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
@@ -4692,8 +4799,8 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>344</v>
+      <c r="G3" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -4702,7 +4809,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
@@ -4716,8 +4823,8 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>342</v>
+      <c r="G4" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4728,7 +4835,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>56</v>
@@ -4737,13 +4844,13 @@
         <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -4793,10 +4900,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -4810,13 +4917,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4825,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4833,13 +4940,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4848,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4856,13 +4963,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4871,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4879,13 +4986,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4894,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4902,13 +5009,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4917,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4925,13 +5032,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4940,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4948,13 +5055,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4963,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4971,13 +5078,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4986,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4994,13 +5101,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -5009,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5017,13 +5124,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -5032,7 +5139,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5073,10 +5180,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5084,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -5093,7 +5200,7 @@
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5101,16 +5208,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5118,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>37</v>
@@ -5127,7 +5234,7 @@
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5135,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>38</v>
@@ -5144,7 +5251,7 @@
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5152,7 +5259,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -5169,7 +5276,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -5178,7 +5285,7 @@
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5186,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -5195,7 +5302,7 @@
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5203,7 +5310,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -5220,7 +5327,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>43</v>
@@ -5237,7 +5344,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>70</v>
@@ -5246,7 +5353,7 @@
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5261,7 +5368,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5278,13 +5385,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>457</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5292,28 +5399,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="8"/>
+        <v>320</v>
+      </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5321,13 +5428,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5335,7 +5442,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>71</v>
@@ -5349,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>72</v>
@@ -5363,7 +5470,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>73</v>
@@ -5377,10 +5484,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>151</v>
@@ -5391,10 +5498,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>77</v>
@@ -5405,7 +5512,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>74</v>
@@ -5419,7 +5526,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>76</v>
@@ -5463,24 +5570,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>383</v>
+      <c r="B2" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -5539,16 +5646,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5565,7 +5672,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -5583,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5591,7 +5698,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
@@ -5615,7 +5722,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -5639,7 +5746,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -5663,7 +5770,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -5687,7 +5794,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -5711,7 +5818,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -5735,7 +5842,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -5759,7 +5866,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -1501,10 +1501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\Workspace\github\code\file\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>max_android_display</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,6 +1691,10 @@
   <si>
     <t>Name
 名字/函数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\temp\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3804,8 +3804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3834,10 +3834,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
@@ -3848,10 +3848,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3863,10 +3863,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -3878,10 +3878,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -3893,13 +3893,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -3908,10 +3908,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D7" s="1">
         <v>115200</v>
@@ -3923,13 +3923,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3938,10 +3938,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="D9" s="1">
         <v>115200</v>
@@ -3953,13 +3953,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D11" s="1">
         <v>115200</v>
@@ -3983,13 +3983,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3998,10 +3998,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D13" s="1">
         <v>115200</v>
@@ -4013,13 +4013,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -4028,10 +4028,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D15" s="1">
         <v>115200</v>
@@ -4043,10 +4043,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>391</v>
@@ -4058,10 +4058,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>391</v>
@@ -4073,10 +4073,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D18" s="1">
         <v>1920</v>
@@ -4088,10 +4088,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="D19" s="1">
         <v>720</v>
@@ -4103,10 +4103,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="D20" s="1">
         <v>1920</v>
@@ -4118,10 +4118,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="D21" s="1">
         <v>720</v>
@@ -4133,13 +4133,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4147,10 +4147,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>392</v>
@@ -4161,10 +4161,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -4175,10 +4175,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>393</v>
@@ -4189,10 +4189,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>394</v>
@@ -4203,10 +4203,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>395</v>
@@ -4217,10 +4217,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>396</v>
@@ -4231,10 +4231,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D29" s="1">
         <v>1234567</v>
@@ -4245,10 +4245,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>389</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <sheet name="测试用例前置条件(TestCaseSetUp)" sheetId="16" r:id="rId15"/>
     <sheet name="配置(Configure)" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="462">
   <si>
     <t>Id
 序号</t>
@@ -44,10 +44,6 @@
 名字/函数名</t>
   </si>
   <si>
-    <t>Comment
-描述</t>
-  </si>
-  <si>
     <t>BatteryOperationType
 电源操作类型</t>
   </si>
@@ -610,11 +606,6 @@
   <si>
     <t>Content
 内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment
-描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1695,6 +1686,36 @@
   </si>
   <si>
     <t>D:\temp\HiFire_B31CP_Info_HU_CAN_V2.0.dbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments
+描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceType
+屏幕类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2081,7 +2102,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2104,22 +2125,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2127,23 +2148,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2151,23 +2172,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>13</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2175,25 +2196,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2201,23 +2222,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2225,25 +2246,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2251,25 +2272,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2277,25 +2298,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2303,25 +2324,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2329,25 +2350,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2355,25 +2376,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2396,7 +2417,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2416,16 +2437,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>458</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2433,16 +2454,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2453,16 +2474,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2473,16 +2494,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2493,16 +2514,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2513,16 +2534,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2533,16 +2554,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -2553,16 +2574,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -2573,16 +2594,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2593,16 +2614,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2613,16 +2634,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2644,7 +2665,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2671,34 +2692,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -2706,28 +2727,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="J2" s="1">
         <v>9.9</v>
@@ -2740,28 +2761,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="J3" s="1">
         <v>90</v>
@@ -2774,28 +2795,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="J4" s="1">
         <v>90</v>
@@ -2808,34 +2829,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J5" s="1">
         <v>90</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -2844,34 +2865,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J6" s="1">
         <v>90</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="1">
         <v>240</v>
@@ -2882,34 +2903,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J7" s="1">
         <v>90</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1">
         <v>240</v>
@@ -2920,34 +2941,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J8" s="1">
         <v>90</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1">
         <v>240</v>
@@ -2958,34 +2979,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J9" s="1">
         <v>90</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L9" s="1">
         <v>240</v>
@@ -2996,34 +3017,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J10" s="1">
         <v>90</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1">
         <v>240</v>
@@ -3034,34 +3055,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J11" s="1">
         <v>90</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1">
         <v>240</v>
@@ -3087,7 +3108,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3107,16 +3128,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3124,19 +3145,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3144,19 +3165,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3164,19 +3185,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3184,19 +3205,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3204,19 +3225,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3224,19 +3245,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3244,19 +3265,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3264,19 +3285,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3284,19 +3305,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3304,19 +3325,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3331,7 +3352,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3351,13 +3372,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3365,16 +3386,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3382,16 +3403,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3399,16 +3420,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3416,16 +3437,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3433,16 +3454,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3450,16 +3471,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3467,16 +3488,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3484,16 +3505,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3501,16 +3522,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3518,16 +3539,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3563,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3550,7 +3571,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="21.625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="7" width="27.625" customWidth="1"/>
     <col min="8" max="10" width="21.625" customWidth="1"/>
@@ -3565,31 +3586,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3597,34 +3618,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3632,34 +3653,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
@@ -3667,34 +3688,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3713,7 +3734,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3730,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3747,16 +3768,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3764,16 +3785,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3781,16 +3802,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3804,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3817,16 +3838,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>166</v>
+        <v>459</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3834,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
@@ -3848,10 +3869,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3863,10 +3884,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -3878,10 +3899,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -3893,13 +3914,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -3908,10 +3929,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D7" s="1">
         <v>115200</v>
@@ -3923,13 +3944,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3938,10 +3959,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D9" s="1">
         <v>115200</v>
@@ -3953,13 +3974,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -3968,10 +3989,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D11" s="1">
         <v>115200</v>
@@ -3983,13 +4004,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3998,10 +4019,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D13" s="1">
         <v>115200</v>
@@ -4013,13 +4034,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -4028,10 +4049,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D15" s="1">
         <v>115200</v>
@@ -4043,13 +4064,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -4058,13 +4079,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -4073,10 +4094,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D18" s="1">
         <v>1920</v>
@@ -4088,10 +4109,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D19" s="1">
         <v>720</v>
@@ -4103,10 +4124,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D20" s="1">
         <v>1920</v>
@@ -4118,10 +4139,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D21" s="1">
         <v>720</v>
@@ -4133,13 +4154,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4147,13 +4168,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4161,10 +4182,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -4175,13 +4196,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -4189,13 +4210,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4203,13 +4224,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4217,13 +4238,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4231,10 +4252,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D29" s="1">
         <v>1234567</v>
@@ -4245,13 +4266,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -4266,7 +4287,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4287,16 +4308,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -4304,16 +4325,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -4322,16 +4343,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4340,16 +4361,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -4360,16 +4381,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -4378,16 +4399,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4398,16 +4419,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4418,16 +4439,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -4438,16 +4459,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -4458,16 +4479,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -4478,16 +4499,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4507,7 +4528,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4527,13 +4548,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>458</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4541,13 +4562,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4558,13 +4579,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4575,13 +4596,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -4590,13 +4611,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -4605,13 +4626,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -4622,13 +4643,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -4639,13 +4660,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -4654,13 +4675,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -4669,13 +4690,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -4686,13 +4707,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -4713,7 +4734,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4736,22 +4757,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>458</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>461</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -4759,22 +4780,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4785,22 +4806,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -4809,22 +4830,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4835,22 +4856,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -4876,7 +4897,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4897,19 +4918,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4917,13 +4938,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4932,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4940,13 +4961,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -4955,7 +4976,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4963,13 +4984,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4978,7 +4999,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4986,13 +5007,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -5001,7 +5022,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5009,13 +5030,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -5024,7 +5045,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5032,13 +5053,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -5047,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5055,13 +5076,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -5070,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5078,13 +5099,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5093,7 +5114,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5101,13 +5122,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -5116,7 +5137,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5124,13 +5145,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -5139,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5157,8 +5178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5171,19 +5192,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5191,16 +5212,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1">
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5208,16 +5229,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5225,16 +5246,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1">
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5242,16 +5263,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5259,16 +5280,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>645</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5276,16 +5297,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5293,16 +5314,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5310,16 +5331,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
         <v>649</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5327,16 +5348,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>643</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5344,16 +5365,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1">
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5368,7 +5389,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5385,13 +5406,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>458</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5399,13 +5420,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -5414,13 +5435,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5428,13 +5449,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5442,13 +5463,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5456,13 +5477,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5470,13 +5491,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5484,13 +5505,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5498,13 +5519,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5512,13 +5533,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5526,13 +5547,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5547,7 +5568,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5567,13 +5588,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5581,13 +5602,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -5602,7 +5623,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5623,22 +5644,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5646,16 +5667,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5664,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5672,16 +5693,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1">
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5690,7 +5711,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5698,16 +5719,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5722,16 +5743,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5746,16 +5767,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>340</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5770,16 +5791,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5794,16 +5815,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>914</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -5818,16 +5839,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>585</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5842,16 +5863,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1">
         <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -5866,16 +5887,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -2416,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2665,7 +2665,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5178,8 +5178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5623,7 +5623,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="463">
   <si>
     <t>Id
 序号</t>
@@ -1716,6 +1716,11 @@
   <si>
     <t>DeviceType
 屏幕类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAttribute
+元素属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2102,7 +2107,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2416,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3108,7 +3113,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3137,7 +3142,7 @@
         <v>375</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>294</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3352,7 +3357,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3563,7 +3568,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4287,7 +4292,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4527,8 +4532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -1284,10 +1284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Can类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BatteryAction=battery_test1
 yeild
 pass</t>
@@ -1721,6 +1717,10 @@
   <si>
     <t>ElementAttribute
 元素属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -2459,16 +2459,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2479,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
@@ -2697,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>278</v>
@@ -2735,25 +2735,25 @@
         <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J2" s="1">
         <v>9.9</v>
@@ -2766,10 +2766,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>57</v>
@@ -2787,7 +2787,7 @@
         <v>168</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J3" s="1">
         <v>90</v>
@@ -2809,7 +2809,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>92</v>
@@ -2821,7 +2821,7 @@
         <v>168</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J4" s="1">
         <v>90</v>
@@ -2855,7 +2855,7 @@
         <v>168</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J5" s="1">
         <v>90</v>
@@ -2891,7 +2891,7 @@
         <v>168</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J6" s="1">
         <v>90</v>
@@ -2929,7 +2929,7 @@
         <v>168</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J7" s="1">
         <v>90</v>
@@ -2967,7 +2967,7 @@
         <v>168</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J8" s="1">
         <v>90</v>
@@ -3005,7 +3005,7 @@
         <v>168</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J9" s="1">
         <v>90</v>
@@ -3043,7 +3043,7 @@
         <v>168</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J10" s="1">
         <v>90</v>
@@ -3081,7 +3081,7 @@
         <v>168</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J11" s="1">
         <v>90</v>
@@ -3113,7 +3113,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3133,16 +3133,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3150,10 +3150,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>113</v>
@@ -3162,7 +3162,7 @@
         <v>247</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3179,10 +3179,10 @@
         <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3199,7 +3199,7 @@
         <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>137</v>
@@ -3219,7 +3219,7 @@
         <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>138</v>
@@ -3239,7 +3239,7 @@
         <v>136</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>139</v>
@@ -3259,7 +3259,7 @@
         <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>140</v>
@@ -3279,7 +3279,7 @@
         <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>145</v>
@@ -3299,7 +3299,7 @@
         <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>141</v>
@@ -3319,7 +3319,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>142</v>
@@ -3339,7 +3339,7 @@
         <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>143</v>
@@ -3357,7 +3357,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3377,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -3391,16 +3391,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3408,16 +3408,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3544,10 +3544,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>302</v>
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>23</v>
@@ -3629,10 +3629,10 @@
         <v>122</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>128</v>
@@ -3641,7 +3641,7 @@
         <v>266</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>250</v>
@@ -3702,13 +3702,13 @@
         <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>132</v>
@@ -3759,7 +3759,7 @@
         <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>256</v>
@@ -3779,10 +3779,10 @@
         <v>261</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3790,16 +3790,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3813,10 +3813,10 @@
         <v>265</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3849,7 +3849,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>164</v>
@@ -3860,10 +3860,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
@@ -3874,10 +3874,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3889,10 +3889,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -3904,10 +3904,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -3919,13 +3919,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -3934,10 +3934,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D7" s="1">
         <v>115200</v>
@@ -3949,13 +3949,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3964,10 +3964,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="D9" s="1">
         <v>115200</v>
@@ -3979,13 +3979,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -3994,10 +3994,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="D11" s="1">
         <v>115200</v>
@@ -4009,13 +4009,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -4024,10 +4024,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D13" s="1">
         <v>115200</v>
@@ -4039,13 +4039,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -4054,10 +4054,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D15" s="1">
         <v>115200</v>
@@ -4069,13 +4069,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -4084,13 +4084,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -4099,10 +4099,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D18" s="1">
         <v>1920</v>
@@ -4114,10 +4114,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="D19" s="1">
         <v>720</v>
@@ -4129,10 +4129,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="D20" s="1">
         <v>1920</v>
@@ -4144,10 +4144,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="D21" s="1">
         <v>720</v>
@@ -4159,13 +4159,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4173,13 +4173,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4187,10 +4187,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -4201,13 +4201,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -4215,13 +4215,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4229,13 +4229,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4243,13 +4243,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4257,10 +4257,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D29" s="1">
         <v>1234567</v>
@@ -4271,13 +4271,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -4532,7 +4532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -4739,7 +4739,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4762,10 +4762,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>334</v>
@@ -4902,7 +4902,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>279</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>296</v>
@@ -5411,10 +5411,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>268</v>
@@ -5572,8 +5572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5593,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>345</v>
@@ -5607,13 +5607,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>346</v>
+        <v>462</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -5628,7 +5628,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -5681,7 +5681,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5716,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5810,9 +5810,7 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5834,9 +5832,7 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="474">
   <si>
     <t>Id
 序号</t>
@@ -1056,11 +1056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Params
-函数参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ElementAttribute
 元素属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1276,11 +1271,6 @@
   </si>
   <si>
     <t>oooo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommonType
-模块类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1296,10 +1286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>common4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ACU_RePassBkl_Sts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1415,17 +1401,6 @@
   </si>
   <si>
     <t>module3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear_stack_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryAction=battery_test3
-COMMON=clear_stack_data
-SLEEP=3
-ElementAction=esp_on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1720,7 +1695,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Can类</t>
+    <t>Name
+名字/函数名/模块名</t>
+  </si>
+  <si>
+    <t>Comments
+描述</t>
+  </si>
+  <si>
+    <t>CommonType
+模块类型</t>
+  </si>
+  <si>
+    <t>Params
+函数参数</t>
+  </si>
+  <si>
+    <t>comment1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment2</t>
+  </si>
+  <si>
+    <t>comment3</t>
+  </si>
+  <si>
+    <t>clear_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test3
+STACK
+SLEEP=3
+ElementAction=esp_on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空编辑框中的文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入文本框中的文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动查找元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locator={"classname": "android.widget.ListView"}
+timeout=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locator={"classname": "android.widget.ListView"}
+text="测试"
+timeout=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe_element={"classname": "android.widget.ListView"}
+locator={"classname": "android.widget.TextView"}
+text="龙卷风"
+swipe_percent=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swipe_find_text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1812,9 +1858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1823,6 +1866,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2130,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -2142,7 +2188,7 @@
         <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2159,7 +2205,7 @@
         <v>255</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -2201,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
@@ -2213,7 +2259,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2236,14 +2282,14 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2263,7 +2309,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2289,7 +2335,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2315,7 +2361,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2341,7 +2387,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2367,7 +2413,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2393,7 +2439,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2442,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -2459,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2479,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
@@ -2697,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>278</v>
@@ -2735,25 +2781,25 @@
         <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J2" s="1">
         <v>9.9</v>
@@ -2766,10 +2812,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>57</v>
@@ -2787,7 +2833,7 @@
         <v>168</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J3" s="1">
         <v>90</v>
@@ -2809,7 +2855,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>92</v>
@@ -2821,7 +2867,7 @@
         <v>168</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J4" s="1">
         <v>90</v>
@@ -2855,7 +2901,7 @@
         <v>168</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J5" s="1">
         <v>90</v>
@@ -2891,7 +2937,7 @@
         <v>168</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J6" s="1">
         <v>90</v>
@@ -2929,7 +2975,7 @@
         <v>168</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J7" s="1">
         <v>90</v>
@@ -2967,7 +3013,7 @@
         <v>168</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J8" s="1">
         <v>90</v>
@@ -3005,7 +3051,7 @@
         <v>168</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J9" s="1">
         <v>90</v>
@@ -3043,7 +3089,7 @@
         <v>168</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J10" s="1">
         <v>90</v>
@@ -3081,7 +3127,7 @@
         <v>168</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J11" s="1">
         <v>90</v>
@@ -3133,16 +3179,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3150,10 +3196,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>113</v>
@@ -3162,7 +3208,7 @@
         <v>247</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3179,10 +3225,10 @@
         <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3199,7 +3245,7 @@
         <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>137</v>
@@ -3219,7 +3265,7 @@
         <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>138</v>
@@ -3239,7 +3285,7 @@
         <v>136</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>139</v>
@@ -3259,7 +3305,7 @@
         <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>140</v>
@@ -3279,7 +3325,7 @@
         <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>145</v>
@@ -3299,7 +3345,7 @@
         <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>141</v>
@@ -3319,7 +3365,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>142</v>
@@ -3339,7 +3385,7 @@
         <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>143</v>
@@ -3377,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3391,16 +3437,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3408,16 +3454,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3431,7 +3477,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>137</v>
@@ -3448,7 +3494,7 @@
         <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>138</v>
@@ -3465,7 +3511,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>139</v>
@@ -3482,7 +3528,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>140</v>
@@ -3499,7 +3545,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>145</v>
@@ -3516,7 +3562,7 @@
         <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>141</v>
@@ -3533,7 +3579,7 @@
         <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>142</v>
@@ -3544,13 +3590,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>143</v>
@@ -3568,7 +3614,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3591,9 +3637,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D1" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3628,11 +3674,11 @@
       <c r="C2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>386</v>
+      <c r="D2" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>128</v>
@@ -3641,7 +3687,7 @@
         <v>266</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>250</v>
@@ -3663,7 +3709,7 @@
       <c r="C3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3698,17 +3744,17 @@
       <c r="C4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>132</v>
@@ -3759,7 +3805,7 @@
         <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>256</v>
@@ -3779,10 +3825,10 @@
         <v>261</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3790,16 +3836,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3813,10 +3859,10 @@
         <v>265</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3849,7 +3895,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>164</v>
@@ -3860,10 +3906,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
@@ -3874,10 +3920,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3889,10 +3935,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -3904,10 +3950,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -3919,13 +3965,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -3934,10 +3980,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D7" s="1">
         <v>115200</v>
@@ -3949,13 +3995,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3964,10 +4010,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D9" s="1">
         <v>115200</v>
@@ -3979,13 +4025,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -3994,10 +4040,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D11" s="1">
         <v>115200</v>
@@ -4009,13 +4055,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -4024,10 +4070,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D13" s="1">
         <v>115200</v>
@@ -4039,13 +4085,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -4054,10 +4100,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D15" s="1">
         <v>115200</v>
@@ -4069,13 +4115,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -4084,13 +4130,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -4099,10 +4145,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D18" s="1">
         <v>1920</v>
@@ -4114,10 +4160,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D19" s="1">
         <v>720</v>
@@ -4129,10 +4175,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D20" s="1">
         <v>1920</v>
@@ -4144,10 +4190,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D21" s="1">
         <v>720</v>
@@ -4159,13 +4205,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4173,13 +4219,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4187,10 +4233,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -4201,13 +4247,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -4215,13 +4261,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4229,13 +4275,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4243,13 +4289,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4257,10 +4303,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D29" s="1">
         <v>1234567</v>
@@ -4271,13 +4317,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4292,7 +4338,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4313,16 +4359,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -4333,13 +4379,13 @@
         <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -4348,16 +4394,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4366,10 +4412,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>45</v>
@@ -4395,7 +4441,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -4413,7 +4459,7 @@
         <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4433,7 +4479,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4453,7 +4499,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -4484,7 +4530,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -4493,7 +4539,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -4504,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
@@ -4553,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -4567,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -4739,7 +4785,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4762,13 +4808,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -4785,10 +4831,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -4800,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4825,8 +4871,8 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>340</v>
+      <c r="G3" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -4835,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
@@ -4849,8 +4895,8 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>338</v>
+      <c r="G4" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4861,7 +4907,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>55</v>
@@ -4870,13 +4916,13 @@
         <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -4923,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>279</v>
@@ -4943,10 +4989,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>280</v>
@@ -5203,13 +5249,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5226,7 +5272,7 @@
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5237,13 +5283,13 @@
         <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5260,7 +5306,7 @@
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5277,7 +5323,7 @@
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5311,7 +5357,7 @@
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5328,7 +5374,7 @@
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5379,7 +5425,7 @@
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5411,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>268</v>
@@ -5431,7 +5477,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -5443,10 +5489,10 @@
         <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5457,10 +5503,10 @@
         <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5570,19 +5616,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5590,36 +5636,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>471</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5649,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -5681,7 +5764,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5716,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="482">
   <si>
     <t>Id
 序号</t>
@@ -900,11 +900,6 @@
   </si>
   <si>
     <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functions
-函数执行前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1422,12 +1417,6 @@
   <si>
     <t>Target
 目标信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryAction=battery_test1
-yeild
-pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1767,6 +1756,53 @@
   </si>
   <si>
     <t>swipe_find_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functions
+函数执行前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复CAN信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionsAfter
+函数执行后描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionsBefore
+函数执行前描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuitesBefore
+套件执行前描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuitesAfter
+套件执行后描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test1
+yeild
+sleep=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送CAN信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2176,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -2188,7 +2224,7 @@
         <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2205,7 +2241,7 @@
         <v>255</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -2247,7 +2283,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
@@ -2259,7 +2295,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2282,14 +2318,14 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2309,7 +2345,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2335,7 +2371,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2361,7 +2397,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2387,7 +2423,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2413,7 +2449,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2439,7 +2475,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2488,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -2505,16 +2541,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2525,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
@@ -2654,7 +2690,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2743,10 +2779,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -2781,25 +2817,25 @@
         <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J2" s="1">
         <v>9.9</v>
@@ -2812,10 +2848,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>57</v>
@@ -2833,7 +2869,7 @@
         <v>168</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J3" s="1">
         <v>90</v>
@@ -2855,7 +2891,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>92</v>
@@ -2867,7 +2903,7 @@
         <v>168</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J4" s="1">
         <v>90</v>
@@ -2901,7 +2937,7 @@
         <v>168</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J5" s="1">
         <v>90</v>
@@ -2937,7 +2973,7 @@
         <v>168</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J6" s="1">
         <v>90</v>
@@ -2975,7 +3011,7 @@
         <v>168</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J7" s="1">
         <v>90</v>
@@ -3013,7 +3049,7 @@
         <v>168</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J8" s="1">
         <v>90</v>
@@ -3051,7 +3087,7 @@
         <v>168</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J9" s="1">
         <v>90</v>
@@ -3089,7 +3125,7 @@
         <v>168</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J10" s="1">
         <v>90</v>
@@ -3127,7 +3163,7 @@
         <v>168</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J11" s="1">
         <v>90</v>
@@ -3179,16 +3215,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3196,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>113</v>
@@ -3208,7 +3244,7 @@
         <v>247</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3225,10 +3261,10 @@
         <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3245,7 +3281,7 @@
         <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>137</v>
@@ -3265,7 +3301,7 @@
         <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>138</v>
@@ -3285,7 +3321,7 @@
         <v>136</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>139</v>
@@ -3305,7 +3341,7 @@
         <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>140</v>
@@ -3325,7 +3361,7 @@
         <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>145</v>
@@ -3345,7 +3381,7 @@
         <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>141</v>
@@ -3365,7 +3401,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>142</v>
@@ -3385,7 +3421,7 @@
         <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>143</v>
@@ -3423,13 +3459,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3437,16 +3473,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3454,16 +3490,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3477,7 +3513,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>137</v>
@@ -3494,7 +3530,7 @@
         <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>138</v>
@@ -3511,7 +3547,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>139</v>
@@ -3528,7 +3564,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>140</v>
@@ -3545,7 +3581,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>145</v>
@@ -3562,7 +3598,7 @@
         <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>141</v>
@@ -3579,7 +3615,7 @@
         <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>142</v>
@@ -3590,13 +3626,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>143</v>
@@ -3613,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3637,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>23</v>
@@ -3649,19 +3685,19 @@
         <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>170</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3675,19 +3711,19 @@
         <v>122</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>250</v>
@@ -3713,7 +3749,7 @@
         <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>129</v>
@@ -3748,13 +3784,13 @@
         <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>132</v>
@@ -3766,7 +3802,7 @@
         <v>135</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3782,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3794,61 +3830,100 @@
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="28.375" customWidth="1"/>
+    <col min="5" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3856,13 +3931,25 @@
         <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>344</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +3982,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>164</v>
@@ -3906,10 +3993,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
@@ -3920,10 +4007,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3935,10 +4022,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -3950,10 +4037,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -3965,13 +4052,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -3980,10 +4067,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D7" s="1">
         <v>115200</v>
@@ -3995,13 +4082,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -4010,10 +4097,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D9" s="1">
         <v>115200</v>
@@ -4025,13 +4112,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -4040,10 +4127,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D11" s="1">
         <v>115200</v>
@@ -4055,13 +4142,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -4070,10 +4157,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D13" s="1">
         <v>115200</v>
@@ -4085,13 +4172,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -4100,10 +4187,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D15" s="1">
         <v>115200</v>
@@ -4115,13 +4202,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -4130,13 +4217,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -4145,10 +4232,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D18" s="1">
         <v>1920</v>
@@ -4160,10 +4247,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D19" s="1">
         <v>720</v>
@@ -4175,10 +4262,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D20" s="1">
         <v>1920</v>
@@ -4190,10 +4277,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D21" s="1">
         <v>720</v>
@@ -4205,13 +4292,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4219,13 +4306,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4233,10 +4320,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -4247,13 +4334,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -4261,13 +4348,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4275,13 +4362,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4289,13 +4376,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4303,10 +4390,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D29" s="1">
         <v>1234567</v>
@@ -4317,13 +4404,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -4359,16 +4446,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -4379,13 +4466,13 @@
         <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -4394,16 +4481,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4412,10 +4499,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>45</v>
@@ -4441,7 +4528,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -4459,7 +4546,7 @@
         <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4479,7 +4566,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4499,7 +4586,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -4510,7 +4597,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>40</v>
@@ -4519,7 +4606,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -4530,7 +4617,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -4539,7 +4626,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -4550,7 +4637,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
@@ -4559,7 +4646,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4599,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -4613,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -4808,13 +4895,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -4831,10 +4918,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -4846,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4872,7 +4959,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -4881,7 +4968,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
@@ -4896,7 +4983,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4907,7 +4994,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>55</v>
@@ -4916,13 +5003,13 @@
         <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -4969,13 +5056,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4989,13 +5076,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -5018,7 +5105,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -5027,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5041,7 +5128,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -5050,7 +5137,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5064,7 +5151,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -5073,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5087,7 +5174,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -5096,7 +5183,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5110,7 +5197,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -5119,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5133,7 +5220,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -5142,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5156,7 +5243,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5165,7 +5252,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5179,7 +5266,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -5188,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5202,7 +5289,7 @@
         <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -5211,7 +5298,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5249,13 +5336,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5272,7 +5359,7 @@
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5283,13 +5370,13 @@
         <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5306,7 +5393,7 @@
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5323,7 +5410,7 @@
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5357,7 +5444,7 @@
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5374,7 +5461,7 @@
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5425,7 +5512,7 @@
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5457,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5477,7 +5564,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -5489,10 +5576,10 @@
         <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5503,10 +5590,10 @@
         <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5556,10 +5643,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>150</v>
@@ -5570,10 +5657,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>76</v>
@@ -5618,7 +5705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -5636,16 +5723,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -5653,16 +5740,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5670,16 +5757,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -5687,16 +5774,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -5732,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -5764,7 +5851,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5799,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5971,7 +6058,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="487">
   <si>
     <t>Id
 序号</t>
@@ -891,10 +891,6 @@
     <t>CanAction=can_test3</t>
   </si>
   <si>
-    <t>InformationCompare=info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InformationCompare=info2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -969,11 +965,6 @@
   </si>
   <si>
     <t>can_compare_test10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InformationCompare=info3
-CanCompare=can_compare_test10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1796,13 +1787,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发送CAN信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例2</t>
+  </si>
+  <si>
+    <t>测试用例3</t>
+  </si>
+  <si>
+    <t>Description
+中文描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info3
+CanCompare=can_compare_test10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BatteryAction=battery_test1
 yeild
 sleep=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发送CAN信号</t>
+    <t>sleep=3
+yeild
+BatteryAction=battery_test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2212,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -2224,7 +2245,7 @@
         <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2238,10 +2259,10 @@
         <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -2283,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
@@ -2295,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2318,14 +2339,14 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2345,7 +2366,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2371,7 +2392,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2397,7 +2418,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2423,7 +2444,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2449,7 +2470,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2475,7 +2496,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2524,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -2541,16 +2562,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2561,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
@@ -2690,7 +2711,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2779,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -2817,25 +2838,25 @@
         <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J2" s="1">
         <v>9.9</v>
@@ -2848,10 +2869,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>57</v>
@@ -2869,7 +2890,7 @@
         <v>168</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J3" s="1">
         <v>90</v>
@@ -2891,7 +2912,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>92</v>
@@ -2903,7 +2924,7 @@
         <v>168</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J4" s="1">
         <v>90</v>
@@ -2937,7 +2958,7 @@
         <v>168</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J5" s="1">
         <v>90</v>
@@ -2973,7 +2994,7 @@
         <v>168</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J6" s="1">
         <v>90</v>
@@ -3011,7 +3032,7 @@
         <v>168</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J7" s="1">
         <v>90</v>
@@ -3049,7 +3070,7 @@
         <v>168</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J8" s="1">
         <v>90</v>
@@ -3087,7 +3108,7 @@
         <v>168</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J9" s="1">
         <v>90</v>
@@ -3125,7 +3146,7 @@
         <v>168</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J10" s="1">
         <v>90</v>
@@ -3163,7 +3184,7 @@
         <v>168</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J11" s="1">
         <v>90</v>
@@ -3215,16 +3236,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3232,10 +3253,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>113</v>
@@ -3244,7 +3265,7 @@
         <v>247</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3261,10 +3282,10 @@
         <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3281,7 +3302,7 @@
         <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>137</v>
@@ -3301,7 +3322,7 @@
         <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>138</v>
@@ -3321,7 +3342,7 @@
         <v>136</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>139</v>
@@ -3341,7 +3362,7 @@
         <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>140</v>
@@ -3361,7 +3382,7 @@
         <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>145</v>
@@ -3381,7 +3402,7 @@
         <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>141</v>
@@ -3401,7 +3422,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>142</v>
@@ -3421,7 +3442,7 @@
         <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>143</v>
@@ -3459,13 +3480,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3473,16 +3494,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3490,16 +3511,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3513,7 +3534,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>137</v>
@@ -3530,7 +3551,7 @@
         <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>138</v>
@@ -3547,7 +3568,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>139</v>
@@ -3564,7 +3585,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>140</v>
@@ -3581,7 +3602,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>145</v>
@@ -3598,7 +3619,7 @@
         <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>141</v>
@@ -3615,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>142</v>
@@ -3626,13 +3647,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>143</v>
@@ -3647,25 +3668,25 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="7" width="27.625" customWidth="1"/>
-    <col min="8" max="10" width="21.625" customWidth="1"/>
-    <col min="11" max="11" width="26.625" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="8" width="27.625" customWidth="1"/>
+    <col min="9" max="11" width="21.625" customWidth="1"/>
+    <col min="12" max="12" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3673,34 +3694,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3710,32 +3734,35 @@
       <c r="C2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>369</v>
+      <c r="D2" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3745,32 +3772,35 @@
       <c r="C3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3780,35 +3810,38 @@
       <c r="C4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>272</v>
+      <c r="L4" s="6" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D4">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E4">
       <formula1>"仪表,中控,空调屏"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3820,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3841,28 +3874,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -3870,28 +3903,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -3899,28 +3932,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>344</v>
+        <v>486</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -3931,25 +3964,25 @@
         <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -3964,7 +3997,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3982,7 +4015,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>164</v>
@@ -3993,10 +4026,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
@@ -4007,10 +4040,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4022,10 +4055,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -4037,10 +4070,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -4052,13 +4085,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4067,10 +4100,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D7" s="1">
         <v>115200</v>
@@ -4082,13 +4115,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -4097,10 +4130,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D9" s="1">
         <v>115200</v>
@@ -4112,13 +4145,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -4127,10 +4160,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D11" s="1">
         <v>115200</v>
@@ -4142,13 +4175,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -4157,10 +4190,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D13" s="1">
         <v>115200</v>
@@ -4172,13 +4205,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -4187,10 +4220,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D15" s="1">
         <v>115200</v>
@@ -4202,13 +4235,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -4217,13 +4250,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -4232,10 +4265,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D18" s="1">
         <v>1920</v>
@@ -4247,10 +4280,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D19" s="1">
         <v>720</v>
@@ -4262,10 +4295,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D20" s="1">
         <v>1920</v>
@@ -4277,10 +4310,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D21" s="1">
         <v>720</v>
@@ -4292,13 +4325,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4306,13 +4339,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4320,10 +4353,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -4334,13 +4367,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -4348,13 +4381,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4362,13 +4395,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4376,13 +4409,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4390,10 +4423,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D29" s="1">
         <v>1234567</v>
@@ -4404,13 +4437,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -4446,16 +4479,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -4466,13 +4499,13 @@
         <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -4481,16 +4514,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4499,10 +4532,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>45</v>
@@ -4528,7 +4561,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -4546,7 +4579,7 @@
         <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -4566,7 +4599,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -4586,7 +4619,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -4597,7 +4630,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>40</v>
@@ -4606,7 +4639,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -4617,7 +4650,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -4626,7 +4659,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -4637,7 +4670,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
@@ -4646,7 +4679,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4686,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -4700,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -4895,13 +4928,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -4918,10 +4951,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -4933,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4959,7 +4992,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -4968,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
@@ -4983,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H4" s="1">
         <v>0.5</v>
@@ -4994,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>55</v>
@@ -5003,13 +5036,13 @@
         <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -5056,13 +5089,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -5076,13 +5109,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -5105,7 +5138,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -5114,7 +5147,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5128,7 +5161,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -5137,7 +5170,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5151,7 +5184,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -5160,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5174,7 +5207,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -5183,7 +5216,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5197,7 +5230,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -5206,7 +5239,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5220,7 +5253,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -5229,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5243,7 +5276,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5252,7 +5285,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5266,7 +5299,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -5275,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5289,7 +5322,7 @@
         <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -5298,7 +5331,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5336,13 +5369,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5359,7 +5392,7 @@
         <v>642</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5370,13 +5403,13 @@
         <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D3" s="1">
         <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5393,7 +5426,7 @@
         <v>642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5410,7 +5443,7 @@
         <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5444,7 +5477,7 @@
         <v>645</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5461,7 +5494,7 @@
         <v>640</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5512,7 +5545,7 @@
         <v>340</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5544,13 +5577,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5564,7 +5597,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -5576,10 +5609,10 @@
         <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5590,10 +5623,10 @@
         <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5643,10 +5676,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>150</v>
@@ -5657,10 +5690,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>76</v>
@@ -5723,16 +5756,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -5740,16 +5773,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5757,16 +5790,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -5774,16 +5807,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -5819,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -5845,13 +5878,13 @@
         <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5886,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6058,7 +6091,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>

--- a/file/template.xlsx
+++ b/file/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="电源操作(BatteryAction)" sheetId="1" r:id="rId1"/>
@@ -1739,91 +1739,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>swipe_find_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functions
+函数执行前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复CAN信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionsAfter
+函数执行后描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionsBefore
+函数执行前描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuitesBefore
+套件执行前描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuitesAfter
+套件执行后描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送CAN信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例2</t>
+  </si>
+  <si>
+    <t>测试用例3</t>
+  </si>
+  <si>
+    <t>Description
+中文描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InformationCompare=info3
+CanCompare=can_compare_test10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryAction=battery_test1
+yeild
+sleep=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep=3
+yeild
+BatteryAction=battery_test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>swipe_element={"classname": "android.widget.ListView"}
 locator={"classname": "android.widget.TextView"}
 text="龙卷风"
 swipe_percent=0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swipe_find_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functions
-函数执行前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复CAN信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionsAfter
-函数执行后描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionsBefore
-函数执行前描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SuitesBefore
-套件执行前描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SuitesAfter
-套件执行后描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送CAN信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例2</t>
-  </si>
-  <si>
-    <t>测试用例3</t>
-  </si>
-  <si>
-    <t>Description
-中文描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InformationCompare=info1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InformationCompare=info3
-CanCompare=can_compare_test10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryAction=battery_test1
-yeild
-sleep=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep=3
-yeild
-BatteryAction=battery_test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3697,7 +3697,7 @@
         <v>449</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>23</v>
@@ -3735,7 +3735,7 @@
         <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>377</v>
@@ -3759,7 +3759,7 @@
         <v>133</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3773,7 +3773,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>125</v>
@@ -3811,7 +3811,7 @@
         <v>124</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>126</v>
@@ -3835,7 +3835,7 @@
         <v>135</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3853,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3880,22 +3880,22 @@
         <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>255</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -3912,19 +3912,19 @@
         <v>341</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -3941,19 +3941,19 @@
         <v>342</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -3970,19 +3970,19 @@
         <v>342</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>341</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -5738,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>457</v>
@@ -5782,7 +5782,7 @@
         <v>465</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
